--- a/3DGame_3_NamelessGame/NamelessGame_仕様書.xlsx
+++ b/3DGame_3_NamelessGame/NamelessGame_仕様書.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347059\Documents\GitHub\ProductionWork\3DGame_3_NamelessGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1F71649-C2FC-4637-A563-C66D09D9369F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB4CBC3F-35CD-436C-9C53-FC37EC87BD47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2DDD9D27-F88C-4C7A-90BC-D78AE39EE51E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{2DDD9D27-F88C-4C7A-90BC-D78AE39EE51E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="スケジュール" sheetId="2" r:id="rId2"/>
+    <sheet name="使用する素材" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>就職作品</t>
     <rPh sb="0" eb="4">
@@ -46,6 +48,90 @@
     <t>(作品名未定)</t>
     <rPh sb="1" eb="6">
       <t>サクヒンメイミテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スケジュール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仕様(やりたいこと)</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>武器・アイテム詳細</t>
+    <rPh sb="0" eb="2">
+      <t>ブキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面遷移</t>
+    <rPh sb="0" eb="4">
+      <t>ガメンセンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面詳細</t>
+    <rPh sb="0" eb="4">
+      <t>ガメンショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(UI面など)</t>
+    <rPh sb="3" eb="4">
+      <t>メン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仕様素材</t>
+    <rPh sb="0" eb="4">
+      <t>シヨウソザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10月</t>
+    <rPh sb="2" eb="3">
+      <t>ガツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1週目</t>
+    <rPh sb="1" eb="3">
+      <t>シュウメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2週目</t>
+    <rPh sb="1" eb="3">
+      <t>シュウメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3週目</t>
+    <rPh sb="1" eb="3">
+      <t>シュウメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4週目</t>
+    <rPh sb="1" eb="3">
+      <t>シュウメ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -93,9 +179,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -411,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C70E026E-4AC2-4824-A7A4-EC14C67ACD8A}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -422,12 +511,45 @@
     <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="D9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="D14" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -435,4 +557,58 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F1336CB-A938-459E-AE15-F52FB00617F4}">
+  <dimension ref="D3:G4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U6" sqref="U6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="3" spans="4:7" x14ac:dyDescent="0.4">
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="4:7" x14ac:dyDescent="0.4">
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D3:G3"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E3231B-BC62-49A9-9D95-855D709BB051}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/3DGame_3_NamelessGame/NamelessGame_仕様書.xlsx
+++ b/3DGame_3_NamelessGame/NamelessGame_仕様書.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347059\Documents\GitHub\ProductionWork\3DGame_3_NamelessGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB4CBC3F-35CD-436C-9C53-FC37EC87BD47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC402611-C647-4793-B05C-6BE05209FAD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{2DDD9D27-F88C-4C7A-90BC-D78AE39EE51E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2DDD9D27-F88C-4C7A-90BC-D78AE39EE51E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="スケジュール" sheetId="2" r:id="rId2"/>
-    <sheet name="使用する素材" sheetId="3" r:id="rId3"/>
+    <sheet name="使用する素材" sheetId="3" r:id="rId2"/>
+    <sheet name="スケジュール" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="49">
   <si>
     <t>就職作品</t>
     <rPh sb="0" eb="4">
@@ -133,6 +133,190 @@
     <rPh sb="1" eb="3">
       <t>シュウメ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Idle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Walk</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Run</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Gun1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Gun2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Installation</t>
+  </si>
+  <si>
+    <t>待機　</t>
+    <rPh sb="0" eb="2">
+      <t>タイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>歩く</t>
+    <rPh sb="0" eb="1">
+      <t>アル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>走る</t>
+    <rPh sb="0" eb="1">
+      <t>ハシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>銃(ハンドガン)</t>
+    <rPh sb="0" eb="1">
+      <t>ジュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>銃(マシンガン)</t>
+    <rPh sb="0" eb="1">
+      <t>ジュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>被ダメージ</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>罠設置</t>
+    <rPh sb="0" eb="3">
+      <t>ワナセッチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回復</t>
+    <rPh sb="0" eb="2">
+      <t>カイフク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Drink</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>吹っ飛び</t>
+    <rPh sb="0" eb="1">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BlownAway</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Death</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>死亡</t>
+    <rPh sb="0" eb="2">
+      <t>シボウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>再装填</t>
+    <rPh sb="0" eb="1">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ソウテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Reload</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Knife1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Knife2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Knife3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ナイフ1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ナイフ2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ナイフ3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Jump</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャンプ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>落下</t>
+    <rPh sb="0" eb="2">
+      <t>ラッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回避</t>
+    <rPh sb="0" eb="2">
+      <t>カイヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Roll</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Landing</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hit</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -500,18 +684,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C70E026E-4AC2-4824-A7A4-EC14C67ACD8A}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -519,37 +705,206 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="D9" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="I9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="D10" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="I10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="D11" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="D12" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="I12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="D13" t="s">
         <v>6</v>
       </c>
       <c r="E13" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="I13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="D14" t="s">
         <v>8</v>
+      </c>
+      <c r="I14" t="s">
+        <v>35</v>
+      </c>
+      <c r="J14" t="s">
+        <v>38</v>
+      </c>
+      <c r="K14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="I15" t="s">
+        <v>36</v>
+      </c>
+      <c r="J15" t="s">
+        <v>39</v>
+      </c>
+      <c r="K15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="I16" t="s">
+        <v>37</v>
+      </c>
+      <c r="J16" t="s">
+        <v>40</v>
+      </c>
+      <c r="K16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="9:11" x14ac:dyDescent="0.4">
+      <c r="I17" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" t="s">
+        <v>26</v>
+      </c>
+      <c r="K17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="9:11" x14ac:dyDescent="0.4">
+      <c r="I18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J18" t="s">
+        <v>27</v>
+      </c>
+      <c r="K18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="9:11" x14ac:dyDescent="0.4">
+      <c r="I19" t="s">
+        <v>34</v>
+      </c>
+      <c r="J19" t="s">
+        <v>33</v>
+      </c>
+      <c r="K19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="9:11" x14ac:dyDescent="0.4">
+      <c r="I20" t="s">
+        <v>48</v>
+      </c>
+      <c r="J20" t="s">
+        <v>25</v>
+      </c>
+      <c r="K20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="9:11" x14ac:dyDescent="0.4">
+      <c r="I21" t="s">
+        <v>30</v>
+      </c>
+      <c r="J21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="9:11" x14ac:dyDescent="0.4">
+      <c r="I22" t="s">
+        <v>46</v>
+      </c>
+      <c r="J22" t="s">
+        <v>45</v>
+      </c>
+      <c r="K22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="9:11" x14ac:dyDescent="0.4">
+      <c r="I23" t="s">
+        <v>31</v>
+      </c>
+      <c r="J23" t="s">
+        <v>32</v>
+      </c>
+      <c r="K23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="9:11" x14ac:dyDescent="0.4">
+      <c r="I25" t="s">
+        <v>41</v>
+      </c>
+      <c r="J25" t="s">
+        <v>42</v>
+      </c>
+      <c r="K25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="9:11" x14ac:dyDescent="0.4">
+      <c r="I26" t="s">
+        <v>47</v>
+      </c>
+      <c r="J26" t="s">
+        <v>43</v>
+      </c>
+      <c r="K26" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -560,47 +915,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F1336CB-A938-459E-AE15-F52FB00617F4}">
-  <dimension ref="D3:G4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U6" sqref="U6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="3" spans="4:7" x14ac:dyDescent="0.4">
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="4:7" x14ac:dyDescent="0.4">
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D3:G3"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E3231B-BC62-49A9-9D95-855D709BB051}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -611,4 +925,45 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F1336CB-A938-459E-AE15-F52FB00617F4}">
+  <dimension ref="D3:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U6" sqref="U6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="3" spans="4:7" x14ac:dyDescent="0.4">
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="4:7" x14ac:dyDescent="0.4">
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D3:G3"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/3DGame_3_NamelessGame/NamelessGame_仕様書.xlsx
+++ b/3DGame_3_NamelessGame/NamelessGame_仕様書.xlsx
@@ -8,14 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347059\Documents\GitHub\ProductionWork\3DGame_3_NamelessGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC402611-C647-4793-B05C-6BE05209FAD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A7FDDA3-3362-412E-8FF3-A182218B0952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2DDD9D27-F88C-4C7A-90BC-D78AE39EE51E}"/>
+    <workbookView xWindow="-1305" yWindow="2100" windowWidth="21600" windowHeight="11295" firstSheet="1" activeTab="1" xr2:uid="{2DDD9D27-F88C-4C7A-90BC-D78AE39EE51E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="使用する素材" sheetId="3" r:id="rId2"/>
-    <sheet name="スケジュール" sheetId="2" r:id="rId3"/>
+    <sheet name="仕様(やりたいこと)" sheetId="4" r:id="rId2"/>
+    <sheet name="武器・アイテム詳細" sheetId="5" r:id="rId3"/>
+    <sheet name="画面遷移" sheetId="6" r:id="rId4"/>
+    <sheet name="画面詳細" sheetId="7" r:id="rId5"/>
+    <sheet name="使用する素材" sheetId="3" r:id="rId6"/>
+    <sheet name="スケジュール" sheetId="2" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="101">
   <si>
     <t>就職作品</t>
     <rPh sb="0" eb="4">
@@ -52,55 +56,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>スケジュール</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>仕様(やりたいこと)</t>
-    <rPh sb="0" eb="2">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>武器・アイテム詳細</t>
-    <rPh sb="0" eb="2">
-      <t>ブキ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ショウサイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>画面遷移</t>
-    <rPh sb="0" eb="4">
-      <t>ガメンセンイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>画面詳細</t>
-    <rPh sb="0" eb="4">
-      <t>ガメンショウサイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(UI面など)</t>
-    <rPh sb="3" eb="4">
-      <t>メン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>仕様素材</t>
-    <rPh sb="0" eb="4">
-      <t>シヨウソザイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>10月</t>
     <rPh sb="2" eb="3">
       <t>ガツ</t>
@@ -317,6 +272,452 @@
   </si>
   <si>
     <t>Hit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャンル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー操作</t>
+    <rPh sb="5" eb="7">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>武器切り替え</t>
+    <rPh sb="0" eb="3">
+      <t>ブキキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテム使用</t>
+    <rPh sb="4" eb="6">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテム切り替え</t>
+    <rPh sb="4" eb="5">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロックオン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カメラ回転</t>
+    <rPh sb="3" eb="5">
+      <t>カイテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左スティック</t>
+    <rPh sb="0" eb="1">
+      <t>ヒダリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左スティック+Aボタン</t>
+    <rPh sb="0" eb="1">
+      <t>ヒダリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bボタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RBボタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>右スティック</t>
+    <rPh sb="0" eb="1">
+      <t>ミギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左スティック(一定時間倒していたら自動で加速)</t>
+    <rPh sb="0" eb="1">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>イッテイジカン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>タオ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カソク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Aボタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LBボタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Yボタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Xボタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>歩いたら自動で前を向いてる方向に変換するのもOK</t>
+    <rPh sb="0" eb="1">
+      <t>アル</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヘンカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>武器種類</t>
+    <rPh sb="0" eb="4">
+      <t>ブキシュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ナイフ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハンドガン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ショットガン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>距離</t>
+    <rPh sb="0" eb="2">
+      <t>キョリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>近距離</t>
+    <rPh sb="0" eb="3">
+      <t>キンキョリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マシンガン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中距離</t>
+    <rPh sb="0" eb="3">
+      <t>チュウキョリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>遠距離</t>
+    <rPh sb="0" eb="3">
+      <t>エンキョリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>25m~50m</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50m~200m</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50m前後</t>
+    <rPh sb="3" eb="5">
+      <t>ゼンゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテム種類</t>
+    <rPh sb="4" eb="6">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>氷床</t>
+    <rPh sb="0" eb="2">
+      <t>コオリユカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>妨害アイテム</t>
+    <rPh sb="0" eb="2">
+      <t>ボウガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>固定系</t>
+    <rPh sb="0" eb="3">
+      <t>コテイケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回転椅子</t>
+    <rPh sb="0" eb="2">
+      <t>カイテン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地雷</t>
+    <rPh sb="0" eb="2">
+      <t>ジライ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動系</t>
+    <rPh sb="0" eb="3">
+      <t>イドウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>びっくり箱</t>
+    <rPh sb="4" eb="5">
+      <t>バコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>体力回復薬</t>
+    <rPh sb="0" eb="5">
+      <t>タイリョクカイフクヤク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回復アイテム</t>
+    <rPh sb="0" eb="2">
+      <t>カイフク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回復系</t>
+    <rPh sb="0" eb="3">
+      <t>カイフクケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>弾薬</t>
+    <rPh sb="0" eb="2">
+      <t>ダンヤク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵を凍らせて一定時間行動不能にする</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>コオ</t>
+    </rPh>
+    <rPh sb="6" eb="14">
+      <t>イッテイジカンコウドウフノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵を回転させて一定時間行動不能にする</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カイテン</t>
+    </rPh>
+    <rPh sb="7" eb="15">
+      <t>イッテイジカンコウドウフノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵を吹っ飛ばし攻撃する</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵を驚かせ攻撃する</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>オドロ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーの体力を回復させる</t>
+    <rPh sb="6" eb="8">
+      <t>タイリョク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カイフク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーの弾薬を補充する</t>
+    <rPh sb="6" eb="8">
+      <t>ダンヤク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ホジュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>召喚BOX</t>
+    <rPh sb="0" eb="2">
+      <t>ショウカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>召喚アイテム</t>
+    <rPh sb="0" eb="2">
+      <t>ショウカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>召喚系</t>
+    <rPh sb="0" eb="3">
+      <t>ショウカンケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NPCを一人召喚する</t>
+    <rPh sb="4" eb="6">
+      <t>ヒトリ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ショウカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃方法</t>
+    <rPh sb="0" eb="4">
+      <t>コウゲキホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ナイフ攻撃</t>
+    <rPh sb="3" eb="5">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーモデル素材</t>
+    <rPh sb="8" eb="10">
+      <t>ソザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>銃攻撃</t>
+    <rPh sb="0" eb="3">
+      <t>ジュウコウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細</t>
+    <rPh sb="0" eb="2">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最大3コンボのナイフ攻撃</t>
+    <rPh sb="0" eb="2">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>コウゲキ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -363,9 +764,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -684,10 +1088,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C70E026E-4AC2-4824-A7A4-EC14C67ACD8A}">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9:K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -697,7 +1101,7 @@
     <col min="10" max="10" width="14.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -705,206 +1109,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="D9" t="s">
-        <v>2</v>
-      </c>
-      <c r="I9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" t="s">
-        <v>20</v>
-      </c>
-      <c r="K9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="D10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="D11" t="s">
-        <v>4</v>
-      </c>
-      <c r="I11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="D12" t="s">
-        <v>5</v>
-      </c>
-      <c r="I12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" t="s">
-        <v>23</v>
-      </c>
-      <c r="K12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="D13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" t="s">
-        <v>7</v>
-      </c>
-      <c r="I13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J13" t="s">
-        <v>24</v>
-      </c>
-      <c r="K13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="D14" t="s">
-        <v>8</v>
-      </c>
-      <c r="I14" t="s">
-        <v>35</v>
-      </c>
-      <c r="J14" t="s">
-        <v>38</v>
-      </c>
-      <c r="K14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="I15" t="s">
-        <v>36</v>
-      </c>
-      <c r="J15" t="s">
-        <v>39</v>
-      </c>
-      <c r="K15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="I16" t="s">
-        <v>37</v>
-      </c>
-      <c r="J16" t="s">
-        <v>40</v>
-      </c>
-      <c r="K16" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="9:11" x14ac:dyDescent="0.4">
-      <c r="I17" t="s">
-        <v>19</v>
-      </c>
-      <c r="J17" t="s">
-        <v>26</v>
-      </c>
-      <c r="K17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="9:11" x14ac:dyDescent="0.4">
-      <c r="I18" t="s">
-        <v>28</v>
-      </c>
-      <c r="J18" t="s">
-        <v>27</v>
-      </c>
-      <c r="K18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="9:11" x14ac:dyDescent="0.4">
-      <c r="I19" t="s">
-        <v>34</v>
-      </c>
-      <c r="J19" t="s">
-        <v>33</v>
-      </c>
-      <c r="K19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="9:11" x14ac:dyDescent="0.4">
-      <c r="I20" t="s">
-        <v>48</v>
-      </c>
-      <c r="J20" t="s">
-        <v>25</v>
-      </c>
-      <c r="K20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="9:11" x14ac:dyDescent="0.4">
-      <c r="I21" t="s">
-        <v>30</v>
-      </c>
-      <c r="J21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="9:11" x14ac:dyDescent="0.4">
-      <c r="I22" t="s">
-        <v>46</v>
-      </c>
-      <c r="J22" t="s">
-        <v>45</v>
-      </c>
-      <c r="K22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="9:11" x14ac:dyDescent="0.4">
-      <c r="I23" t="s">
-        <v>31</v>
-      </c>
-      <c r="J23" t="s">
-        <v>32</v>
-      </c>
-      <c r="K23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="9:11" x14ac:dyDescent="0.4">
-      <c r="I25" t="s">
-        <v>41</v>
-      </c>
-      <c r="J25" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
         <v>42</v>
-      </c>
-      <c r="K25" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="9:11" x14ac:dyDescent="0.4">
-      <c r="I26" t="s">
-        <v>47</v>
-      </c>
-      <c r="J26" t="s">
-        <v>43</v>
-      </c>
-      <c r="K26" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -915,7 +1122,317 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E3231B-BC62-49A9-9D95-855D709BB051}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{632EE460-EFA2-4742-B802-EBE7EC6DB6B7}">
+  <dimension ref="B3:D21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B3" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B17" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B19" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CE57C99-D9E8-4E4A-A2D3-4883F44C2C1D}">
+  <dimension ref="B4:E18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B11" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" t="s">
+        <v>93</v>
+      </c>
+      <c r="E18" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37219642-A6EF-4710-BD78-706D5525861D}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -927,7 +1444,226 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{518EA069-E43A-4A23-BFE4-3A9E9AB91ED3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E3231B-BC62-49A9-9D95-855D709BB051}">
+  <dimension ref="B3:D21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F1336CB-A938-459E-AE15-F52FB00617F4}">
   <dimension ref="D3:G4"/>
   <sheetViews>
@@ -938,25 +1674,25 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="3" spans="4:7" x14ac:dyDescent="0.4">
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
     </row>
     <row r="4" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D4" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/3DGame_3_NamelessGame/NamelessGame_仕様書.xlsx
+++ b/3DGame_3_NamelessGame/NamelessGame_仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347059\Documents\GitHub\ProductionWork\3DGame_3_NamelessGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A7FDDA3-3362-412E-8FF3-A182218B0952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{479D2090-A504-4708-8760-C86A8669F617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1305" yWindow="2100" windowWidth="21600" windowHeight="11295" firstSheet="1" activeTab="1" xr2:uid="{2DDD9D27-F88C-4C7A-90BC-D78AE39EE51E}"/>
+    <workbookView xWindow="9705" yWindow="3510" windowWidth="19230" windowHeight="11295" firstSheet="1" activeTab="4" xr2:uid="{2DDD9D27-F88C-4C7A-90BC-D78AE39EE51E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="104">
   <si>
     <t>就職作品</t>
     <rPh sb="0" eb="4">
@@ -717,6 +717,27 @@
     </rPh>
     <rPh sb="10" eb="12">
       <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>罠</t>
+    <rPh sb="0" eb="1">
+      <t>ワナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セレクト画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -789,6 +810,818 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{182E9325-E200-4138-BE74-290430284632}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5010150" y="1419225"/>
+          <a:ext cx="2047875" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>タイトル画面</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBC5828C-48A8-43FE-9C2B-BBDD7D7CFCAB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5019675" y="2286000"/>
+          <a:ext cx="2047875" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>セレクト画面</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B131DC22-FBC7-4DE9-9713-BAC5B4C09AE8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2743200" y="3333750"/>
+          <a:ext cx="2047875" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>ランキング画面</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD17D548-1C63-4121-95D7-524DA38F501D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7353300" y="3314700"/>
+          <a:ext cx="2047875" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>タイトル画面</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>228601</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44B1F796-1EE0-4F4E-8EAB-29BDE21BDBD3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6477000" y="4048126"/>
+          <a:ext cx="5086350" cy="3086100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>228601</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B31FDA69-3C59-4944-B6E5-4BC48636A01A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="476251"/>
+          <a:ext cx="5086350" cy="3086100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45DF6FA9-DD34-438D-8ECA-351317932B7E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="4057651"/>
+          <a:ext cx="5086350" cy="3086100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7DC78BB-B4E6-4EF1-AB35-3A548BB77E87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5867400" y="5029200"/>
+          <a:ext cx="533400" cy="3076575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="accent1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63E36BCF-4D83-4950-B2D7-13F0264B39D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5943600" y="5124450"/>
+          <a:ext cx="390525" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26FF55F4-B2C8-44F7-8FC6-12C5406FCD71}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5962650" y="5819775"/>
+          <a:ext cx="390525" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="正方形/長方形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E231470D-0E7F-4BBE-9741-256E4A9829F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5972175" y="6353175"/>
+          <a:ext cx="390525" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="正方形/長方形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{840E5771-1A8D-4CD6-B330-9C478B2BEFD1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5962650" y="6943725"/>
+          <a:ext cx="390525" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="正方形/長方形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F2E9C3E-B47F-412D-8560-60064BB272E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5953125" y="7534275"/>
+          <a:ext cx="390525" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1123,10 +1956,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{632EE460-EFA2-4742-B802-EBE7EC6DB6B7}">
-  <dimension ref="B3:D21"/>
+  <dimension ref="B3:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22:C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1252,9 +2085,33 @@
         <v>67</v>
       </c>
     </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B22" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C24" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C25" t="s">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1263,13 +2120,14 @@
   <dimension ref="B4:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B12" sqref="B12:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="37.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1435,25 +2293,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37219642-A6EF-4710-BD78-706D5525861D}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{518EA069-E43A-4A23-BFE4-3A9E9AB91ED3}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="12.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/3DGame_3_NamelessGame/NamelessGame_仕様書.xlsx
+++ b/3DGame_3_NamelessGame/NamelessGame_仕様書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347059\Documents\GitHub\ProductionWork\3DGame_3_NamelessGame\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347059\Documents\GitHub\制作作品\ProductionWork\3DGame_3_NamelessGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{479D2090-A504-4708-8760-C86A8669F617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6391CC4C-4073-42D4-9AEE-A1940FDCB674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9705" yWindow="3510" windowWidth="19230" windowHeight="11295" firstSheet="1" activeTab="4" xr2:uid="{2DDD9D27-F88C-4C7A-90BC-D78AE39EE51E}"/>
+    <workbookView xWindow="9570" yWindow="3510" windowWidth="19230" windowHeight="11295" firstSheet="1" activeTab="5" xr2:uid="{2DDD9D27-F88C-4C7A-90BC-D78AE39EE51E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="121">
   <si>
     <t>就職作品</t>
     <rPh sb="0" eb="4">
@@ -738,6 +738,102 @@
     <t>セレクト画面</t>
     <rPh sb="4" eb="6">
       <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム画面</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ランキング画面</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設定画面</t>
+    <rPh sb="0" eb="4">
+      <t>セッテイガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エネミーモデル素材</t>
+    <rPh sb="7" eb="9">
+      <t>ソザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Walk</t>
+  </si>
+  <si>
+    <t>Run</t>
+  </si>
+  <si>
+    <t>Hit</t>
+  </si>
+  <si>
+    <t>BlownAway</t>
+  </si>
+  <si>
+    <t>Death</t>
+  </si>
+  <si>
+    <t>挑発</t>
+    <rPh sb="0" eb="2">
+      <t>チョウハツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Provocation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Attack1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Attack2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左腕攻撃</t>
+    <rPh sb="0" eb="2">
+      <t>サワン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>右腕攻撃</t>
+    <rPh sb="0" eb="2">
+      <t>ウワン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>死亡2</t>
+    <rPh sb="0" eb="2">
+      <t>シボウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>候補</t>
+    <rPh sb="0" eb="2">
+      <t>コウホ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -746,7 +842,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -757,6 +853,14 @@
     </font>
     <font>
       <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -785,12 +889,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -817,15 +924,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:colOff>276224</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>111579</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>130629</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -840,8 +947,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5010150" y="1419225"/>
-          <a:ext cx="2047875" cy="495300"/>
+          <a:off x="5038724" y="1091293"/>
+          <a:ext cx="2031547" cy="508907"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -881,13 +988,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
+      <xdr:colOff>273504</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
+      <xdr:colOff>263979</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
@@ -904,8 +1011,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5019675" y="2286000"/>
-          <a:ext cx="2047875" cy="495300"/>
+          <a:off x="5036004" y="2347232"/>
+          <a:ext cx="2031546" cy="508907"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -944,16 +1051,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>81642</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>217714</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>77560</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>236764</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -968,8 +1075,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2743200" y="3333750"/>
-          <a:ext cx="2047875" cy="495300"/>
+          <a:off x="7565571" y="3646714"/>
+          <a:ext cx="2036989" cy="508907"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1008,16 +1115,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>277586</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>178253</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>268062</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>204107</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1032,8 +1139,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7353300" y="3314700"/>
-          <a:ext cx="2047875" cy="495300"/>
+          <a:off x="5040086" y="3607253"/>
+          <a:ext cx="2031547" cy="515711"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1062,12 +1169,660 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>タイトル画面</a:t>
+            <a:t>ゲーム画面</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>560614</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>206829</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>556531</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>225879</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95846EB1-95C8-4B1F-8F18-91EF1FF29F60}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2601685" y="3635829"/>
+          <a:ext cx="2036989" cy="508907"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>設定画面</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>272143</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>419780</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>217714</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="コネクタ: カギ線 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4364E08-F0EB-4EA5-8EE9-B8FC3AA6785E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="4" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7075714" y="2748643"/>
+          <a:ext cx="1508352" cy="898071"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>218394</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>68035</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>258536</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>206828</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="コネクタ: カギ線 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F934A97-CF12-4191-BD7B-03D92A3BDD6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="8" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="3620180" y="2762249"/>
+          <a:ext cx="1400856" cy="873579"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>610328</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>614411</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>178253</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="直線矢印コネクタ 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B47C62D9-D2F0-4593-A5AF-6D0904FB175B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="5" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6075707" y="2763235"/>
+          <a:ext cx="4083" cy="725777"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>372835</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>187779</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>368752</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>206829</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="正方形/長方形 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98DE0EC9-A44C-4915-874D-C4166157F85F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6545035" y="4712154"/>
+          <a:ext cx="2053317" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>ゲームオーバー画面</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>163285</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>159204</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>159202</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>178254</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="正方形/長方形 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38993CA3-31BA-40C6-829A-868501BEFCFA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3592285" y="4683579"/>
+          <a:ext cx="2053317" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>ゲームクリア画面</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>504144</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>204107</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>615724</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>159204</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="コネクタ: カギ線 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C2A933E-EE64-4CD1-9389-42557CA081B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="2"/>
+          <a:endCxn id="44" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="5025798" y="3607253"/>
+          <a:ext cx="669472" cy="1483180"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>615725</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>204106</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>27895</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>187778</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="コネクタ: カギ線 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BED7AB63-7116-4DA3-B028-3E9CA5C4AB0F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="2"/>
+          <a:endCxn id="43" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="6487886" y="3628345"/>
+          <a:ext cx="698047" cy="1469570"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>501421</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>273503</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>178254</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="コネクタ: カギ線 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{915DC5C6-732D-4FE6-A1EB-DCC7861214A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="44" idx="2"/>
+          <a:endCxn id="3" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="3449750" y="3735500"/>
+          <a:ext cx="2720068" cy="452439"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -8404"/>
+            <a:gd name="adj2" fmla="val -513232"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>263979</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>30615</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>206829</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="コネクタ: カギ線 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2A154CF-A3CE-4E08-AE75-7568CC4ADDA0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="43" idx="2"/>
+          <a:endCxn id="3" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1">
+          <a:off x="5916725" y="3752511"/>
+          <a:ext cx="2748643" cy="446994"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -8317"/>
+            <a:gd name="adj2" fmla="val -571234"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>608920</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>130629</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>611641</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="71" name="直線矢印コネクタ 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31CE8E20-A102-4CB1-8A00-EC5AB37DEF70}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="3" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6051777" y="1600200"/>
+          <a:ext cx="2721" cy="747032"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1077,16 +1832,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>228601</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>484909</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>228602</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1101,8 +1856,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6477000" y="4048126"/>
-          <a:ext cx="5086350" cy="3086100"/>
+          <a:off x="702252" y="8659092"/>
+          <a:ext cx="5618884" cy="3138055"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1227,19 +1982,17 @@
         </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
         </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
         </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -1255,16 +2008,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>630382</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>26842</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>477983</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>3463</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1279,8 +2032,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5867400" y="5029200"/>
-          <a:ext cx="533400" cy="3076575"/>
+          <a:off x="5773882" y="8685933"/>
+          <a:ext cx="540328" cy="3128530"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1323,16 +2076,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>676808</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>30638</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381534</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>174179</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1347,8 +2100,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5943600" y="5124450"/>
-          <a:ext cx="390525" cy="381000"/>
+          <a:off x="5820308" y="9174638"/>
+          <a:ext cx="397453" cy="385996"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1368,6 +2121,1400 @@
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>武器</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>676806</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>47959</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381532</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>191500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26FF55F4-B2C8-44F7-8FC6-12C5406FCD71}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5820306" y="9676868"/>
+          <a:ext cx="397453" cy="385996"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>武器</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1398</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>57016</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>398851</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>200558</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="正方形/長方形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E231470D-0E7F-4BBE-9741-256E4A9829F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5837625" y="10170834"/>
+          <a:ext cx="397453" cy="385997"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>武器</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>681935</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>121230</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>386661</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>22317</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="正方形/長方形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{840E5771-1A8D-4CD6-B330-9C478B2BEFD1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5825435" y="10719957"/>
+          <a:ext cx="397453" cy="385996"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="400"/>
+            <a:t>アイテム</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>689262</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>192234</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>393988</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>92655</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="正方形/長方形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F2E9C3E-B47F-412D-8560-60064BB272E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5832762" y="11275870"/>
+          <a:ext cx="397453" cy="385330"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="400"/>
+            <a:t>アイテム</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>496165</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>34636</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>450273</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>103910</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="フローチャート: データ 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD90D282-5803-44EA-97F4-88B44DC3CF97}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4946938" y="8693727"/>
+          <a:ext cx="1339562" cy="311728"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartInputOutput">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>使用武器</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>107372</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>53686</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>779317</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>53686</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="楕円 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A8F772C-ADE9-43D0-BD25-7A5FAE55D825}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="800099" y="8712777"/>
+          <a:ext cx="671945" cy="727364"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>残り時間</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>817418</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>121228</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>379268</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92E97C51-9708-45D3-A5A7-47DA98C12124}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1510145" y="8780319"/>
+          <a:ext cx="3319896" cy="121228"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="700"/>
+            <a:t>HP</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>836468</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>121229</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>398318</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="正方形/長方形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B564E7B2-A2BA-4F00-9525-AE6177E318E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1529195" y="9022774"/>
+          <a:ext cx="3319896" cy="121227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700"/>
+            <a:t>スタミナ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>532534</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>101312</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>328179</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>148937</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="四角形: メモ 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8007388D-EF94-43B4-B8F3-F3273EE40594}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1225261" y="9245312"/>
+          <a:ext cx="2168236" cy="290080"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>獲得ポイント</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>358486</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>232931</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>853786</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="楕円 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{107DD041-FC96-4F66-BCF8-BA2AA0D27C85}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1051213" y="11316567"/>
+          <a:ext cx="495300" cy="494434"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="400"/>
+            <a:t>敵アイコン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1105233</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>45894</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>156196</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>169719</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="正方形/長方形 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{079AF881-4574-472E-92A7-9EC1BEFF425A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1797960" y="11614439"/>
+          <a:ext cx="3501736" cy="123825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="600"/>
+            <a:t>敵</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="600"/>
+            <a:t>HP</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>217714</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>122464</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>503464</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="四角形: 角を丸くする 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAC0E861-6275-4A09-A4F4-87C01099AEF9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="898071" y="4531178"/>
+          <a:ext cx="1945822" cy="952502"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>ゲームを始める</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>206830</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>29935</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>119744</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>242209</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="四角形: 角を丸くする 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{291978D8-D259-4269-8366-C31689CE0A43}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="887187" y="5663292"/>
+          <a:ext cx="892628" cy="457203"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+            <a:t>ランキング</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>236767</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>168725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>149681</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="四角形: 角を丸くする 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88B7906B-1D21-4845-B7DE-62DC13FE149A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="917124" y="6291939"/>
+          <a:ext cx="892628" cy="457203"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>設定</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>307523</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>185056</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>530679</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>149680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="四角形: 角を丸くする 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C39F3A9-346F-4599-99DB-414228F97947}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1967594" y="6308270"/>
+          <a:ext cx="903514" cy="454481"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700"/>
+            <a:t>ゲームを</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="700"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700"/>
+            <a:t>終了する</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>68035</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>149679</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>612321</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>217714</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="フローチャート: データ 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF249AA6-338F-4A41-BC53-F31D22B3E93A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3088821" y="4558393"/>
+          <a:ext cx="2585357" cy="1537607"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartInputOutput">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200"/>
+            <a:t>例画像</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>122463</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>81642</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>394607</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>27213</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="四角形: メモ 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{172B1E83-C3B3-49DF-9586-A37FD08854D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3143249" y="6449785"/>
+          <a:ext cx="2313215" cy="680357"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+            <a:t>説明文</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>310246</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>24492</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>533402</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>234044</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="四角形: 角を丸くする 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81FE7228-556C-438C-B511-6990EB8710DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1970317" y="5657849"/>
+          <a:ext cx="903514" cy="454481"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:t>操作説明</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1270413</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>61851</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>650668</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>209055</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="正方形/長方形 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E4CBE5D-B382-4820-91E7-6B9CA67295E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1963140" y="927760"/>
+          <a:ext cx="3138301" cy="1359477"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+            <a:t>タイトルロゴ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>680356</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>13608</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="正方形/長方形 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76B44448-1D52-4614-9666-12AD2B96A4D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="680356" y="2775857"/>
+          <a:ext cx="5061858" cy="421822"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>ボタンを押して進む</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>677638</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>176893</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>136072</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="四角形: 角を丸くする 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19678766-8E29-479B-9186-19808214CF50}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1357995" y="7034893"/>
+          <a:ext cx="1118506" cy="220437"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700"/>
+            <a:t>タイトルに戻る</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>5442</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>300717</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="正方形/長方形 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2638E73B-F7A8-4D76-84D7-3CA072DCBAA7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11870871" y="4163786"/>
+          <a:ext cx="5057775" cy="3167743"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -1383,23 +3530,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>27214</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>462643</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="正方形/長方形 10">
+        <xdr:cNvPr id="31" name="四角形: 上の 2 つの角を丸める 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26FF55F4-B2C8-44F7-8FC6-12C5406FCD71}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7D62797-9E50-4DD1-A43B-32D0D517922B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1407,10 +3554,10 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5962650" y="5819775"/>
-          <a:ext cx="390525" cy="381000"/>
+          <a:off x="13049250" y="4327071"/>
+          <a:ext cx="3156857" cy="517071"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom prst="round2SameRect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
@@ -1428,6 +3575,214 @@
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800"/>
+            <a:t>ランキング</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>435428</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>544286</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="四角形: 角を丸くする 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41D0DD5E-A3FD-42BD-8026-9EEDA6C8961C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12300857" y="4980214"/>
+          <a:ext cx="4667250" cy="272143"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+            <a:t>最大スコア</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" baseline="0"/>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400" baseline="0"/>
+            <a:t>最大</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800" baseline="0"/>
+            <a:t>AP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800" baseline="0"/>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400" baseline="0"/>
+            <a:t>最短時間</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>789214</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>176892</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>435429</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>68035</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="四角形: 角を丸くする 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4CEF42B-6725-47E9-B41D-F07B4DB90A10}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12654643" y="5565321"/>
+          <a:ext cx="4204607" cy="1605643"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>順位　プレイ日時　スコア</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>25235</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>7423</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>43419</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>236023</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="正方形/長方形 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24590D22-1730-4921-BF2D-94BB07004014}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7246917" y="4406241"/>
+          <a:ext cx="5611957" cy="3138055"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -1443,23 +3798,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1255568</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>253588</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="正方形/長方形 11">
+        <xdr:cNvPr id="37" name="四角形: 上の 2 つの角を丸める 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E231470D-0E7F-4BBE-9741-256E4A9829F4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F782EB23-5C8C-4741-B71E-5F6908BE7C02}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1467,10 +3822,10 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5972175" y="6353175"/>
-          <a:ext cx="390525" cy="381000"/>
+          <a:off x="8477250" y="4534889"/>
+          <a:ext cx="3206338" cy="512123"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom prst="round2SameRect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
@@ -1491,131 +3846,14 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="正方形/長方形 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{840E5771-1A8D-4CD6-B330-9C478B2BEFD1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5962650" y="6943725"/>
-          <a:ext cx="390525" cy="381000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="正方形/長方形 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F2E9C3E-B47F-412D-8560-60064BB272E3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5953125" y="7534275"/>
-          <a:ext cx="390525" cy="381000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800"/>
+            <a:t>設定</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2293,8 +4531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37219642-A6EF-4710-BD78-706D5525861D}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2307,54 +4545,73 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{518EA069-E43A-4A23-BFE4-3A9E9AB91ED3}">
-  <dimension ref="B2:B17"/>
+  <dimension ref="B2:R34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B2" t="s">
+    <row r="2" spans="2:2" ht="30" x14ac:dyDescent="0.4">
+      <c r="B2" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B17" t="s">
+    <row r="17" spans="2:18" ht="30" x14ac:dyDescent="0.4">
+      <c r="B17" s="2" t="s">
         <v>103</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" ht="30" x14ac:dyDescent="0.4">
+      <c r="B34" s="2" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E3231B-BC62-49A9-9D95-855D709BB051}">
-  <dimension ref="B3:D21"/>
+  <dimension ref="B3:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="21.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="E3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>7</v>
       </c>
@@ -2364,16 +4621,34 @@
       <c r="D4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="E5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>9</v>
       </c>
@@ -2383,8 +4658,17 @@
       <c r="D6" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="E6" t="s">
+        <v>109</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
         <v>10</v>
       </c>
@@ -2394,8 +4678,17 @@
       <c r="D7" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="E7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
         <v>11</v>
       </c>
@@ -2405,8 +4698,17 @@
       <c r="D8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="E8" t="s">
+        <v>115</v>
+      </c>
+      <c r="F8" t="s">
+        <v>118</v>
+      </c>
+      <c r="G8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
         <v>28</v>
       </c>
@@ -2416,8 +4718,17 @@
       <c r="D9" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="E9" t="s">
+        <v>116</v>
+      </c>
+      <c r="F9" t="s">
+        <v>117</v>
+      </c>
+      <c r="G9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
         <v>29</v>
       </c>
@@ -2428,7 +4739,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>30</v>
       </c>
@@ -2438,8 +4749,14 @@
       <c r="D11" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="E11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
         <v>12</v>
       </c>
@@ -2449,8 +4766,14 @@
       <c r="D12" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="E12" t="s">
+        <v>111</v>
+      </c>
+      <c r="F12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
         <v>21</v>
       </c>
@@ -2460,8 +4783,17 @@
       <c r="D13" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="E13" t="s">
+        <v>112</v>
+      </c>
+      <c r="F13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
         <v>27</v>
       </c>
@@ -2471,8 +4803,20 @@
       <c r="D14" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="E14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" t="s">
+        <v>119</v>
+      </c>
+      <c r="G14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
         <v>41</v>
       </c>
@@ -2483,7 +4827,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
         <v>23</v>
       </c>
@@ -2538,6 +4882,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2552,12 +4897,12 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="3" spans="4:7" x14ac:dyDescent="0.4">
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
     </row>
     <row r="4" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D4" t="s">

--- a/3DGame_3_NamelessGame/NamelessGame_仕様書.xlsx
+++ b/3DGame_3_NamelessGame/NamelessGame_仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347059\Documents\GitHub\制作作品\ProductionWork\3DGame_3_NamelessGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6391CC4C-4073-42D4-9AEE-A1940FDCB674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F05B699-C024-441B-948A-C8B54139367D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9570" yWindow="3510" windowWidth="19230" windowHeight="11295" firstSheet="1" activeTab="5" xr2:uid="{2DDD9D27-F88C-4C7A-90BC-D78AE39EE51E}"/>
+    <workbookView xWindow="-2670" yWindow="-14265" windowWidth="21600" windowHeight="12810" firstSheet="1" activeTab="2" xr2:uid="{2DDD9D27-F88C-4C7A-90BC-D78AE39EE51E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="120">
   <si>
     <t>就職作品</t>
     <rPh sb="0" eb="4">
@@ -92,10 +92,6 @@
   </si>
   <si>
     <t>Idle</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Walk</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -4182,7 +4178,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -4208,142 +4204,142 @@
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B17" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -4357,8 +4353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CE57C99-D9E8-4E4A-A2D3-4883F44C2C1D}">
   <dimension ref="B4:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4371,154 +4367,154 @@
   <sheetData>
     <row r="4" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B11" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" t="s">
         <v>74</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>75</v>
       </c>
-      <c r="D12" t="s">
-        <v>76</v>
-      </c>
       <c r="E12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" t="s">
         <v>75</v>
       </c>
-      <c r="D13" t="s">
-        <v>76</v>
-      </c>
       <c r="E13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" t="s">
         <v>78</v>
       </c>
-      <c r="C14" t="s">
-        <v>75</v>
-      </c>
-      <c r="D14" t="s">
-        <v>79</v>
-      </c>
       <c r="E14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" t="s">
         <v>81</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>82</v>
       </c>
-      <c r="D16" t="s">
-        <v>83</v>
-      </c>
       <c r="E16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C17" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" t="s">
         <v>82</v>
       </c>
-      <c r="D17" t="s">
-        <v>83</v>
-      </c>
       <c r="E17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" t="s">
         <v>91</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>92</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>93</v>
-      </c>
-      <c r="E18" t="s">
-        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -4560,23 +4556,23 @@
   <sheetData>
     <row r="2" spans="2:2" ht="30" x14ac:dyDescent="0.4">
       <c r="B2" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="2:18" ht="30" x14ac:dyDescent="0.4">
       <c r="B17" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" spans="2:2" ht="30" x14ac:dyDescent="0.4">
       <c r="B34" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -4589,10 +4585,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E3231B-BC62-49A9-9D95-855D709BB051}">
-  <dimension ref="B3:H21"/>
+  <dimension ref="B3:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4605,10 +4601,10 @@
   <sheetData>
     <row r="3" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.4">
@@ -4616,19 +4612,19 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.4">
@@ -4638,14 +4634,17 @@
       <c r="C5" t="s">
         <v>14</v>
       </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
       <c r="E5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.4">
@@ -4656,16 +4655,16 @@
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.4">
@@ -4676,36 +4675,36 @@
         <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.4">
@@ -4716,16 +4715,16 @@
         <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s">
+        <v>115</v>
+      </c>
+      <c r="F9" t="s">
         <v>116</v>
       </c>
-      <c r="F9" t="s">
-        <v>117</v>
-      </c>
       <c r="G9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.4">
@@ -4736,147 +4735,142 @@
         <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="G11" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F12" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="G12" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F14" t="s">
+        <v>118</v>
+      </c>
+      <c r="G14" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" t="s">
         <v>119</v>
-      </c>
-      <c r="G14" t="s">
-        <v>37</v>
-      </c>
-      <c r="H14" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>37</v>
+      </c>
+      <c r="D16" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
         <v>35</v>
       </c>
       <c r="D20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B21" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" t="s">
         <v>36</v>
-      </c>
-      <c r="D21" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/3DGame_3_NamelessGame/NamelessGame_仕様書.xlsx
+++ b/3DGame_3_NamelessGame/NamelessGame_仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347059\Documents\GitHub\制作作品\ProductionWork\3DGame_3_NamelessGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F05B699-C024-441B-948A-C8B54139367D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D777BC-2EB2-4295-8EA6-85F6A51EC8F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2670" yWindow="-14265" windowWidth="21600" windowHeight="12810" firstSheet="1" activeTab="2" xr2:uid="{2DDD9D27-F88C-4C7A-90BC-D78AE39EE51E}"/>
+    <workbookView xWindow="-5700" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{2DDD9D27-F88C-4C7A-90BC-D78AE39EE51E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="122">
   <si>
     <t>就職作品</t>
     <rPh sb="0" eb="4">
@@ -830,6 +830,20 @@
     <t>候補</t>
     <rPh sb="0" eb="2">
       <t>コウホ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>状態</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>用意したか</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4158,7 +4172,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9:K26"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4192,7 +4206,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{632EE460-EFA2-4742-B802-EBE7EC6DB6B7}">
   <dimension ref="B3:D25"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C22" sqref="C22:C25"/>
     </sheetView>
   </sheetViews>
@@ -4354,7 +4368,7 @@
   <dimension ref="B4:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4543,7 +4557,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{518EA069-E43A-4A23-BFE4-3A9E9AB91ED3}">
   <dimension ref="B2:R34"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
@@ -4585,29 +4599,36 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E3231B-BC62-49A9-9D95-855D709BB051}">
-  <dimension ref="B3:H20"/>
+  <dimension ref="B3:K20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="21.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>96</v>
       </c>
-      <c r="E3" t="s">
+      <c r="C3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>7</v>
       </c>
@@ -4617,17 +4638,17 @@
       <c r="D4" t="s">
         <v>36</v>
       </c>
-      <c r="E4" t="s">
+      <c r="H4" t="s">
         <v>7</v>
       </c>
-      <c r="F4" t="s">
+      <c r="I4" t="s">
         <v>12</v>
       </c>
-      <c r="G4" t="s">
+      <c r="J4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -4637,17 +4658,17 @@
       <c r="D5" t="s">
         <v>36</v>
       </c>
-      <c r="E5" t="s">
+      <c r="H5" t="s">
         <v>107</v>
       </c>
-      <c r="F5" t="s">
+      <c r="I5" t="s">
         <v>13</v>
       </c>
-      <c r="G5" t="s">
+      <c r="J5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>9</v>
       </c>
@@ -4657,17 +4678,17 @@
       <c r="D6" t="s">
         <v>36</v>
       </c>
-      <c r="E6" t="s">
+      <c r="H6" t="s">
         <v>108</v>
       </c>
-      <c r="F6" t="s">
+      <c r="I6" t="s">
         <v>14</v>
       </c>
-      <c r="G6" t="s">
+      <c r="J6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
         <v>10</v>
       </c>
@@ -4677,17 +4698,17 @@
       <c r="D7" t="s">
         <v>36</v>
       </c>
-      <c r="E7" t="s">
+      <c r="H7" t="s">
         <v>113</v>
       </c>
-      <c r="F7" t="s">
+      <c r="I7" t="s">
         <v>112</v>
       </c>
-      <c r="G7" t="s">
+      <c r="J7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
         <v>27</v>
       </c>
@@ -4697,17 +4718,17 @@
       <c r="D8" t="s">
         <v>36</v>
       </c>
-      <c r="E8" t="s">
+      <c r="H8" t="s">
         <v>114</v>
       </c>
-      <c r="F8" t="s">
+      <c r="I8" t="s">
         <v>117</v>
       </c>
-      <c r="G8" t="s">
+      <c r="J8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
         <v>28</v>
       </c>
@@ -4717,17 +4738,17 @@
       <c r="D9" t="s">
         <v>36</v>
       </c>
-      <c r="E9" t="s">
+      <c r="H9" t="s">
         <v>115</v>
       </c>
-      <c r="F9" t="s">
+      <c r="I9" t="s">
         <v>116</v>
       </c>
-      <c r="G9" t="s">
+      <c r="J9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
         <v>29</v>
       </c>
@@ -4738,7 +4759,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>11</v>
       </c>
@@ -4748,17 +4769,17 @@
       <c r="D11" t="s">
         <v>36</v>
       </c>
-      <c r="E11" t="s">
+      <c r="H11" t="s">
         <v>109</v>
       </c>
-      <c r="F11" t="s">
+      <c r="I11" t="s">
         <v>17</v>
       </c>
-      <c r="G11" t="s">
+      <c r="J11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
         <v>20</v>
       </c>
@@ -4768,17 +4789,17 @@
       <c r="D12" t="s">
         <v>36</v>
       </c>
-      <c r="E12" t="s">
+      <c r="H12" t="s">
         <v>110</v>
       </c>
-      <c r="F12" t="s">
+      <c r="I12" t="s">
         <v>21</v>
       </c>
-      <c r="G12" t="s">
+      <c r="J12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
         <v>26</v>
       </c>
@@ -4788,17 +4809,17 @@
       <c r="D13" t="s">
         <v>36</v>
       </c>
-      <c r="E13" t="s">
+      <c r="H13" t="s">
         <v>111</v>
       </c>
-      <c r="F13" t="s">
+      <c r="I13" t="s">
         <v>24</v>
       </c>
-      <c r="G13" t="s">
+      <c r="J13" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
         <v>40</v>
       </c>
@@ -4808,20 +4829,20 @@
       <c r="D14" t="s">
         <v>36</v>
       </c>
-      <c r="E14" t="s">
+      <c r="H14" t="s">
         <v>23</v>
       </c>
-      <c r="F14" t="s">
+      <c r="I14" t="s">
         <v>118</v>
       </c>
-      <c r="G14" t="s">
+      <c r="J14" t="s">
         <v>36</v>
       </c>
-      <c r="H14" t="s">
+      <c r="K14" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
         <v>22</v>
       </c>
@@ -4829,7 +4850,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
         <v>38</v>
       </c>

--- a/3DGame_3_NamelessGame/NamelessGame_仕様書.xlsx
+++ b/3DGame_3_NamelessGame/NamelessGame_仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347059\Documents\GitHub\制作作品\ProductionWork\3DGame_3_NamelessGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D777BC-2EB2-4295-8EA6-85F6A51EC8F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E1D63D-958B-45AF-AC8D-E2AD3A9D22FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5700" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{2DDD9D27-F88C-4C7A-90BC-D78AE39EE51E}"/>
+    <workbookView xWindow="-5700" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{2DDD9D27-F88C-4C7A-90BC-D78AE39EE51E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4206,8 +4206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{632EE460-EFA2-4742-B802-EBE7EC6DB6B7}">
   <dimension ref="B3:D25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22:C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4367,7 +4367,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CE57C99-D9E8-4E4A-A2D3-4883F44C2C1D}">
   <dimension ref="B4:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>

--- a/3DGame_3_NamelessGame/NamelessGame_仕様書.xlsx
+++ b/3DGame_3_NamelessGame/NamelessGame_仕様書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347059\Documents\GitHub\制作作品\ProductionWork\3DGame_3_NamelessGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E1D63D-958B-45AF-AC8D-E2AD3A9D22FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{004CE74B-7EB6-4CCB-8329-3EDEE935B2AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-5700" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{2DDD9D27-F88C-4C7A-90BC-D78AE39EE51E}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="123">
   <si>
     <t>就職作品</t>
     <rPh sb="0" eb="4">
@@ -845,6 +845,10 @@
     <rPh sb="0" eb="2">
       <t>ヨウイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>△</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4204,32 +4208,36 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{632EE460-EFA2-4742-B802-EBE7EC6DB6B7}">
-  <dimension ref="B3:D25"/>
+  <dimension ref="B3:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="16.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>13</v>
       </c>
       <c r="C4" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="E4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>14</v>
       </c>
@@ -4240,15 +4248,18 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>43</v>
       </c>
       <c r="C6" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="E6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
         <v>47</v>
       </c>
@@ -4256,15 +4267,18 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
         <v>44</v>
       </c>
       <c r="C8" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
         <v>37</v>
       </c>
@@ -4272,23 +4286,29 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
         <v>45</v>
       </c>
       <c r="C10" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="E10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>46</v>
       </c>
       <c r="C11" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="E11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
         <v>48</v>
       </c>
@@ -4297,6 +4317,9 @@
       </c>
       <c r="D13" t="s">
         <v>59</v>
+      </c>
+      <c r="E13" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.4">

--- a/3DGame_3_NamelessGame/NamelessGame_仕様書.xlsx
+++ b/3DGame_3_NamelessGame/NamelessGame_仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347059\Documents\GitHub\制作作品\ProductionWork\3DGame_3_NamelessGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{004CE74B-7EB6-4CCB-8329-3EDEE935B2AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A65613-D56A-4E04-9A4C-D14CB0124B53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5700" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{2DDD9D27-F88C-4C7A-90BC-D78AE39EE51E}"/>
+    <workbookView xWindow="-5190" yWindow="-16200" windowWidth="26280" windowHeight="15405" activeTab="1" xr2:uid="{2DDD9D27-F88C-4C7A-90BC-D78AE39EE51E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="135">
   <si>
     <t>就職作品</t>
     <rPh sb="0" eb="4">
@@ -848,7 +848,82 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>△</t>
+    <t>2コンボ目の攻撃の入力受付時間</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3コンボ目の攻撃の入力受付時間</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロックオン距離</t>
+    <rPh sb="5" eb="7">
+      <t>キョリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次の攻撃が予約済みかどうかのフラグ</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ヨヤクズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アニメーションのキャンセルイベントをチェック済みかどうかのフラグ</t>
+    <rPh sb="22" eb="23">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PAD_INPUT_B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PAD_INPUT_Z</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PAD_INPUT_Y</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PAD_INPUT_X</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PAD_INPUT_C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デバッグ用</t>
+    <rPh sb="4" eb="5">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シーン切り替え用</t>
+    <rPh sb="3" eb="4">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PAD_INPUT_R</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4208,10 +4283,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{632EE460-EFA2-4742-B802-EBE7EC6DB6B7}">
-  <dimension ref="B3:E25"/>
+  <dimension ref="B3:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4219,14 +4294,15 @@
     <col min="2" max="2" width="16.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="49.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>13</v>
       </c>
@@ -4237,7 +4313,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>14</v>
       </c>
@@ -4248,7 +4324,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>43</v>
       </c>
@@ -4256,18 +4332,24 @@
         <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
+        <v>36</v>
+      </c>
+      <c r="F6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
         <v>47</v>
       </c>
       <c r="C7" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
         <v>44</v>
       </c>
@@ -4277,8 +4359,11 @@
       <c r="E8" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
         <v>37</v>
       </c>
@@ -4286,7 +4371,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
         <v>45</v>
       </c>
@@ -4296,8 +4381,11 @@
       <c r="E10" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>46</v>
       </c>
@@ -4307,76 +4395,110 @@
       <c r="E11" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B13" t="s">
+      <c r="F11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B12" t="s">
         <v>48</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C12" t="s">
         <v>53</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D12" t="s">
         <v>59</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B17" s="1" t="s">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B14" s="1" t="s">
         <v>94</v>
       </c>
+      <c r="C14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B16" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
       <c r="C17" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.4">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C18" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B19" t="s">
-        <v>97</v>
-      </c>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.4">
       <c r="C19" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.4">
       <c r="C20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.4">
       <c r="C21" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B22" t="s">
-        <v>100</v>
-      </c>
-      <c r="C22" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C23" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.4">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B24" t="s">
+        <v>132</v>
+      </c>
       <c r="C24" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C25" t="s">
-        <v>79</v>
+        <v>133</v>
+      </c>
+      <c r="F24" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C33" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C36" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C37" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C40" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C41" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -4625,7 +4747,7 @@
   <dimension ref="B3:K20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4635,6 +4757,8 @@
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:11" x14ac:dyDescent="0.4">
@@ -4649,6 +4773,12 @@
       </c>
       <c r="H3" t="s">
         <v>106</v>
+      </c>
+      <c r="I3" t="s">
+        <v>120</v>
+      </c>
+      <c r="J3" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.4">

--- a/3DGame_3_NamelessGame/NamelessGame_仕様書.xlsx
+++ b/3DGame_3_NamelessGame/NamelessGame_仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347059\Documents\GitHub\制作作品\ProductionWork\3DGame_3_NamelessGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A65613-D56A-4E04-9A4C-D14CB0124B53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFD39305-6661-4B20-93EB-A823CF2E0583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5190" yWindow="-16200" windowWidth="26280" windowHeight="15405" activeTab="1" xr2:uid="{2DDD9D27-F88C-4C7A-90BC-D78AE39EE51E}"/>
+    <workbookView xWindow="1485" yWindow="210" windowWidth="26490" windowHeight="13650" firstSheet="3" activeTab="6" xr2:uid="{2DDD9D27-F88C-4C7A-90BC-D78AE39EE51E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,8 @@
     <sheet name="画面遷移" sheetId="6" r:id="rId4"/>
     <sheet name="画面詳細" sheetId="7" r:id="rId5"/>
     <sheet name="使用する素材" sheetId="3" r:id="rId6"/>
-    <sheet name="スケジュール" sheetId="2" r:id="rId7"/>
+    <sheet name="書き出し" sheetId="2" r:id="rId7"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="233">
   <si>
     <t>就職作品</t>
     <rPh sb="0" eb="4">
@@ -56,41 +57,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>10月</t>
-    <rPh sb="2" eb="3">
-      <t>ガツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1週目</t>
-    <rPh sb="1" eb="3">
-      <t>シュウメ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2週目</t>
-    <rPh sb="1" eb="3">
-      <t>シュウメ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3週目</t>
-    <rPh sb="1" eb="3">
-      <t>シュウメ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>4週目</t>
-    <rPh sb="1" eb="3">
-      <t>シュウメ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Idle</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -924,6 +890,769 @@
   </si>
   <si>
     <t>PAD_INPUT_R</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー挙動</t>
+    <rPh sb="5" eb="7">
+      <t>キョドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アニメーション系</t>
+    <rPh sb="7" eb="8">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ナイフ２</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>再装填</t>
+    <rPh sb="0" eb="3">
+      <t>サイソウテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>当たり判定</t>
+    <rPh sb="0" eb="1">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通常</t>
+    <rPh sb="0" eb="2">
+      <t>ツウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>銃</t>
+    <rPh sb="0" eb="1">
+      <t>ジュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カメラ系</t>
+    <rPh sb="3" eb="4">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>任意回転</t>
+    <rPh sb="0" eb="4">
+      <t>ニンイカイテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基本回転</t>
+    <rPh sb="0" eb="4">
+      <t>キホンカイテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>△</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>方向直し</t>
+    <rPh sb="0" eb="3">
+      <t>ホウコウナオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテム関係</t>
+    <rPh sb="4" eb="6">
+      <t>カンケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>罠アイテム設置</t>
+    <rPh sb="0" eb="1">
+      <t>ワナ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セッチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回復アイテム使用</t>
+    <rPh sb="0" eb="2">
+      <t>カイフク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>弾倉再装填</t>
+    <rPh sb="0" eb="2">
+      <t>ダンソウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>サイソウテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UI関係</t>
+    <rPh sb="2" eb="4">
+      <t>カンケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HPUI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>残量反映</t>
+    <rPh sb="0" eb="2">
+      <t>ザンリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃関係</t>
+    <rPh sb="0" eb="4">
+      <t>コウゲキカンケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>残弾管理</t>
+    <rPh sb="0" eb="1">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>召喚</t>
+    <rPh sb="0" eb="2">
+      <t>ショウカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>武器UI</t>
+    <rPh sb="0" eb="2">
+      <t>ブキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>武器表示</t>
+    <rPh sb="0" eb="4">
+      <t>ブキヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>武器残弾表示</t>
+    <rPh sb="0" eb="2">
+      <t>ブキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ザンダン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテムUI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテム表示</t>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵挙動</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>キョドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>待機</t>
+    <rPh sb="0" eb="2">
+      <t>タイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>右腕攻撃</t>
+    <rPh sb="0" eb="4">
+      <t>ミギウデコウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左腕攻撃</t>
+    <rPh sb="0" eb="4">
+      <t>ヒダリウデコウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UI表示</t>
+    <rPh sb="2" eb="4">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>顔アイコン表示</t>
+    <rPh sb="0" eb="1">
+      <t>カオ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>残量反映</t>
+    <rPh sb="0" eb="4">
+      <t>ザンリョウハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目的のポイントに向かう</t>
+    <rPh sb="0" eb="2">
+      <t>モクテキ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一定範囲にプレイヤーを見つけたら
+その方向へ向かう</t>
+    <rPh sb="0" eb="4">
+      <t>イッテイハンイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃範囲に入ったら
+プレイヤーに対して攻撃をする</t>
+    <rPh sb="0" eb="4">
+      <t>コウゲキハンイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HPが減ってきたらポイントに移動する
+(プレイヤーから逃げる)</t>
+    <rPh sb="3" eb="4">
+      <t>ヘ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>味方NPC挙動</t>
+    <rPh sb="0" eb="2">
+      <t>ミカタ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キョドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ナイフ３</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動関係</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵を探してポイントへ向かう</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>サガ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一定範囲に敵を見つけたら
+その方向へ向かう</t>
+    <rPh sb="0" eb="4">
+      <t>イッテイハンイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>残弾が無くなったら
+アイテムを探しに行く</t>
+    <rPh sb="0" eb="2">
+      <t>ザンダン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>サガ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エフェクト関係</t>
+    <rPh sb="5" eb="7">
+      <t>カンケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃時エフェクト</t>
+    <rPh sb="0" eb="3">
+      <t>コウゲキジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>死亡時</t>
+    <rPh sb="0" eb="3">
+      <t>シボウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SE関係</t>
+    <rPh sb="2" eb="4">
+      <t>カンケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設置</t>
+    <rPh sb="0" eb="2">
+      <t>セッチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃範囲に入ったら
+敵に対して攻撃をする</t>
+    <rPh sb="0" eb="4">
+      <t>コウゲキハンイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シーン遷移</t>
+    <rPh sb="3" eb="5">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セレクト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設定</t>
+    <rPh sb="0" eb="2">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ランキング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームクリア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームオーバー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シーン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトルロゴ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタンを押して進む</t>
+    <rPh sb="4" eb="5">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェードイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェードアウト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BGM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームを始める</t>
+    <rPh sb="4" eb="5">
+      <t>ハジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>操作説明</t>
+    <rPh sb="0" eb="4">
+      <t>ソウサセツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームを終了する</t>
+    <rPh sb="4" eb="6">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトルに戻る</t>
+    <rPh sb="5" eb="6">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例画像</t>
+    <rPh sb="0" eb="3">
+      <t>レイガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>説明文</t>
+    <rPh sb="0" eb="3">
+      <t>セツメイブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>決定</t>
+    <rPh sb="0" eb="2">
+      <t>ケッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ランキングロゴ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>順位</t>
+    <rPh sb="0" eb="2">
+      <t>ジュンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタンを押して戻る</t>
+    <rPh sb="4" eb="5">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>進む</t>
+    <rPh sb="0" eb="1">
+      <t>ススム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戻る</t>
+    <rPh sb="0" eb="1">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設定ロゴ</t>
+    <rPh sb="0" eb="2">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SE設定</t>
+    <rPh sb="2" eb="4">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BGM設定</t>
+    <rPh sb="3" eb="5">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お試しSE</t>
+    <rPh sb="1" eb="2">
+      <t>タメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>残り時間</t>
+    <rPh sb="0" eb="1">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>獲得ポイント</t>
+    <rPh sb="0" eb="2">
+      <t>カクトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポーズ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一時停止</t>
+    <rPh sb="0" eb="4">
+      <t>イチジテイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームクリアロゴ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>獲得スコア</t>
+    <rPh sb="0" eb="2">
+      <t>カクトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セレクトに戻る</t>
+    <rPh sb="5" eb="6">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームオーバーロゴ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>もう一度遊ぶ</t>
+    <rPh sb="2" eb="5">
+      <t>イチドアソ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイルへの書き出し</t>
+    <rPh sb="6" eb="7">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <rPh sb="0" eb="2">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>進捗</t>
+    <rPh sb="0" eb="2">
+      <t>シンチョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>素材集め</t>
+    <rPh sb="0" eb="3">
+      <t>ソザイアツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エネミー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>味方NPC</t>
+    <rPh sb="0" eb="2">
+      <t>ミカタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モデル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モーション</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -978,7 +1707,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -990,6 +1719,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4271,7 +5009,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -4285,8 +5023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{632EE460-EFA2-4742-B802-EBE7EC6DB6B7}">
   <dimension ref="B3:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4299,206 +5037,206 @@
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s">
         <v>47</v>
       </c>
-      <c r="C7" t="s">
-        <v>52</v>
-      </c>
       <c r="F7" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F8" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F10" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F11" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" t="s">
         <v>48</v>
       </c>
-      <c r="C12" t="s">
-        <v>53</v>
-      </c>
       <c r="D12" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C14" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C15" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C16" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.4">
       <c r="C17" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C18" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.4">
       <c r="C19" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.4">
       <c r="C20" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.4">
       <c r="C21" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C24" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F24" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C33" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="36" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C36" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="37" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C37" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C40" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C41" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -4526,154 +5264,154 @@
   <sheetData>
     <row r="4" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" t="s">
         <v>62</v>
       </c>
-      <c r="C6" t="s">
-        <v>67</v>
-      </c>
       <c r="D6" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B11" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C12" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D12" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E12" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C13" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D13" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E13" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D14" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E14" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C15" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D15" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E15" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C16" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D16" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E16" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C17" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D17" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E17" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C18" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D18" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E18" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -4702,7 +5440,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{518EA069-E43A-4A23-BFE4-3A9E9AB91ED3}">
   <dimension ref="B2:R34"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
@@ -4715,23 +5453,23 @@
   <sheetData>
     <row r="2" spans="2:2" ht="30" x14ac:dyDescent="0.4">
       <c r="B2" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="2:18" ht="30" x14ac:dyDescent="0.4">
       <c r="B17" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="2:2" ht="30" x14ac:dyDescent="0.4">
       <c r="B34" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -4746,7 +5484,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E3231B-BC62-49A9-9D95-855D709BB051}">
   <dimension ref="B3:K20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
@@ -4763,288 +5501,288 @@
   <sheetData>
     <row r="3" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C3" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="H3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="I3" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="J3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" t="s">
         <v>7</v>
       </c>
-      <c r="I4" t="s">
-        <v>12</v>
-      </c>
       <c r="J4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" t="s">
+        <v>102</v>
+      </c>
+      <c r="I5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" t="s">
-        <v>107</v>
-      </c>
-      <c r="I5" t="s">
-        <v>13</v>
-      </c>
       <c r="J5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" t="s">
+        <v>103</v>
+      </c>
+      <c r="I6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" t="s">
-        <v>108</v>
-      </c>
-      <c r="I6" t="s">
-        <v>14</v>
-      </c>
       <c r="J6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H7" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I7" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="J7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H8" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="I8" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="J8" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>31</v>
       </c>
-      <c r="D9" t="s">
-        <v>36</v>
-      </c>
       <c r="H9" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="I9" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="J9" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H11" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="I11" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J11" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H12" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="I12" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J12" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H13" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="I13" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="J13" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H14" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I14" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="J14" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K14" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D16" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D20" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -5056,40 +5794,4407 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F1336CB-A938-459E-AE15-F52FB00617F4}">
-  <dimension ref="D3:G4"/>
+  <dimension ref="A1:AL93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U6" sqref="U6"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="27.375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="21.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="4:7" x14ac:dyDescent="0.4">
-      <c r="D3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="3"/>
+    <row r="1" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="3"/>
+      <c r="AE1" s="3"/>
+      <c r="AF1" s="3"/>
+      <c r="AG1" s="3"/>
+      <c r="AH1" s="3"/>
+      <c r="AI1" s="3"/>
+      <c r="AJ1" s="3"/>
+      <c r="AK1" s="3"/>
+      <c r="AL1" s="3"/>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3"/>
+      <c r="AF2" s="3"/>
+      <c r="AG2" s="3"/>
+      <c r="AH2" s="3"/>
+      <c r="AI2" s="3"/>
+      <c r="AJ2" s="3"/>
+      <c r="AK2" s="3"/>
+      <c r="AL2" s="3"/>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="4:7" x14ac:dyDescent="0.4">
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" t="s">
-        <v>6</v>
-      </c>
+      <c r="G3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="V3" s="3"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="3"/>
+      <c r="AF3" s="3"/>
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="3"/>
+      <c r="AI3" s="3"/>
+      <c r="AJ3" s="3"/>
+      <c r="AK3" s="3"/>
+      <c r="AL3" s="3"/>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="V4" s="3"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="3"/>
+      <c r="AE4" s="3"/>
+      <c r="AF4" s="3"/>
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="3"/>
+      <c r="AI4" s="3"/>
+      <c r="AJ4" s="3"/>
+      <c r="AK4" s="3"/>
+      <c r="AL4" s="3"/>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="V5" s="3"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="3"/>
+      <c r="AF5" s="3"/>
+      <c r="AG5" s="3"/>
+      <c r="AH5" s="3"/>
+      <c r="AI5" s="3"/>
+      <c r="AJ5" s="3"/>
+      <c r="AK5" s="3"/>
+      <c r="AL5" s="3"/>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="V6" s="3"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y6" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="3"/>
+      <c r="AF6" s="3"/>
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="3"/>
+      <c r="AI6" s="3"/>
+      <c r="AJ6" s="3"/>
+      <c r="AK6" s="3"/>
+      <c r="AL6" s="3"/>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="V7" s="3"/>
+      <c r="W7" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="X7" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y7" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="3"/>
+      <c r="AF7" s="3"/>
+      <c r="AG7" s="3"/>
+      <c r="AH7" s="3"/>
+      <c r="AI7" s="3"/>
+      <c r="AJ7" s="3"/>
+      <c r="AK7" s="3"/>
+      <c r="AL7" s="3"/>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="V8" s="3"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="3"/>
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="3"/>
+      <c r="AI8" s="3"/>
+      <c r="AJ8" s="3"/>
+      <c r="AK8" s="3"/>
+      <c r="AL8" s="3"/>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="3"/>
+      <c r="AE9" s="3"/>
+      <c r="AF9" s="3"/>
+      <c r="AG9" s="3"/>
+      <c r="AH9" s="3"/>
+      <c r="AI9" s="3"/>
+      <c r="AJ9" s="3"/>
+      <c r="AK9" s="3"/>
+      <c r="AL9" s="3"/>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="3"/>
+      <c r="AE10" s="3"/>
+      <c r="AF10" s="3"/>
+      <c r="AG10" s="3"/>
+      <c r="AH10" s="3"/>
+      <c r="AI10" s="3"/>
+      <c r="AJ10" s="3"/>
+      <c r="AK10" s="3"/>
+      <c r="AL10" s="3"/>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+      <c r="AF11" s="3"/>
+      <c r="AG11" s="3"/>
+      <c r="AH11" s="3"/>
+      <c r="AI11" s="3"/>
+      <c r="AJ11" s="3"/>
+      <c r="AK11" s="3"/>
+      <c r="AL11" s="3"/>
+    </row>
+    <row r="12" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="3"/>
+      <c r="AD12" s="3"/>
+      <c r="AE12" s="3"/>
+      <c r="AF12" s="3"/>
+      <c r="AG12" s="3"/>
+      <c r="AH12" s="3"/>
+      <c r="AI12" s="3"/>
+      <c r="AJ12" s="3"/>
+      <c r="AK12" s="3"/>
+      <c r="AL12" s="3"/>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="3"/>
+      <c r="AE13" s="3"/>
+      <c r="AF13" s="3"/>
+      <c r="AG13" s="3"/>
+      <c r="AH13" s="3"/>
+      <c r="AI13" s="3"/>
+      <c r="AJ13" s="3"/>
+      <c r="AK13" s="3"/>
+      <c r="AL13" s="3"/>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="3"/>
+      <c r="AD14" s="3"/>
+      <c r="AE14" s="3"/>
+      <c r="AF14" s="3"/>
+      <c r="AG14" s="3"/>
+      <c r="AH14" s="3"/>
+      <c r="AI14" s="3"/>
+      <c r="AJ14" s="3"/>
+      <c r="AK14" s="3"/>
+      <c r="AL14" s="3"/>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3"/>
+      <c r="AC15" s="3"/>
+      <c r="AD15" s="3"/>
+      <c r="AE15" s="3"/>
+      <c r="AF15" s="3"/>
+      <c r="AG15" s="3"/>
+      <c r="AH15" s="3"/>
+      <c r="AI15" s="3"/>
+      <c r="AJ15" s="3"/>
+      <c r="AK15" s="3"/>
+      <c r="AL15" s="3"/>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+      <c r="AF16" s="3"/>
+      <c r="AG16" s="3"/>
+      <c r="AH16" s="3"/>
+      <c r="AI16" s="3"/>
+      <c r="AJ16" s="3"/>
+      <c r="AK16" s="3"/>
+      <c r="AL16" s="3"/>
+    </row>
+    <row r="17" spans="1:38" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="P17" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="3"/>
+      <c r="AC17" s="3"/>
+      <c r="AD17" s="3"/>
+      <c r="AE17" s="3"/>
+      <c r="AF17" s="3"/>
+      <c r="AG17" s="3"/>
+      <c r="AH17" s="3"/>
+      <c r="AI17" s="3"/>
+      <c r="AJ17" s="3"/>
+      <c r="AK17" s="3"/>
+      <c r="AL17" s="3"/>
+    </row>
+    <row r="18" spans="1:38" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y18" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="3"/>
+      <c r="AB18" s="3"/>
+      <c r="AC18" s="3"/>
+      <c r="AD18" s="3"/>
+      <c r="AE18" s="3"/>
+      <c r="AF18" s="3"/>
+      <c r="AG18" s="3"/>
+      <c r="AH18" s="3"/>
+      <c r="AI18" s="3"/>
+      <c r="AJ18" s="3"/>
+      <c r="AK18" s="3"/>
+      <c r="AL18" s="3"/>
+    </row>
+    <row r="19" spans="1:38" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+      <c r="AF19" s="3"/>
+      <c r="AG19" s="3"/>
+      <c r="AH19" s="3"/>
+      <c r="AI19" s="3"/>
+      <c r="AJ19" s="3"/>
+      <c r="AK19" s="3"/>
+      <c r="AL19" s="3"/>
+    </row>
+    <row r="20" spans="1:38" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="X20" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y20" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3"/>
+      <c r="AB20" s="3"/>
+      <c r="AC20" s="3"/>
+      <c r="AD20" s="3"/>
+      <c r="AE20" s="3"/>
+      <c r="AF20" s="3"/>
+      <c r="AG20" s="3"/>
+      <c r="AH20" s="3"/>
+      <c r="AI20" s="3"/>
+      <c r="AJ20" s="3"/>
+      <c r="AK20" s="3"/>
+      <c r="AL20" s="3"/>
+    </row>
+    <row r="21" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H21" s="3"/>
+      <c r="I21" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="P21" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="3"/>
+      <c r="AC21" s="3"/>
+      <c r="AD21" s="3"/>
+      <c r="AE21" s="3"/>
+      <c r="AF21" s="3"/>
+      <c r="AG21" s="3"/>
+      <c r="AH21" s="3"/>
+      <c r="AI21" s="3"/>
+      <c r="AJ21" s="3"/>
+      <c r="AK21" s="3"/>
+      <c r="AL21" s="3"/>
+    </row>
+    <row r="22" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H22" s="3"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="3"/>
+      <c r="AE22" s="3"/>
+      <c r="AF22" s="3"/>
+      <c r="AG22" s="3"/>
+      <c r="AH22" s="3"/>
+      <c r="AI22" s="3"/>
+      <c r="AJ22" s="3"/>
+      <c r="AK22" s="3"/>
+      <c r="AL22" s="3"/>
+    </row>
+    <row r="23" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H23" s="3"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="Y23" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3"/>
+      <c r="AB23" s="3"/>
+      <c r="AC23" s="3"/>
+      <c r="AD23" s="3"/>
+      <c r="AE23" s="3"/>
+      <c r="AF23" s="3"/>
+      <c r="AG23" s="3"/>
+      <c r="AH23" s="3"/>
+      <c r="AI23" s="3"/>
+      <c r="AJ23" s="3"/>
+      <c r="AK23" s="3"/>
+      <c r="AL23" s="3"/>
+    </row>
+    <row r="24" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="3"/>
+      <c r="AB24" s="3"/>
+      <c r="AC24" s="3"/>
+      <c r="AD24" s="3"/>
+      <c r="AE24" s="3"/>
+      <c r="AF24" s="3"/>
+      <c r="AG24" s="3"/>
+      <c r="AH24" s="3"/>
+      <c r="AI24" s="3"/>
+      <c r="AJ24" s="3"/>
+      <c r="AK24" s="3"/>
+      <c r="AL24" s="3"/>
+    </row>
+    <row r="25" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3"/>
+      <c r="AA25" s="3"/>
+      <c r="AB25" s="3"/>
+      <c r="AC25" s="3"/>
+      <c r="AD25" s="3"/>
+      <c r="AE25" s="3"/>
+      <c r="AF25" s="3"/>
+      <c r="AG25" s="3"/>
+      <c r="AH25" s="3"/>
+      <c r="AI25" s="3"/>
+      <c r="AJ25" s="3"/>
+      <c r="AK25" s="3"/>
+      <c r="AL25" s="3"/>
+    </row>
+    <row r="26" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
+      <c r="AA26" s="3"/>
+      <c r="AB26" s="3"/>
+      <c r="AC26" s="3"/>
+      <c r="AD26" s="3"/>
+      <c r="AE26" s="3"/>
+      <c r="AF26" s="3"/>
+      <c r="AG26" s="3"/>
+      <c r="AH26" s="3"/>
+      <c r="AI26" s="3"/>
+      <c r="AJ26" s="3"/>
+      <c r="AK26" s="3"/>
+      <c r="AL26" s="3"/>
+    </row>
+    <row r="27" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y27" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="Z27" s="3"/>
+      <c r="AA27" s="3"/>
+      <c r="AB27" s="3"/>
+      <c r="AC27" s="3"/>
+      <c r="AD27" s="3"/>
+      <c r="AE27" s="3"/>
+      <c r="AF27" s="3"/>
+      <c r="AG27" s="3"/>
+      <c r="AH27" s="3"/>
+      <c r="AI27" s="3"/>
+      <c r="AJ27" s="3"/>
+      <c r="AK27" s="3"/>
+      <c r="AL27" s="3"/>
+    </row>
+    <row r="28" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="X28" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y28" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="3"/>
+      <c r="AB28" s="3"/>
+      <c r="AC28" s="3"/>
+      <c r="AD28" s="3"/>
+      <c r="AE28" s="3"/>
+      <c r="AF28" s="3"/>
+      <c r="AG28" s="3"/>
+      <c r="AH28" s="3"/>
+      <c r="AI28" s="3"/>
+      <c r="AJ28" s="3"/>
+      <c r="AK28" s="3"/>
+      <c r="AL28" s="3"/>
+    </row>
+    <row r="29" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="P29" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="Z29" s="3"/>
+      <c r="AA29" s="3"/>
+      <c r="AB29" s="3"/>
+      <c r="AC29" s="3"/>
+      <c r="AD29" s="3"/>
+      <c r="AE29" s="3"/>
+      <c r="AF29" s="3"/>
+      <c r="AG29" s="3"/>
+      <c r="AH29" s="3"/>
+      <c r="AI29" s="3"/>
+      <c r="AJ29" s="3"/>
+      <c r="AK29" s="3"/>
+      <c r="AL29" s="3"/>
+    </row>
+    <row r="30" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q30" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="3"/>
+      <c r="Y30" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="Z30" s="3"/>
+      <c r="AA30" s="3"/>
+      <c r="AB30" s="3"/>
+      <c r="AC30" s="3"/>
+      <c r="AD30" s="3"/>
+      <c r="AE30" s="3"/>
+      <c r="AF30" s="3"/>
+      <c r="AG30" s="3"/>
+      <c r="AH30" s="3"/>
+      <c r="AI30" s="3"/>
+      <c r="AJ30" s="3"/>
+      <c r="AK30" s="3"/>
+      <c r="AL30" s="3"/>
+    </row>
+    <row r="31" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="X31" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="Z31" s="3"/>
+      <c r="AA31" s="3"/>
+      <c r="AB31" s="3"/>
+      <c r="AC31" s="3"/>
+      <c r="AD31" s="3"/>
+      <c r="AE31" s="3"/>
+      <c r="AF31" s="3"/>
+      <c r="AG31" s="3"/>
+      <c r="AH31" s="3"/>
+      <c r="AI31" s="3"/>
+      <c r="AJ31" s="3"/>
+      <c r="AK31" s="3"/>
+      <c r="AL31" s="3"/>
+    </row>
+    <row r="32" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3"/>
+      <c r="X32" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="Z32" s="3"/>
+      <c r="AA32" s="3"/>
+      <c r="AB32" s="3"/>
+      <c r="AC32" s="3"/>
+      <c r="AD32" s="3"/>
+      <c r="AE32" s="3"/>
+      <c r="AF32" s="3"/>
+      <c r="AG32" s="3"/>
+      <c r="AH32" s="3"/>
+      <c r="AI32" s="3"/>
+      <c r="AJ32" s="3"/>
+      <c r="AK32" s="3"/>
+      <c r="AL32" s="3"/>
+    </row>
+    <row r="33" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="3"/>
+      <c r="AA33" s="3"/>
+      <c r="AB33" s="3"/>
+      <c r="AC33" s="3"/>
+      <c r="AD33" s="3"/>
+      <c r="AE33" s="3"/>
+      <c r="AF33" s="3"/>
+      <c r="AG33" s="3"/>
+      <c r="AH33" s="3"/>
+      <c r="AI33" s="3"/>
+      <c r="AJ33" s="3"/>
+      <c r="AK33" s="3"/>
+      <c r="AL33" s="3"/>
+    </row>
+    <row r="34" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y34" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="Z34" s="3"/>
+      <c r="AA34" s="3"/>
+      <c r="AB34" s="3"/>
+      <c r="AC34" s="3"/>
+      <c r="AD34" s="3"/>
+      <c r="AE34" s="3"/>
+      <c r="AF34" s="3"/>
+      <c r="AG34" s="3"/>
+      <c r="AH34" s="3"/>
+      <c r="AI34" s="3"/>
+      <c r="AJ34" s="3"/>
+      <c r="AK34" s="3"/>
+      <c r="AL34" s="3"/>
+    </row>
+    <row r="35" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
+      <c r="V35" s="3"/>
+      <c r="W35" s="3"/>
+      <c r="X35" s="3"/>
+      <c r="Y35" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="Z35" s="3"/>
+      <c r="AA35" s="3"/>
+      <c r="AB35" s="3"/>
+      <c r="AC35" s="3"/>
+      <c r="AD35" s="3"/>
+      <c r="AE35" s="3"/>
+      <c r="AF35" s="3"/>
+      <c r="AG35" s="3"/>
+      <c r="AH35" s="3"/>
+      <c r="AI35" s="3"/>
+      <c r="AJ35" s="3"/>
+      <c r="AK35" s="3"/>
+      <c r="AL35" s="3"/>
+    </row>
+    <row r="36" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="3"/>
+      <c r="W36" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="X36" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y36" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="Z36" s="3"/>
+      <c r="AA36" s="3"/>
+      <c r="AB36" s="3"/>
+      <c r="AC36" s="3"/>
+      <c r="AD36" s="3"/>
+      <c r="AE36" s="3"/>
+      <c r="AF36" s="3"/>
+      <c r="AG36" s="3"/>
+      <c r="AH36" s="3"/>
+      <c r="AI36" s="3"/>
+      <c r="AJ36" s="3"/>
+      <c r="AK36" s="3"/>
+      <c r="AL36" s="3"/>
+    </row>
+    <row r="37" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="3"/>
+      <c r="U37" s="3"/>
+      <c r="V37" s="3"/>
+      <c r="W37" s="3"/>
+      <c r="X37" s="3"/>
+      <c r="Y37" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="Z37" s="3"/>
+      <c r="AA37" s="3"/>
+      <c r="AB37" s="3"/>
+      <c r="AC37" s="3"/>
+      <c r="AD37" s="3"/>
+      <c r="AE37" s="3"/>
+      <c r="AF37" s="3"/>
+      <c r="AG37" s="3"/>
+      <c r="AH37" s="3"/>
+      <c r="AI37" s="3"/>
+      <c r="AJ37" s="3"/>
+      <c r="AK37" s="3"/>
+      <c r="AL37" s="3"/>
+    </row>
+    <row r="38" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="3"/>
+      <c r="U38" s="3"/>
+      <c r="V38" s="3"/>
+      <c r="W38" s="3"/>
+      <c r="X38" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y38" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="Z38" s="3"/>
+      <c r="AA38" s="3"/>
+      <c r="AB38" s="3"/>
+      <c r="AC38" s="3"/>
+      <c r="AD38" s="3"/>
+      <c r="AE38" s="3"/>
+      <c r="AF38" s="3"/>
+      <c r="AG38" s="3"/>
+      <c r="AH38" s="3"/>
+      <c r="AI38" s="3"/>
+      <c r="AJ38" s="3"/>
+      <c r="AK38" s="3"/>
+      <c r="AL38" s="3"/>
+    </row>
+    <row r="39" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+      <c r="AF39" s="3"/>
+      <c r="AG39" s="3"/>
+      <c r="AH39" s="3"/>
+      <c r="AI39" s="3"/>
+      <c r="AJ39" s="3"/>
+      <c r="AK39" s="3"/>
+      <c r="AL39" s="3"/>
+    </row>
+    <row r="40" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="X40" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+      <c r="AF40" s="3"/>
+      <c r="AG40" s="3"/>
+      <c r="AH40" s="3"/>
+      <c r="AI40" s="3"/>
+      <c r="AJ40" s="3"/>
+      <c r="AK40" s="3"/>
+      <c r="AL40" s="3"/>
+    </row>
+    <row r="41" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="3"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="3"/>
+      <c r="U41" s="3"/>
+      <c r="V41" s="3"/>
+      <c r="X41" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="Z41" s="3"/>
+      <c r="AA41" s="3"/>
+      <c r="AB41" s="3"/>
+      <c r="AC41" s="3"/>
+      <c r="AD41" s="3"/>
+      <c r="AE41" s="3"/>
+      <c r="AF41" s="3"/>
+      <c r="AG41" s="3"/>
+      <c r="AH41" s="3"/>
+      <c r="AI41" s="3"/>
+      <c r="AJ41" s="3"/>
+      <c r="AK41" s="3"/>
+      <c r="AL41" s="3"/>
+    </row>
+    <row r="42" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="3"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="3"/>
+      <c r="U42" s="3"/>
+      <c r="V42" s="3"/>
+      <c r="W42" s="3"/>
+      <c r="X42" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="Z42" s="3"/>
+      <c r="AA42" s="3"/>
+      <c r="AB42" s="3"/>
+      <c r="AC42" s="3"/>
+      <c r="AD42" s="3"/>
+      <c r="AE42" s="3"/>
+      <c r="AF42" s="3"/>
+      <c r="AG42" s="3"/>
+      <c r="AH42" s="3"/>
+      <c r="AI42" s="3"/>
+      <c r="AJ42" s="3"/>
+      <c r="AK42" s="3"/>
+      <c r="AL42" s="3"/>
+    </row>
+    <row r="43" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="3"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="3"/>
+      <c r="U43" s="3"/>
+      <c r="V43" s="3"/>
+      <c r="W43" s="3"/>
+      <c r="X43" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y43" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z43" s="3"/>
+      <c r="AA43" s="3"/>
+      <c r="AB43" s="3"/>
+      <c r="AC43" s="3"/>
+      <c r="AD43" s="3"/>
+      <c r="AE43" s="3"/>
+      <c r="AF43" s="3"/>
+      <c r="AG43" s="3"/>
+      <c r="AH43" s="3"/>
+      <c r="AI43" s="3"/>
+      <c r="AJ43" s="3"/>
+      <c r="AK43" s="3"/>
+      <c r="AL43" s="3"/>
+    </row>
+    <row r="44" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="3"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="3"/>
+      <c r="U44" s="3"/>
+      <c r="V44" s="3"/>
+      <c r="W44" s="3"/>
+      <c r="X44" s="3"/>
+      <c r="Y44" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="Z44" s="3"/>
+      <c r="AA44" s="3"/>
+      <c r="AB44" s="3"/>
+      <c r="AC44" s="3"/>
+      <c r="AD44" s="3"/>
+      <c r="AE44" s="3"/>
+      <c r="AF44" s="3"/>
+      <c r="AG44" s="3"/>
+      <c r="AH44" s="3"/>
+      <c r="AI44" s="3"/>
+      <c r="AJ44" s="3"/>
+      <c r="AK44" s="3"/>
+      <c r="AL44" s="3"/>
+    </row>
+    <row r="45" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="3"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="3"/>
+      <c r="U45" s="3"/>
+      <c r="V45" s="3"/>
+      <c r="W45" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="X45" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y45" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="Z45" s="3"/>
+      <c r="AA45" s="3"/>
+      <c r="AB45" s="3"/>
+      <c r="AC45" s="3"/>
+      <c r="AD45" s="3"/>
+      <c r="AE45" s="3"/>
+      <c r="AF45" s="3"/>
+      <c r="AG45" s="3"/>
+      <c r="AH45" s="3"/>
+      <c r="AI45" s="3"/>
+      <c r="AJ45" s="3"/>
+      <c r="AK45" s="3"/>
+      <c r="AL45" s="3"/>
+    </row>
+    <row r="46" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+      <c r="P46" s="3"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="3"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="3"/>
+      <c r="U46" s="3"/>
+      <c r="V46" s="3"/>
+      <c r="W46" s="3"/>
+      <c r="X46" s="3"/>
+      <c r="Y46" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="Z46" s="3"/>
+      <c r="AA46" s="3"/>
+      <c r="AB46" s="3"/>
+      <c r="AC46" s="3"/>
+      <c r="AD46" s="3"/>
+      <c r="AE46" s="3"/>
+      <c r="AF46" s="3"/>
+      <c r="AG46" s="3"/>
+      <c r="AH46" s="3"/>
+      <c r="AI46" s="3"/>
+      <c r="AJ46" s="3"/>
+      <c r="AK46" s="3"/>
+      <c r="AL46" s="3"/>
+    </row>
+    <row r="47" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
+      <c r="P47" s="3"/>
+      <c r="Q47" s="3"/>
+      <c r="R47" s="3"/>
+      <c r="S47" s="3"/>
+      <c r="T47" s="3"/>
+      <c r="U47" s="3"/>
+      <c r="V47" s="3"/>
+      <c r="W47" s="3"/>
+      <c r="X47" s="3"/>
+      <c r="Y47" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="Z47" s="3"/>
+      <c r="AA47" s="3"/>
+      <c r="AB47" s="3"/>
+      <c r="AC47" s="3"/>
+      <c r="AD47" s="3"/>
+      <c r="AE47" s="3"/>
+      <c r="AF47" s="3"/>
+      <c r="AG47" s="3"/>
+      <c r="AH47" s="3"/>
+      <c r="AI47" s="3"/>
+      <c r="AJ47" s="3"/>
+      <c r="AK47" s="3"/>
+      <c r="AL47" s="3"/>
+    </row>
+    <row r="48" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="3"/>
+      <c r="P48" s="3"/>
+      <c r="Q48" s="3"/>
+      <c r="R48" s="3"/>
+      <c r="S48" s="3"/>
+      <c r="T48" s="3"/>
+      <c r="U48" s="3"/>
+      <c r="V48" s="3"/>
+      <c r="Y48" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z48" s="3"/>
+      <c r="AA48" s="3"/>
+      <c r="AB48" s="3"/>
+      <c r="AC48" s="3"/>
+      <c r="AD48" s="3"/>
+      <c r="AE48" s="3"/>
+      <c r="AF48" s="3"/>
+      <c r="AG48" s="3"/>
+      <c r="AH48" s="3"/>
+      <c r="AI48" s="3"/>
+      <c r="AJ48" s="3"/>
+      <c r="AK48" s="3"/>
+      <c r="AL48" s="3"/>
+    </row>
+    <row r="49" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
+      <c r="P49" s="3"/>
+      <c r="Q49" s="3"/>
+      <c r="R49" s="3"/>
+      <c r="S49" s="3"/>
+      <c r="T49" s="3"/>
+      <c r="U49" s="3"/>
+      <c r="V49" s="3"/>
+      <c r="X49" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="Z49" s="3"/>
+      <c r="AA49" s="3"/>
+      <c r="AB49" s="3"/>
+      <c r="AC49" s="3"/>
+      <c r="AD49" s="3"/>
+      <c r="AE49" s="3"/>
+      <c r="AF49" s="3"/>
+      <c r="AG49" s="3"/>
+      <c r="AH49" s="3"/>
+      <c r="AI49" s="3"/>
+      <c r="AJ49" s="3"/>
+      <c r="AK49" s="3"/>
+      <c r="AL49" s="3"/>
+    </row>
+    <row r="50" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="3"/>
+      <c r="P50" s="3"/>
+      <c r="Q50" s="3"/>
+      <c r="R50" s="3"/>
+      <c r="S50" s="3"/>
+      <c r="T50" s="3"/>
+      <c r="U50" s="3"/>
+      <c r="V50" s="3"/>
+      <c r="X50" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="Z50" s="3"/>
+      <c r="AA50" s="3"/>
+      <c r="AB50" s="3"/>
+      <c r="AC50" s="3"/>
+      <c r="AD50" s="3"/>
+      <c r="AE50" s="3"/>
+      <c r="AF50" s="3"/>
+      <c r="AG50" s="3"/>
+      <c r="AH50" s="3"/>
+      <c r="AI50" s="3"/>
+      <c r="AJ50" s="3"/>
+      <c r="AK50" s="3"/>
+      <c r="AL50" s="3"/>
+    </row>
+    <row r="51" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
+      <c r="O51" s="3"/>
+      <c r="P51" s="3"/>
+      <c r="Q51" s="3"/>
+      <c r="R51" s="3"/>
+      <c r="S51" s="3"/>
+      <c r="T51" s="3"/>
+      <c r="U51" s="3"/>
+      <c r="V51" s="3"/>
+      <c r="W51" s="3"/>
+      <c r="X51" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y51" s="3"/>
+      <c r="Z51" s="3"/>
+      <c r="AA51" s="3"/>
+      <c r="AB51" s="3"/>
+      <c r="AC51" s="3"/>
+      <c r="AD51" s="3"/>
+      <c r="AE51" s="3"/>
+      <c r="AF51" s="3"/>
+      <c r="AG51" s="3"/>
+      <c r="AH51" s="3"/>
+      <c r="AI51" s="3"/>
+      <c r="AJ51" s="3"/>
+      <c r="AK51" s="3"/>
+      <c r="AL51" s="3"/>
+    </row>
+    <row r="52" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
+      <c r="O52" s="3"/>
+      <c r="P52" s="3"/>
+      <c r="Q52" s="3"/>
+      <c r="R52" s="3"/>
+      <c r="S52" s="3"/>
+      <c r="T52" s="3"/>
+      <c r="U52" s="3"/>
+      <c r="V52" s="3"/>
+      <c r="W52" s="3"/>
+      <c r="X52" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y52" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="Z52" s="3"/>
+      <c r="AA52" s="3"/>
+      <c r="AB52" s="3"/>
+      <c r="AC52" s="3"/>
+      <c r="AD52" s="3"/>
+      <c r="AE52" s="3"/>
+      <c r="AF52" s="3"/>
+      <c r="AG52" s="3"/>
+      <c r="AH52" s="3"/>
+      <c r="AI52" s="3"/>
+      <c r="AJ52" s="3"/>
+      <c r="AK52" s="3"/>
+      <c r="AL52" s="3"/>
+    </row>
+    <row r="53" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
+      <c r="O53" s="3"/>
+      <c r="P53" s="3"/>
+      <c r="Q53" s="3"/>
+      <c r="R53" s="3"/>
+      <c r="S53" s="3"/>
+      <c r="T53" s="3"/>
+      <c r="U53" s="3"/>
+      <c r="V53" s="3"/>
+      <c r="W53" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="X53" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y53" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="Z53" s="3"/>
+      <c r="AA53" s="3"/>
+      <c r="AB53" s="3"/>
+      <c r="AC53" s="3"/>
+      <c r="AD53" s="3"/>
+      <c r="AE53" s="3"/>
+      <c r="AF53" s="3"/>
+      <c r="AG53" s="3"/>
+      <c r="AH53" s="3"/>
+      <c r="AI53" s="3"/>
+      <c r="AJ53" s="3"/>
+      <c r="AK53" s="3"/>
+      <c r="AL53" s="3"/>
+    </row>
+    <row r="54" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="3"/>
+      <c r="M54" s="3"/>
+      <c r="N54" s="3"/>
+      <c r="O54" s="3"/>
+      <c r="P54" s="3"/>
+      <c r="Q54" s="3"/>
+      <c r="R54" s="3"/>
+      <c r="S54" s="3"/>
+      <c r="T54" s="3"/>
+      <c r="U54" s="3"/>
+      <c r="V54" s="3"/>
+      <c r="W54" s="3"/>
+      <c r="X54" s="3"/>
+      <c r="Y54" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="Z54" s="3"/>
+      <c r="AA54" s="3"/>
+      <c r="AB54" s="3"/>
+      <c r="AC54" s="3"/>
+      <c r="AD54" s="3"/>
+      <c r="AE54" s="3"/>
+      <c r="AF54" s="3"/>
+      <c r="AG54" s="3"/>
+      <c r="AH54" s="3"/>
+      <c r="AI54" s="3"/>
+      <c r="AJ54" s="3"/>
+      <c r="AK54" s="3"/>
+      <c r="AL54" s="3"/>
+    </row>
+    <row r="55" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="3"/>
+      <c r="AE55" s="3"/>
+      <c r="AF55" s="3"/>
+      <c r="AG55" s="3"/>
+      <c r="AH55" s="3"/>
+      <c r="AI55" s="3"/>
+      <c r="AJ55" s="3"/>
+      <c r="AK55" s="3"/>
+      <c r="AL55" s="3"/>
+    </row>
+    <row r="56" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="3"/>
+      <c r="AF56" s="3"/>
+      <c r="AG56" s="3"/>
+      <c r="AH56" s="3"/>
+      <c r="AI56" s="3"/>
+      <c r="AJ56" s="3"/>
+      <c r="AK56" s="3"/>
+      <c r="AL56" s="3"/>
+    </row>
+    <row r="57" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+      <c r="L57" s="3"/>
+      <c r="M57" s="3"/>
+      <c r="N57" s="3"/>
+      <c r="O57" s="3"/>
+      <c r="P57" s="3"/>
+      <c r="Q57" s="3"/>
+      <c r="R57" s="3"/>
+      <c r="S57" s="3"/>
+      <c r="T57" s="3"/>
+      <c r="U57" s="3"/>
+      <c r="V57" s="3"/>
+      <c r="W57" s="3"/>
+      <c r="X57" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="Z57" s="3"/>
+      <c r="AA57" s="3"/>
+      <c r="AB57" s="3"/>
+      <c r="AC57" s="3"/>
+      <c r="AD57" s="3"/>
+      <c r="AE57" s="3"/>
+      <c r="AF57" s="3"/>
+      <c r="AG57" s="3"/>
+      <c r="AH57" s="3"/>
+      <c r="AI57" s="3"/>
+      <c r="AJ57" s="3"/>
+      <c r="AK57" s="3"/>
+      <c r="AL57" s="3"/>
+    </row>
+    <row r="58" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
+      <c r="M58" s="3"/>
+      <c r="N58" s="3"/>
+      <c r="O58" s="3"/>
+      <c r="P58" s="3"/>
+      <c r="Q58" s="3"/>
+      <c r="R58" s="3"/>
+      <c r="S58" s="3"/>
+      <c r="T58" s="3"/>
+      <c r="U58" s="3"/>
+      <c r="V58" s="3"/>
+      <c r="W58" s="3"/>
+      <c r="X58" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="Z58" s="3"/>
+      <c r="AA58" s="3"/>
+      <c r="AB58" s="3"/>
+      <c r="AC58" s="3"/>
+      <c r="AD58" s="3"/>
+      <c r="AE58" s="3"/>
+      <c r="AF58" s="3"/>
+      <c r="AG58" s="3"/>
+      <c r="AH58" s="3"/>
+      <c r="AI58" s="3"/>
+      <c r="AJ58" s="3"/>
+      <c r="AK58" s="3"/>
+      <c r="AL58" s="3"/>
+    </row>
+    <row r="59" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="3"/>
+      <c r="M59" s="3"/>
+      <c r="N59" s="3"/>
+      <c r="O59" s="3"/>
+      <c r="P59" s="3"/>
+      <c r="Q59" s="3"/>
+      <c r="R59" s="3"/>
+      <c r="S59" s="3"/>
+      <c r="T59" s="3"/>
+      <c r="U59" s="3"/>
+      <c r="V59" s="3"/>
+      <c r="W59" s="3"/>
+      <c r="X59" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y59" s="3"/>
+      <c r="Z59" s="3"/>
+      <c r="AA59" s="3"/>
+      <c r="AB59" s="3"/>
+      <c r="AC59" s="3"/>
+      <c r="AD59" s="3"/>
+      <c r="AE59" s="3"/>
+      <c r="AF59" s="3"/>
+      <c r="AG59" s="3"/>
+      <c r="AH59" s="3"/>
+      <c r="AI59" s="3"/>
+      <c r="AJ59" s="3"/>
+      <c r="AK59" s="3"/>
+      <c r="AL59" s="3"/>
+    </row>
+    <row r="60" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="3"/>
+      <c r="M60" s="3"/>
+      <c r="N60" s="3"/>
+      <c r="O60" s="3"/>
+      <c r="P60" s="3"/>
+      <c r="Q60" s="3"/>
+      <c r="R60" s="3"/>
+      <c r="S60" s="3"/>
+      <c r="T60" s="3"/>
+      <c r="U60" s="3"/>
+      <c r="V60" s="3"/>
+      <c r="W60" s="3"/>
+      <c r="X60" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y60" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="Z60" s="3"/>
+      <c r="AA60" s="3"/>
+      <c r="AB60" s="3"/>
+      <c r="AC60" s="3"/>
+      <c r="AD60" s="3"/>
+      <c r="AE60" s="3"/>
+      <c r="AF60" s="3"/>
+      <c r="AG60" s="3"/>
+      <c r="AH60" s="3"/>
+      <c r="AI60" s="3"/>
+      <c r="AJ60" s="3"/>
+      <c r="AK60" s="3"/>
+      <c r="AL60" s="3"/>
+    </row>
+    <row r="61" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
+      <c r="K61" s="3"/>
+      <c r="L61" s="3"/>
+      <c r="M61" s="3"/>
+      <c r="N61" s="3"/>
+      <c r="O61" s="3"/>
+      <c r="P61" s="3"/>
+      <c r="Q61" s="3"/>
+      <c r="R61" s="3"/>
+      <c r="S61" s="3"/>
+      <c r="T61" s="3"/>
+      <c r="U61" s="3"/>
+      <c r="V61" s="3"/>
+      <c r="W61" s="3"/>
+      <c r="X61" s="3"/>
+      <c r="Y61" s="3"/>
+      <c r="Z61" s="3"/>
+      <c r="AA61" s="3"/>
+      <c r="AB61" s="3"/>
+      <c r="AC61" s="3"/>
+      <c r="AD61" s="3"/>
+      <c r="AE61" s="3"/>
+      <c r="AF61" s="3"/>
+      <c r="AG61" s="3"/>
+      <c r="AH61" s="3"/>
+      <c r="AI61" s="3"/>
+      <c r="AJ61" s="3"/>
+      <c r="AK61" s="3"/>
+      <c r="AL61" s="3"/>
+    </row>
+    <row r="62" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3"/>
+      <c r="L62" s="3"/>
+      <c r="M62" s="3"/>
+      <c r="N62" s="3"/>
+      <c r="O62" s="3"/>
+      <c r="P62" s="3"/>
+      <c r="Q62" s="3"/>
+      <c r="R62" s="3"/>
+      <c r="S62" s="3"/>
+      <c r="T62" s="3"/>
+      <c r="U62" s="3"/>
+      <c r="V62" s="3"/>
+      <c r="W62" s="3"/>
+      <c r="X62" s="3"/>
+      <c r="Y62" s="3"/>
+      <c r="Z62" s="3"/>
+      <c r="AA62" s="3"/>
+      <c r="AB62" s="3"/>
+      <c r="AC62" s="3"/>
+      <c r="AD62" s="3"/>
+      <c r="AE62" s="3"/>
+      <c r="AF62" s="3"/>
+      <c r="AG62" s="3"/>
+      <c r="AH62" s="3"/>
+      <c r="AI62" s="3"/>
+      <c r="AJ62" s="3"/>
+      <c r="AK62" s="3"/>
+      <c r="AL62" s="3"/>
+    </row>
+    <row r="63" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3"/>
+      <c r="K63" s="3"/>
+      <c r="L63" s="3"/>
+      <c r="M63" s="3"/>
+      <c r="N63" s="3"/>
+      <c r="O63" s="3"/>
+      <c r="P63" s="3"/>
+      <c r="Q63" s="3"/>
+      <c r="R63" s="3"/>
+      <c r="S63" s="3"/>
+      <c r="T63" s="3"/>
+      <c r="U63" s="3"/>
+      <c r="V63" s="3"/>
+      <c r="W63" s="3"/>
+      <c r="X63" s="3"/>
+      <c r="Y63" s="3"/>
+      <c r="Z63" s="3"/>
+      <c r="AA63" s="3"/>
+      <c r="AB63" s="3"/>
+      <c r="AC63" s="3"/>
+      <c r="AD63" s="3"/>
+      <c r="AE63" s="3"/>
+      <c r="AF63" s="3"/>
+      <c r="AG63" s="3"/>
+      <c r="AH63" s="3"/>
+      <c r="AI63" s="3"/>
+      <c r="AJ63" s="3"/>
+      <c r="AK63" s="3"/>
+      <c r="AL63" s="3"/>
+    </row>
+    <row r="64" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
+      <c r="I64" s="3"/>
+      <c r="J64" s="3"/>
+      <c r="K64" s="3"/>
+      <c r="L64" s="3"/>
+      <c r="M64" s="3"/>
+      <c r="N64" s="3"/>
+      <c r="O64" s="3"/>
+      <c r="P64" s="3"/>
+      <c r="Q64" s="3"/>
+      <c r="R64" s="3"/>
+      <c r="S64" s="3"/>
+      <c r="T64" s="3"/>
+      <c r="U64" s="3"/>
+      <c r="V64" s="3"/>
+      <c r="W64" s="3"/>
+      <c r="X64" s="3"/>
+      <c r="Y64" s="3"/>
+      <c r="Z64" s="3"/>
+      <c r="AA64" s="3"/>
+      <c r="AB64" s="3"/>
+      <c r="AC64" s="3"/>
+      <c r="AD64" s="3"/>
+      <c r="AE64" s="3"/>
+      <c r="AF64" s="3"/>
+      <c r="AG64" s="3"/>
+      <c r="AH64" s="3"/>
+      <c r="AI64" s="3"/>
+      <c r="AJ64" s="3"/>
+      <c r="AK64" s="3"/>
+      <c r="AL64" s="3"/>
+    </row>
+    <row r="65" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A65" s="3"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="3"/>
+      <c r="J65" s="3"/>
+      <c r="K65" s="3"/>
+      <c r="L65" s="3"/>
+      <c r="M65" s="3"/>
+      <c r="N65" s="3"/>
+      <c r="O65" s="3"/>
+      <c r="P65" s="3"/>
+      <c r="Q65" s="3"/>
+      <c r="R65" s="3"/>
+      <c r="S65" s="3"/>
+      <c r="T65" s="3"/>
+      <c r="U65" s="3"/>
+      <c r="V65" s="3"/>
+      <c r="W65" s="3"/>
+      <c r="X65" s="3"/>
+      <c r="Y65" s="3"/>
+      <c r="Z65" s="3"/>
+      <c r="AA65" s="3"/>
+      <c r="AB65" s="3"/>
+      <c r="AC65" s="3"/>
+      <c r="AD65" s="3"/>
+      <c r="AE65" s="3"/>
+      <c r="AF65" s="3"/>
+      <c r="AG65" s="3"/>
+      <c r="AH65" s="3"/>
+      <c r="AI65" s="3"/>
+      <c r="AJ65" s="3"/>
+      <c r="AK65" s="3"/>
+      <c r="AL65" s="3"/>
+    </row>
+    <row r="66" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="3"/>
+      <c r="K66" s="3"/>
+      <c r="L66" s="3"/>
+      <c r="M66" s="3"/>
+      <c r="N66" s="3"/>
+      <c r="O66" s="3"/>
+      <c r="P66" s="3"/>
+      <c r="Q66" s="3"/>
+      <c r="R66" s="3"/>
+      <c r="S66" s="3"/>
+      <c r="T66" s="3"/>
+      <c r="U66" s="3"/>
+      <c r="V66" s="3"/>
+      <c r="W66" s="3"/>
+      <c r="X66" s="3"/>
+      <c r="Y66" s="3"/>
+      <c r="Z66" s="3"/>
+      <c r="AA66" s="3"/>
+      <c r="AB66" s="3"/>
+      <c r="AC66" s="3"/>
+      <c r="AD66" s="3"/>
+      <c r="AE66" s="3"/>
+      <c r="AF66" s="3"/>
+      <c r="AG66" s="3"/>
+      <c r="AH66" s="3"/>
+      <c r="AI66" s="3"/>
+      <c r="AJ66" s="3"/>
+      <c r="AK66" s="3"/>
+      <c r="AL66" s="3"/>
+    </row>
+    <row r="67" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="3"/>
+      <c r="J67" s="3"/>
+      <c r="K67" s="3"/>
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+      <c r="AE67" s="3"/>
+      <c r="AF67" s="3"/>
+      <c r="AG67" s="3"/>
+      <c r="AH67" s="3"/>
+      <c r="AI67" s="3"/>
+      <c r="AJ67" s="3"/>
+      <c r="AK67" s="3"/>
+      <c r="AL67" s="3"/>
+    </row>
+    <row r="68" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A68" s="3"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3"/>
+      <c r="I68" s="3"/>
+      <c r="J68" s="3"/>
+      <c r="K68" s="3"/>
+      <c r="L68" s="3"/>
+      <c r="M68" s="3"/>
+      <c r="N68" s="3"/>
+      <c r="O68" s="3"/>
+      <c r="P68" s="3"/>
+      <c r="Q68" s="3"/>
+      <c r="R68" s="3"/>
+      <c r="S68" s="3"/>
+      <c r="T68" s="3"/>
+      <c r="U68" s="3"/>
+      <c r="V68" s="3"/>
+      <c r="W68" s="3"/>
+      <c r="X68" s="3"/>
+      <c r="Y68" s="3"/>
+      <c r="Z68" s="3"/>
+      <c r="AA68" s="3"/>
+      <c r="AB68" s="3"/>
+      <c r="AC68" s="3"/>
+      <c r="AD68" s="3"/>
+      <c r="AE68" s="3"/>
+      <c r="AF68" s="3"/>
+      <c r="AG68" s="3"/>
+      <c r="AH68" s="3"/>
+      <c r="AI68" s="3"/>
+      <c r="AJ68" s="3"/>
+      <c r="AK68" s="3"/>
+      <c r="AL68" s="3"/>
+    </row>
+    <row r="69" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="3"/>
+      <c r="J69" s="3"/>
+      <c r="K69" s="3"/>
+      <c r="L69" s="3"/>
+      <c r="M69" s="3"/>
+      <c r="N69" s="3"/>
+      <c r="O69" s="3"/>
+      <c r="P69" s="3"/>
+      <c r="Q69" s="3"/>
+      <c r="R69" s="3"/>
+      <c r="S69" s="3"/>
+      <c r="T69" s="3"/>
+      <c r="U69" s="3"/>
+      <c r="V69" s="3"/>
+      <c r="W69" s="3"/>
+      <c r="X69" s="3"/>
+      <c r="Y69" s="3"/>
+      <c r="Z69" s="3"/>
+      <c r="AA69" s="3"/>
+      <c r="AB69" s="3"/>
+      <c r="AC69" s="3"/>
+      <c r="AD69" s="3"/>
+      <c r="AE69" s="3"/>
+      <c r="AF69" s="3"/>
+      <c r="AG69" s="3"/>
+      <c r="AH69" s="3"/>
+      <c r="AI69" s="3"/>
+      <c r="AJ69" s="3"/>
+      <c r="AK69" s="3"/>
+      <c r="AL69" s="3"/>
+    </row>
+    <row r="70" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3"/>
+      <c r="K70" s="3"/>
+      <c r="L70" s="3"/>
+      <c r="M70" s="3"/>
+      <c r="N70" s="3"/>
+      <c r="O70" s="3"/>
+      <c r="P70" s="3"/>
+      <c r="Q70" s="3"/>
+      <c r="R70" s="3"/>
+      <c r="S70" s="3"/>
+      <c r="T70" s="3"/>
+      <c r="U70" s="3"/>
+      <c r="V70" s="3"/>
+      <c r="W70" s="3"/>
+      <c r="X70" s="3"/>
+      <c r="Y70" s="3"/>
+      <c r="Z70" s="3"/>
+      <c r="AA70" s="3"/>
+      <c r="AB70" s="3"/>
+      <c r="AC70" s="3"/>
+      <c r="AD70" s="3"/>
+      <c r="AE70" s="3"/>
+      <c r="AF70" s="3"/>
+      <c r="AG70" s="3"/>
+      <c r="AH70" s="3"/>
+      <c r="AI70" s="3"/>
+      <c r="AJ70" s="3"/>
+      <c r="AK70" s="3"/>
+      <c r="AL70" s="3"/>
+    </row>
+    <row r="71" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A71" s="3"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="3"/>
+      <c r="J71" s="3"/>
+      <c r="K71" s="3"/>
+      <c r="L71" s="3"/>
+      <c r="M71" s="3"/>
+      <c r="N71" s="3"/>
+      <c r="O71" s="3"/>
+      <c r="P71" s="3"/>
+      <c r="Q71" s="3"/>
+      <c r="R71" s="3"/>
+      <c r="S71" s="3"/>
+      <c r="T71" s="3"/>
+      <c r="U71" s="3"/>
+      <c r="V71" s="3"/>
+      <c r="W71" s="3"/>
+      <c r="X71" s="3"/>
+      <c r="Y71" s="3"/>
+      <c r="Z71" s="3"/>
+      <c r="AA71" s="3"/>
+      <c r="AB71" s="3"/>
+      <c r="AC71" s="3"/>
+      <c r="AD71" s="3"/>
+      <c r="AE71" s="3"/>
+      <c r="AF71" s="3"/>
+      <c r="AG71" s="3"/>
+      <c r="AH71" s="3"/>
+      <c r="AI71" s="3"/>
+      <c r="AJ71" s="3"/>
+      <c r="AK71" s="3"/>
+      <c r="AL71" s="3"/>
+    </row>
+    <row r="72" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A72" s="3"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3"/>
+      <c r="I72" s="3"/>
+      <c r="J72" s="3"/>
+      <c r="K72" s="3"/>
+      <c r="L72" s="3"/>
+      <c r="M72" s="3"/>
+      <c r="N72" s="3"/>
+      <c r="O72" s="3"/>
+      <c r="P72" s="3"/>
+      <c r="Q72" s="3"/>
+      <c r="R72" s="3"/>
+      <c r="S72" s="3"/>
+      <c r="T72" s="3"/>
+      <c r="U72" s="3"/>
+      <c r="V72" s="3"/>
+      <c r="W72" s="3"/>
+      <c r="X72" s="3"/>
+      <c r="Y72" s="3"/>
+      <c r="Z72" s="3"/>
+      <c r="AA72" s="3"/>
+      <c r="AB72" s="3"/>
+      <c r="AC72" s="3"/>
+      <c r="AD72" s="3"/>
+      <c r="AE72" s="3"/>
+      <c r="AF72" s="3"/>
+      <c r="AG72" s="3"/>
+      <c r="AH72" s="3"/>
+      <c r="AI72" s="3"/>
+      <c r="AJ72" s="3"/>
+      <c r="AK72" s="3"/>
+      <c r="AL72" s="3"/>
+    </row>
+    <row r="73" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A73" s="3"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
+      <c r="I73" s="3"/>
+      <c r="J73" s="3"/>
+      <c r="K73" s="3"/>
+      <c r="L73" s="3"/>
+      <c r="M73" s="3"/>
+      <c r="N73" s="3"/>
+      <c r="O73" s="3"/>
+      <c r="P73" s="3"/>
+      <c r="Q73" s="3"/>
+      <c r="R73" s="3"/>
+      <c r="S73" s="3"/>
+      <c r="T73" s="3"/>
+      <c r="U73" s="3"/>
+      <c r="V73" s="3"/>
+      <c r="W73" s="3"/>
+      <c r="X73" s="3"/>
+      <c r="Y73" s="3"/>
+      <c r="Z73" s="3"/>
+      <c r="AA73" s="3"/>
+      <c r="AB73" s="3"/>
+      <c r="AC73" s="3"/>
+      <c r="AD73" s="3"/>
+      <c r="AE73" s="3"/>
+      <c r="AF73" s="3"/>
+      <c r="AG73" s="3"/>
+      <c r="AH73" s="3"/>
+      <c r="AI73" s="3"/>
+      <c r="AJ73" s="3"/>
+      <c r="AK73" s="3"/>
+      <c r="AL73" s="3"/>
+    </row>
+    <row r="74" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A74" s="3"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
+      <c r="I74" s="3"/>
+      <c r="J74" s="3"/>
+      <c r="K74" s="3"/>
+      <c r="L74" s="3"/>
+      <c r="M74" s="3"/>
+      <c r="N74" s="3"/>
+      <c r="O74" s="3"/>
+      <c r="P74" s="3"/>
+      <c r="Q74" s="3"/>
+      <c r="R74" s="3"/>
+      <c r="S74" s="3"/>
+      <c r="T74" s="3"/>
+      <c r="U74" s="3"/>
+      <c r="V74" s="3"/>
+      <c r="W74" s="3"/>
+      <c r="X74" s="3"/>
+      <c r="Y74" s="3"/>
+      <c r="Z74" s="3"/>
+      <c r="AA74" s="3"/>
+      <c r="AB74" s="3"/>
+      <c r="AC74" s="3"/>
+      <c r="AD74" s="3"/>
+      <c r="AE74" s="3"/>
+      <c r="AF74" s="3"/>
+      <c r="AG74" s="3"/>
+      <c r="AH74" s="3"/>
+      <c r="AI74" s="3"/>
+      <c r="AJ74" s="3"/>
+      <c r="AK74" s="3"/>
+      <c r="AL74" s="3"/>
+    </row>
+    <row r="75" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A75" s="3"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3"/>
+      <c r="I75" s="3"/>
+      <c r="J75" s="3"/>
+      <c r="K75" s="3"/>
+      <c r="L75" s="3"/>
+      <c r="M75" s="3"/>
+      <c r="N75" s="3"/>
+      <c r="O75" s="3"/>
+      <c r="P75" s="3"/>
+      <c r="Q75" s="3"/>
+      <c r="R75" s="3"/>
+      <c r="S75" s="3"/>
+      <c r="T75" s="3"/>
+      <c r="U75" s="3"/>
+      <c r="V75" s="3"/>
+      <c r="W75" s="3"/>
+      <c r="X75" s="3"/>
+      <c r="Y75" s="3"/>
+      <c r="Z75" s="3"/>
+      <c r="AA75" s="3"/>
+      <c r="AB75" s="3"/>
+      <c r="AC75" s="3"/>
+      <c r="AD75" s="3"/>
+      <c r="AE75" s="3"/>
+      <c r="AF75" s="3"/>
+      <c r="AG75" s="3"/>
+      <c r="AH75" s="3"/>
+      <c r="AI75" s="3"/>
+      <c r="AJ75" s="3"/>
+      <c r="AK75" s="3"/>
+      <c r="AL75" s="3"/>
+    </row>
+    <row r="76" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A76" s="3"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
+      <c r="I76" s="3"/>
+      <c r="J76" s="3"/>
+      <c r="K76" s="3"/>
+      <c r="L76" s="3"/>
+      <c r="M76" s="3"/>
+      <c r="N76" s="3"/>
+      <c r="O76" s="3"/>
+      <c r="P76" s="3"/>
+      <c r="Q76" s="3"/>
+      <c r="R76" s="3"/>
+      <c r="S76" s="3"/>
+      <c r="T76" s="3"/>
+      <c r="U76" s="3"/>
+      <c r="V76" s="3"/>
+      <c r="W76" s="3"/>
+      <c r="X76" s="3"/>
+      <c r="Y76" s="3"/>
+      <c r="Z76" s="3"/>
+      <c r="AA76" s="3"/>
+      <c r="AB76" s="3"/>
+      <c r="AC76" s="3"/>
+      <c r="AD76" s="3"/>
+      <c r="AE76" s="3"/>
+      <c r="AF76" s="3"/>
+      <c r="AG76" s="3"/>
+      <c r="AH76" s="3"/>
+      <c r="AI76" s="3"/>
+      <c r="AJ76" s="3"/>
+      <c r="AK76" s="3"/>
+      <c r="AL76" s="3"/>
+    </row>
+    <row r="77" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A77" s="3"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="3"/>
+      <c r="I77" s="3"/>
+      <c r="J77" s="3"/>
+      <c r="K77" s="3"/>
+      <c r="L77" s="3"/>
+      <c r="M77" s="3"/>
+      <c r="N77" s="3"/>
+      <c r="O77" s="3"/>
+      <c r="P77" s="3"/>
+      <c r="Q77" s="3"/>
+      <c r="R77" s="3"/>
+      <c r="S77" s="3"/>
+      <c r="T77" s="3"/>
+      <c r="U77" s="3"/>
+      <c r="V77" s="3"/>
+      <c r="W77" s="3"/>
+      <c r="X77" s="3"/>
+      <c r="Y77" s="3"/>
+      <c r="Z77" s="3"/>
+      <c r="AA77" s="3"/>
+      <c r="AB77" s="3"/>
+      <c r="AC77" s="3"/>
+      <c r="AD77" s="3"/>
+      <c r="AE77" s="3"/>
+      <c r="AF77" s="3"/>
+      <c r="AG77" s="3"/>
+      <c r="AH77" s="3"/>
+      <c r="AI77" s="3"/>
+      <c r="AJ77" s="3"/>
+      <c r="AK77" s="3"/>
+      <c r="AL77" s="3"/>
+    </row>
+    <row r="78" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A78" s="3"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="3"/>
+      <c r="I78" s="3"/>
+      <c r="J78" s="3"/>
+      <c r="K78" s="3"/>
+      <c r="L78" s="3"/>
+      <c r="M78" s="3"/>
+      <c r="N78" s="3"/>
+      <c r="O78" s="3"/>
+      <c r="P78" s="3"/>
+      <c r="Q78" s="3"/>
+      <c r="R78" s="3"/>
+      <c r="S78" s="3"/>
+      <c r="T78" s="3"/>
+      <c r="U78" s="3"/>
+      <c r="V78" s="3"/>
+      <c r="W78" s="3"/>
+      <c r="X78" s="3"/>
+      <c r="Y78" s="3"/>
+      <c r="Z78" s="3"/>
+      <c r="AA78" s="3"/>
+      <c r="AB78" s="3"/>
+      <c r="AC78" s="3"/>
+      <c r="AD78" s="3"/>
+      <c r="AE78" s="3"/>
+      <c r="AF78" s="3"/>
+      <c r="AG78" s="3"/>
+      <c r="AH78" s="3"/>
+      <c r="AI78" s="3"/>
+      <c r="AJ78" s="3"/>
+      <c r="AK78" s="3"/>
+      <c r="AL78" s="3"/>
+    </row>
+    <row r="79" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A79" s="3"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3"/>
+      <c r="I79" s="3"/>
+      <c r="J79" s="3"/>
+      <c r="K79" s="3"/>
+      <c r="L79" s="3"/>
+      <c r="M79" s="3"/>
+      <c r="N79" s="3"/>
+      <c r="O79" s="3"/>
+      <c r="P79" s="3"/>
+      <c r="Q79" s="3"/>
+      <c r="R79" s="3"/>
+      <c r="S79" s="3"/>
+      <c r="T79" s="3"/>
+      <c r="U79" s="3"/>
+      <c r="V79" s="3"/>
+      <c r="W79" s="3"/>
+      <c r="X79" s="3"/>
+      <c r="Y79" s="3"/>
+      <c r="Z79" s="3"/>
+      <c r="AA79" s="3"/>
+      <c r="AB79" s="3"/>
+      <c r="AC79" s="3"/>
+      <c r="AD79" s="3"/>
+      <c r="AE79" s="3"/>
+      <c r="AF79" s="3"/>
+      <c r="AG79" s="3"/>
+      <c r="AH79" s="3"/>
+      <c r="AI79" s="3"/>
+      <c r="AJ79" s="3"/>
+      <c r="AK79" s="3"/>
+      <c r="AL79" s="3"/>
+    </row>
+    <row r="80" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A80" s="3"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3"/>
+      <c r="I80" s="3"/>
+      <c r="J80" s="3"/>
+      <c r="K80" s="3"/>
+      <c r="L80" s="3"/>
+      <c r="M80" s="3"/>
+      <c r="N80" s="3"/>
+      <c r="O80" s="3"/>
+      <c r="P80" s="3"/>
+      <c r="Q80" s="3"/>
+      <c r="R80" s="3"/>
+      <c r="S80" s="3"/>
+      <c r="T80" s="3"/>
+      <c r="U80" s="3"/>
+      <c r="V80" s="3"/>
+      <c r="W80" s="3"/>
+      <c r="X80" s="3"/>
+      <c r="Y80" s="3"/>
+      <c r="Z80" s="3"/>
+      <c r="AA80" s="3"/>
+      <c r="AB80" s="3"/>
+      <c r="AC80" s="3"/>
+      <c r="AD80" s="3"/>
+      <c r="AE80" s="3"/>
+      <c r="AF80" s="3"/>
+      <c r="AG80" s="3"/>
+      <c r="AH80" s="3"/>
+      <c r="AI80" s="3"/>
+      <c r="AJ80" s="3"/>
+      <c r="AK80" s="3"/>
+      <c r="AL80" s="3"/>
+    </row>
+    <row r="81" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A81" s="3"/>
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="3"/>
+      <c r="I81" s="3"/>
+      <c r="J81" s="3"/>
+      <c r="K81" s="3"/>
+      <c r="L81" s="3"/>
+      <c r="M81" s="3"/>
+      <c r="N81" s="3"/>
+      <c r="O81" s="3"/>
+      <c r="P81" s="3"/>
+      <c r="Q81" s="3"/>
+      <c r="R81" s="3"/>
+      <c r="S81" s="3"/>
+      <c r="T81" s="3"/>
+      <c r="U81" s="3"/>
+      <c r="V81" s="3"/>
+      <c r="W81" s="3"/>
+      <c r="X81" s="3"/>
+      <c r="Y81" s="3"/>
+      <c r="Z81" s="3"/>
+      <c r="AA81" s="3"/>
+      <c r="AB81" s="3"/>
+      <c r="AC81" s="3"/>
+      <c r="AD81" s="3"/>
+      <c r="AE81" s="3"/>
+      <c r="AF81" s="3"/>
+      <c r="AG81" s="3"/>
+      <c r="AH81" s="3"/>
+      <c r="AI81" s="3"/>
+      <c r="AJ81" s="3"/>
+      <c r="AK81" s="3"/>
+      <c r="AL81" s="3"/>
+    </row>
+    <row r="82" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A82" s="3"/>
+      <c r="B82" s="3"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="3"/>
+      <c r="I82" s="3"/>
+      <c r="J82" s="3"/>
+      <c r="K82" s="3"/>
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+      <c r="AD82" s="3"/>
+      <c r="AE82" s="3"/>
+      <c r="AF82" s="3"/>
+      <c r="AG82" s="3"/>
+      <c r="AH82" s="3"/>
+      <c r="AI82" s="3"/>
+      <c r="AJ82" s="3"/>
+      <c r="AK82" s="3"/>
+      <c r="AL82" s="3"/>
+    </row>
+    <row r="83" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A83" s="3"/>
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="3"/>
+      <c r="I83" s="3"/>
+      <c r="J83" s="3"/>
+      <c r="K83" s="3"/>
+      <c r="L83" s="3"/>
+      <c r="M83" s="3"/>
+      <c r="N83" s="3"/>
+      <c r="O83" s="3"/>
+      <c r="P83" s="3"/>
+      <c r="Q83" s="3"/>
+      <c r="R83" s="3"/>
+      <c r="S83" s="3"/>
+      <c r="T83" s="3"/>
+      <c r="U83" s="3"/>
+      <c r="V83" s="3"/>
+      <c r="W83" s="3"/>
+      <c r="X83" s="3"/>
+      <c r="Y83" s="3"/>
+      <c r="Z83" s="3"/>
+      <c r="AA83" s="3"/>
+      <c r="AB83" s="3"/>
+      <c r="AC83" s="3"/>
+      <c r="AD83" s="3"/>
+      <c r="AE83" s="3"/>
+      <c r="AF83" s="3"/>
+      <c r="AG83" s="3"/>
+      <c r="AH83" s="3"/>
+      <c r="AI83" s="3"/>
+      <c r="AJ83" s="3"/>
+      <c r="AK83" s="3"/>
+      <c r="AL83" s="3"/>
+    </row>
+    <row r="84" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A84" s="3"/>
+      <c r="B84" s="3"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="3"/>
+      <c r="I84" s="3"/>
+      <c r="J84" s="3"/>
+      <c r="K84" s="3"/>
+      <c r="L84" s="3"/>
+      <c r="M84" s="3"/>
+      <c r="N84" s="3"/>
+      <c r="O84" s="3"/>
+      <c r="P84" s="3"/>
+      <c r="Q84" s="3"/>
+      <c r="R84" s="3"/>
+      <c r="S84" s="3"/>
+      <c r="T84" s="3"/>
+      <c r="U84" s="3"/>
+      <c r="V84" s="3"/>
+      <c r="W84" s="3"/>
+      <c r="X84" s="3"/>
+      <c r="Y84" s="3"/>
+      <c r="Z84" s="3"/>
+      <c r="AA84" s="3"/>
+      <c r="AB84" s="3"/>
+      <c r="AC84" s="3"/>
+      <c r="AD84" s="3"/>
+      <c r="AE84" s="3"/>
+      <c r="AF84" s="3"/>
+      <c r="AG84" s="3"/>
+      <c r="AH84" s="3"/>
+      <c r="AI84" s="3"/>
+      <c r="AJ84" s="3"/>
+      <c r="AK84" s="3"/>
+      <c r="AL84" s="3"/>
+    </row>
+    <row r="85" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A85" s="3"/>
+      <c r="B85" s="3"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="3"/>
+      <c r="H85" s="3"/>
+      <c r="I85" s="3"/>
+      <c r="J85" s="3"/>
+      <c r="K85" s="3"/>
+      <c r="L85" s="3"/>
+      <c r="M85" s="3"/>
+      <c r="N85" s="3"/>
+      <c r="O85" s="3"/>
+      <c r="P85" s="3"/>
+      <c r="Q85" s="3"/>
+      <c r="R85" s="3"/>
+      <c r="S85" s="3"/>
+      <c r="T85" s="3"/>
+      <c r="U85" s="3"/>
+      <c r="V85" s="3"/>
+      <c r="W85" s="3"/>
+      <c r="X85" s="3"/>
+      <c r="Y85" s="3"/>
+      <c r="Z85" s="3"/>
+      <c r="AA85" s="3"/>
+      <c r="AB85" s="3"/>
+      <c r="AC85" s="3"/>
+      <c r="AD85" s="3"/>
+      <c r="AE85" s="3"/>
+      <c r="AF85" s="3"/>
+      <c r="AG85" s="3"/>
+      <c r="AH85" s="3"/>
+      <c r="AI85" s="3"/>
+      <c r="AJ85" s="3"/>
+      <c r="AK85" s="3"/>
+      <c r="AL85" s="3"/>
+    </row>
+    <row r="86" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A86" s="3"/>
+      <c r="B86" s="3"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="3"/>
+      <c r="H86" s="3"/>
+      <c r="I86" s="3"/>
+      <c r="J86" s="3"/>
+      <c r="K86" s="3"/>
+      <c r="L86" s="3"/>
+      <c r="M86" s="3"/>
+      <c r="N86" s="3"/>
+      <c r="O86" s="3"/>
+      <c r="P86" s="3"/>
+      <c r="Q86" s="3"/>
+      <c r="R86" s="3"/>
+      <c r="S86" s="3"/>
+      <c r="T86" s="3"/>
+      <c r="U86" s="3"/>
+      <c r="V86" s="3"/>
+      <c r="W86" s="3"/>
+      <c r="X86" s="3"/>
+      <c r="Y86" s="3"/>
+      <c r="Z86" s="3"/>
+      <c r="AA86" s="3"/>
+      <c r="AB86" s="3"/>
+      <c r="AC86" s="3"/>
+      <c r="AD86" s="3"/>
+      <c r="AE86" s="3"/>
+      <c r="AF86" s="3"/>
+      <c r="AG86" s="3"/>
+      <c r="AH86" s="3"/>
+      <c r="AI86" s="3"/>
+      <c r="AJ86" s="3"/>
+      <c r="AK86" s="3"/>
+      <c r="AL86" s="3"/>
+    </row>
+    <row r="87" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A87" s="3"/>
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3"/>
+      <c r="F87" s="3"/>
+      <c r="G87" s="3"/>
+      <c r="H87" s="3"/>
+      <c r="I87" s="3"/>
+      <c r="J87" s="3"/>
+      <c r="K87" s="3"/>
+      <c r="L87" s="3"/>
+      <c r="M87" s="3"/>
+      <c r="N87" s="3"/>
+      <c r="O87" s="3"/>
+      <c r="P87" s="3"/>
+      <c r="Q87" s="3"/>
+      <c r="R87" s="3"/>
+      <c r="S87" s="3"/>
+      <c r="T87" s="3"/>
+      <c r="U87" s="3"/>
+      <c r="V87" s="3"/>
+      <c r="W87" s="3"/>
+      <c r="X87" s="3"/>
+      <c r="Y87" s="3"/>
+      <c r="Z87" s="3"/>
+      <c r="AA87" s="3"/>
+      <c r="AB87" s="3"/>
+      <c r="AC87" s="3"/>
+      <c r="AD87" s="3"/>
+      <c r="AE87" s="3"/>
+      <c r="AF87" s="3"/>
+      <c r="AG87" s="3"/>
+      <c r="AH87" s="3"/>
+      <c r="AI87" s="3"/>
+      <c r="AJ87" s="3"/>
+      <c r="AK87" s="3"/>
+      <c r="AL87" s="3"/>
+    </row>
+    <row r="88" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A88" s="3"/>
+      <c r="B88" s="3"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="3"/>
+      <c r="G88" s="3"/>
+      <c r="H88" s="3"/>
+      <c r="I88" s="3"/>
+      <c r="J88" s="3"/>
+      <c r="K88" s="3"/>
+      <c r="L88" s="3"/>
+      <c r="M88" s="3"/>
+      <c r="N88" s="3"/>
+      <c r="O88" s="3"/>
+      <c r="P88" s="3"/>
+      <c r="Q88" s="3"/>
+      <c r="R88" s="3"/>
+      <c r="S88" s="3"/>
+      <c r="T88" s="3"/>
+      <c r="U88" s="3"/>
+      <c r="V88" s="3"/>
+      <c r="W88" s="3"/>
+      <c r="X88" s="3"/>
+      <c r="Y88" s="3"/>
+      <c r="Z88" s="3"/>
+      <c r="AA88" s="3"/>
+      <c r="AB88" s="3"/>
+      <c r="AC88" s="3"/>
+      <c r="AD88" s="3"/>
+      <c r="AE88" s="3"/>
+      <c r="AF88" s="3"/>
+      <c r="AG88" s="3"/>
+      <c r="AH88" s="3"/>
+      <c r="AI88" s="3"/>
+      <c r="AJ88" s="3"/>
+      <c r="AK88" s="3"/>
+      <c r="AL88" s="3"/>
+    </row>
+    <row r="89" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A89" s="3"/>
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3"/>
+      <c r="F89" s="3"/>
+      <c r="G89" s="3"/>
+      <c r="H89" s="3"/>
+      <c r="I89" s="3"/>
+      <c r="J89" s="3"/>
+      <c r="K89" s="3"/>
+      <c r="L89" s="3"/>
+      <c r="M89" s="3"/>
+      <c r="N89" s="3"/>
+      <c r="O89" s="3"/>
+      <c r="P89" s="3"/>
+      <c r="Q89" s="3"/>
+      <c r="R89" s="3"/>
+      <c r="S89" s="3"/>
+      <c r="T89" s="3"/>
+      <c r="U89" s="3"/>
+      <c r="V89" s="3"/>
+      <c r="W89" s="3"/>
+      <c r="X89" s="3"/>
+      <c r="Y89" s="3"/>
+      <c r="Z89" s="3"/>
+      <c r="AA89" s="3"/>
+      <c r="AB89" s="3"/>
+      <c r="AC89" s="3"/>
+      <c r="AD89" s="3"/>
+      <c r="AE89" s="3"/>
+      <c r="AF89" s="3"/>
+      <c r="AG89" s="3"/>
+      <c r="AH89" s="3"/>
+      <c r="AI89" s="3"/>
+      <c r="AJ89" s="3"/>
+      <c r="AK89" s="3"/>
+      <c r="AL89" s="3"/>
+    </row>
+    <row r="90" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A90" s="3"/>
+      <c r="B90" s="3"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="3"/>
+      <c r="G90" s="3"/>
+      <c r="H90" s="3"/>
+      <c r="I90" s="3"/>
+      <c r="J90" s="3"/>
+      <c r="K90" s="3"/>
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+      <c r="AD90" s="3"/>
+      <c r="AE90" s="3"/>
+      <c r="AF90" s="3"/>
+      <c r="AG90" s="3"/>
+      <c r="AH90" s="3"/>
+      <c r="AI90" s="3"/>
+      <c r="AJ90" s="3"/>
+      <c r="AK90" s="3"/>
+      <c r="AL90" s="3"/>
+    </row>
+    <row r="91" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A91" s="3"/>
+      <c r="B91" s="3"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3"/>
+      <c r="F91" s="3"/>
+      <c r="G91" s="3"/>
+      <c r="H91" s="3"/>
+      <c r="I91" s="3"/>
+      <c r="J91" s="3"/>
+      <c r="K91" s="3"/>
+      <c r="L91" s="3"/>
+      <c r="M91" s="3"/>
+      <c r="N91" s="3"/>
+      <c r="O91" s="3"/>
+      <c r="P91" s="3"/>
+      <c r="Q91" s="3"/>
+      <c r="R91" s="3"/>
+      <c r="S91" s="3"/>
+      <c r="T91" s="3"/>
+      <c r="U91" s="3"/>
+      <c r="V91" s="3"/>
+      <c r="W91" s="3"/>
+      <c r="X91" s="3"/>
+      <c r="Y91" s="3"/>
+      <c r="Z91" s="3"/>
+      <c r="AA91" s="3"/>
+      <c r="AB91" s="3"/>
+      <c r="AC91" s="3"/>
+      <c r="AD91" s="3"/>
+      <c r="AE91" s="3"/>
+      <c r="AF91" s="3"/>
+      <c r="AG91" s="3"/>
+      <c r="AH91" s="3"/>
+      <c r="AI91" s="3"/>
+      <c r="AJ91" s="3"/>
+      <c r="AK91" s="3"/>
+      <c r="AL91" s="3"/>
+    </row>
+    <row r="92" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A92" s="3"/>
+      <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3"/>
+      <c r="F92" s="3"/>
+      <c r="G92" s="3"/>
+      <c r="H92" s="3"/>
+      <c r="I92" s="3"/>
+      <c r="J92" s="3"/>
+      <c r="K92" s="3"/>
+      <c r="L92" s="3"/>
+      <c r="M92" s="3"/>
+      <c r="N92" s="3"/>
+      <c r="O92" s="3"/>
+      <c r="P92" s="3"/>
+      <c r="Q92" s="3"/>
+      <c r="R92" s="3"/>
+      <c r="S92" s="3"/>
+      <c r="T92" s="3"/>
+      <c r="U92" s="3"/>
+      <c r="V92" s="3"/>
+      <c r="W92" s="3"/>
+      <c r="X92" s="3"/>
+      <c r="Y92" s="3"/>
+      <c r="Z92" s="3"/>
+      <c r="AA92" s="3"/>
+      <c r="AB92" s="3"/>
+      <c r="AC92" s="3"/>
+      <c r="AD92" s="3"/>
+      <c r="AE92" s="3"/>
+      <c r="AF92" s="3"/>
+      <c r="AG92" s="3"/>
+      <c r="AH92" s="3"/>
+      <c r="AI92" s="3"/>
+      <c r="AJ92" s="3"/>
+      <c r="AK92" s="3"/>
+      <c r="AL92" s="3"/>
+    </row>
+    <row r="93" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A93" s="3"/>
+      <c r="B93" s="3"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3"/>
+      <c r="F93" s="3"/>
+      <c r="G93" s="3"/>
+      <c r="H93" s="3"/>
+      <c r="I93" s="3"/>
+      <c r="J93" s="3"/>
+      <c r="K93" s="3"/>
+      <c r="L93" s="3"/>
+      <c r="M93" s="3"/>
+      <c r="N93" s="3"/>
+      <c r="O93" s="3"/>
+      <c r="P93" s="3"/>
+      <c r="Q93" s="3"/>
+      <c r="R93" s="3"/>
+      <c r="S93" s="3"/>
+      <c r="T93" s="3"/>
+      <c r="U93" s="3"/>
+      <c r="V93" s="3"/>
+      <c r="W93" s="3"/>
+      <c r="X93" s="3"/>
+      <c r="Y93" s="3"/>
+      <c r="Z93" s="3"/>
+      <c r="AA93" s="3"/>
+      <c r="AB93" s="3"/>
+      <c r="AC93" s="3"/>
+      <c r="AD93" s="3"/>
+      <c r="AE93" s="3"/>
+      <c r="AF93" s="3"/>
+      <c r="AG93" s="3"/>
+      <c r="AH93" s="3"/>
+      <c r="AI93" s="3"/>
+      <c r="AJ93" s="3"/>
+      <c r="AK93" s="3"/>
+      <c r="AL93" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D3:G3"/>
+  <mergeCells count="35">
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="X18:X19"/>
+    <mergeCell ref="X7:X14"/>
+    <mergeCell ref="W7:W19"/>
+    <mergeCell ref="W2:W6"/>
+    <mergeCell ref="O21:O28"/>
+    <mergeCell ref="O29:O34"/>
+    <mergeCell ref="P21:P25"/>
+    <mergeCell ref="P30:P31"/>
+    <mergeCell ref="D48:D51"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="C42:C51"/>
+    <mergeCell ref="C35:C41"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="I26:I31"/>
+    <mergeCell ref="O2:O10"/>
+    <mergeCell ref="O11:O16"/>
+    <mergeCell ref="O18:O20"/>
+    <mergeCell ref="C30:C34"/>
+    <mergeCell ref="D43:D47"/>
+    <mergeCell ref="I21:I25"/>
+    <mergeCell ref="I2:I10"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="C2:C14"/>
+    <mergeCell ref="C15:C20"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D3:D7"/>
   </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3774251-9EDA-4815-A3FD-716DC8D7D2A2}">
+  <dimension ref="B2:F20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C9" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B10" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B12" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B14" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B16" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B18" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B20" t="s">
+        <v>134</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3DGame_3_NamelessGame/NamelessGame_仕様書.xlsx
+++ b/3DGame_3_NamelessGame/NamelessGame_仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347059\Documents\GitHub\制作作品\ProductionWork\3DGame_3_NamelessGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFD39305-6661-4B20-93EB-A823CF2E0583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{924E2053-3BF2-4EAC-8D08-522BEA8B1481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1485" yWindow="210" windowWidth="26490" windowHeight="13650" firstSheet="3" activeTab="6" xr2:uid="{2DDD9D27-F88C-4C7A-90BC-D78AE39EE51E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="6" xr2:uid="{2DDD9D27-F88C-4C7A-90BC-D78AE39EE51E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1721,10 +1721,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5796,7 +5796,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F1336CB-A938-459E-AE15-F52FB00617F4}">
   <dimension ref="A1:AL93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
@@ -5867,7 +5867,7 @@
       <c r="B2" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>131</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -5881,7 +5881,7 @@
       <c r="H2" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="5" t="s">
         <v>131</v>
       </c>
       <c r="J2" s="3" t="s">
@@ -5895,7 +5895,7 @@
       <c r="N2" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="5" t="s">
         <v>131</v>
       </c>
       <c r="P2" s="3" t="s">
@@ -5915,10 +5915,10 @@
       <c r="V2" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="W2" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="X2" s="5" t="s">
         <v>191</v>
       </c>
       <c r="Y2" s="3" t="s">
@@ -5945,8 +5945,8 @@
     <row r="3" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5" t="s">
         <v>38</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -5957,7 +5957,7 @@
         <v>31</v>
       </c>
       <c r="H3" s="3"/>
-      <c r="I3" s="4"/>
+      <c r="I3" s="5"/>
       <c r="J3" s="3" t="s">
         <v>8</v>
       </c>
@@ -5965,7 +5965,7 @@
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
-      <c r="O3" s="4"/>
+      <c r="O3" s="5"/>
       <c r="P3" s="3" t="s">
         <v>8</v>
       </c>
@@ -5979,8 +5979,8 @@
         <v>31</v>
       </c>
       <c r="V3" s="3"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
       <c r="Y3" s="3" t="s">
         <v>193</v>
       </c>
@@ -6001,8 +6001,8 @@
     <row r="4" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
       <c r="E4" s="3" t="s">
         <v>61</v>
       </c>
@@ -6011,7 +6011,7 @@
         <v>31</v>
       </c>
       <c r="H4" s="3"/>
-      <c r="I4" s="4"/>
+      <c r="I4" s="5"/>
       <c r="J4" s="3" t="s">
         <v>9</v>
       </c>
@@ -6019,7 +6019,7 @@
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
-      <c r="O4" s="4"/>
+      <c r="O4" s="5"/>
       <c r="P4" s="3" t="s">
         <v>57</v>
       </c>
@@ -6033,7 +6033,7 @@
         <v>31</v>
       </c>
       <c r="V4" s="3"/>
-      <c r="W4" s="4"/>
+      <c r="W4" s="5"/>
       <c r="X4" s="3" t="s">
         <v>195</v>
       </c>
@@ -6055,8 +6055,8 @@
     <row r="5" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
       <c r="E5" s="3" t="s">
         <v>25</v>
       </c>
@@ -6065,7 +6065,7 @@
         <v>31</v>
       </c>
       <c r="H5" s="3"/>
-      <c r="I5" s="4"/>
+      <c r="I5" s="5"/>
       <c r="J5" s="3" t="s">
         <v>107</v>
       </c>
@@ -6073,7 +6073,7 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
-      <c r="O5" s="4"/>
+      <c r="O5" s="5"/>
       <c r="P5" s="3" t="s">
         <v>61</v>
       </c>
@@ -6087,7 +6087,7 @@
         <v>31</v>
       </c>
       <c r="V5" s="3"/>
-      <c r="W5" s="4"/>
+      <c r="W5" s="5"/>
       <c r="X5" s="3" t="s">
         <v>196</v>
       </c>
@@ -6109,8 +6109,8 @@
     <row r="6" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
       <c r="E6" s="3" t="s">
         <v>26</v>
       </c>
@@ -6119,7 +6119,7 @@
         <v>31</v>
       </c>
       <c r="H6" s="3"/>
-      <c r="I6" s="4"/>
+      <c r="I6" s="5"/>
       <c r="J6" s="3" t="s">
         <v>160</v>
       </c>
@@ -6127,7 +6127,7 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
-      <c r="O6" s="4"/>
+      <c r="O6" s="5"/>
       <c r="P6" s="3" t="s">
         <v>25</v>
       </c>
@@ -6141,7 +6141,7 @@
         <v>31</v>
       </c>
       <c r="V6" s="3"/>
-      <c r="W6" s="4"/>
+      <c r="W6" s="5"/>
       <c r="X6" s="3" t="s">
         <v>197</v>
       </c>
@@ -6165,8 +6165,8 @@
     <row r="7" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
       <c r="E7" s="3" t="s">
         <v>27</v>
       </c>
@@ -6175,7 +6175,7 @@
         <v>31</v>
       </c>
       <c r="H7" s="3"/>
-      <c r="I7" s="4"/>
+      <c r="I7" s="5"/>
       <c r="J7" s="3" t="s">
         <v>161</v>
       </c>
@@ -6183,7 +6183,7 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
-      <c r="O7" s="4"/>
+      <c r="O7" s="5"/>
       <c r="P7" s="3" t="s">
         <v>26</v>
       </c>
@@ -6197,10 +6197,10 @@
         <v>31</v>
       </c>
       <c r="V7" s="3"/>
-      <c r="W7" s="4" t="s">
+      <c r="W7" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="X7" s="4" t="s">
+      <c r="X7" s="5" t="s">
         <v>191</v>
       </c>
       <c r="Y7" s="3" t="s">
@@ -6223,8 +6223,8 @@
     <row r="8" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4" t="s">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5" t="s">
         <v>40</v>
       </c>
       <c r="E8" s="3" t="s">
@@ -6235,7 +6235,7 @@
         <v>31</v>
       </c>
       <c r="H8" s="3"/>
-      <c r="I8" s="4"/>
+      <c r="I8" s="5"/>
       <c r="J8" s="3" t="s">
         <v>12</v>
       </c>
@@ -6243,7 +6243,7 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
-      <c r="O8" s="4"/>
+      <c r="O8" s="5"/>
       <c r="P8" s="3" t="s">
         <v>27</v>
       </c>
@@ -6257,8 +6257,8 @@
         <v>31</v>
       </c>
       <c r="V8" s="3"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
       <c r="Y8" s="3" t="s">
         <v>187</v>
       </c>
@@ -6279,8 +6279,8 @@
     <row r="9" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
       <c r="E9" s="3" t="s">
         <v>14</v>
       </c>
@@ -6289,7 +6289,7 @@
         <v>31</v>
       </c>
       <c r="H9" s="3"/>
-      <c r="I9" s="4"/>
+      <c r="I9" s="5"/>
       <c r="J9" s="3" t="s">
         <v>16</v>
       </c>
@@ -6297,7 +6297,7 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
-      <c r="O9" s="4"/>
+      <c r="O9" s="5"/>
       <c r="P9" s="3" t="s">
         <v>12</v>
       </c>
@@ -6307,8 +6307,8 @@
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
       <c r="Y9" s="3" t="s">
         <v>199</v>
       </c>
@@ -6329,8 +6329,8 @@
     <row r="10" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
       <c r="E10" s="3" t="s">
         <v>133</v>
       </c>
@@ -6339,7 +6339,7 @@
         <v>31</v>
       </c>
       <c r="H10" s="3"/>
-      <c r="I10" s="4"/>
+      <c r="I10" s="5"/>
       <c r="J10" s="3" t="s">
         <v>19</v>
       </c>
@@ -6347,7 +6347,7 @@
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
-      <c r="O10" s="4"/>
+      <c r="O10" s="5"/>
       <c r="P10" s="3" t="s">
         <v>19</v>
       </c>
@@ -6357,8 +6357,8 @@
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="4"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
       <c r="Y10" s="3" t="s">
         <v>186</v>
       </c>
@@ -6379,8 +6379,8 @@
     <row r="11" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
       <c r="E11" s="3" t="s">
         <v>152</v>
       </c>
@@ -6389,7 +6389,7 @@
         <v>31</v>
       </c>
       <c r="H11" s="3"/>
-      <c r="I11" s="4" t="s">
+      <c r="I11" s="5" t="s">
         <v>134</v>
       </c>
       <c r="J11" s="3" t="s">
@@ -6399,7 +6399,7 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-      <c r="O11" s="4" t="s">
+      <c r="O11" s="5" t="s">
         <v>134</v>
       </c>
       <c r="P11" s="3" t="s">
@@ -6411,8 +6411,8 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-      <c r="W11" s="4"/>
-      <c r="X11" s="4"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
       <c r="Y11" s="3" t="s">
         <v>200</v>
       </c>
@@ -6433,7 +6433,7 @@
     <row r="12" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
-      <c r="C12" s="4"/>
+      <c r="C12" s="5"/>
       <c r="D12" s="3" t="s">
         <v>12</v>
       </c>
@@ -6441,7 +6441,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="4"/>
+      <c r="I12" s="5"/>
       <c r="J12" s="3" t="s">
         <v>160</v>
       </c>
@@ -6449,7 +6449,7 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
-      <c r="O12" s="4"/>
+      <c r="O12" s="5"/>
       <c r="P12" s="3" t="s">
         <v>90</v>
       </c>
@@ -6461,8 +6461,8 @@
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
-      <c r="W12" s="4"/>
-      <c r="X12" s="4"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
       <c r="Y12" s="3" t="s">
         <v>201</v>
       </c>
@@ -6483,7 +6483,7 @@
     <row r="13" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="4"/>
+      <c r="C13" s="5"/>
       <c r="D13" s="3" t="s">
         <v>32</v>
       </c>
@@ -6491,7 +6491,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="4"/>
+      <c r="I13" s="5"/>
       <c r="J13" s="3" t="s">
         <v>161</v>
       </c>
@@ -6499,7 +6499,7 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
-      <c r="O13" s="4"/>
+      <c r="O13" s="5"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="3" t="s">
         <v>132</v>
@@ -6509,8 +6509,8 @@
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
-      <c r="W13" s="4"/>
-      <c r="X13" s="4"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
       <c r="Y13" s="3" t="s">
         <v>202</v>
       </c>
@@ -6531,7 +6531,7 @@
     <row r="14" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
-      <c r="C14" s="4"/>
+      <c r="C14" s="5"/>
       <c r="D14" s="3" t="s">
         <v>19</v>
       </c>
@@ -6539,7 +6539,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="4" t="s">
+      <c r="I14" s="5" t="s">
         <v>162</v>
       </c>
       <c r="J14" s="3" t="s">
@@ -6549,7 +6549,7 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
-      <c r="O14" s="4"/>
+      <c r="O14" s="5"/>
       <c r="P14" s="3"/>
       <c r="Q14" s="3" t="s">
         <v>171</v>
@@ -6559,8 +6559,8 @@
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="4"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
       <c r="Y14" s="3" t="s">
         <v>203</v>
       </c>
@@ -6581,7 +6581,7 @@
     <row r="15" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="5" t="s">
         <v>134</v>
       </c>
       <c r="D15" s="3" t="s">
@@ -6591,8 +6591,8 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4" t="s">
+      <c r="I15" s="5"/>
+      <c r="J15" s="5" t="s">
         <v>147</v>
       </c>
       <c r="K15" s="3" t="s">
@@ -6601,7 +6601,7 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
-      <c r="O15" s="4"/>
+      <c r="O15" s="5"/>
       <c r="P15" s="3" t="s">
         <v>57</v>
       </c>
@@ -6611,7 +6611,7 @@
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
-      <c r="W15" s="4"/>
+      <c r="W15" s="5"/>
       <c r="X15" s="3" t="s">
         <v>194</v>
       </c>
@@ -6633,8 +6633,8 @@
     <row r="16" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4" t="s">
+      <c r="C16" s="5"/>
+      <c r="D16" s="5" t="s">
         <v>90</v>
       </c>
       <c r="E16" s="3" t="s">
@@ -6643,15 +6643,15 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
       <c r="K16" s="3" t="s">
         <v>164</v>
       </c>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-      <c r="O16" s="4"/>
+      <c r="O16" s="5"/>
       <c r="P16" s="3" t="s">
         <v>61</v>
       </c>
@@ -6661,7 +6661,7 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-      <c r="W16" s="4"/>
+      <c r="W16" s="5"/>
       <c r="X16" s="3" t="s">
         <v>195</v>
       </c>
@@ -6683,15 +6683,15 @@
     <row r="17" spans="1:38" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
       <c r="E17" s="3" t="s">
         <v>26</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="4" t="s">
+      <c r="I17" s="5" t="s">
         <v>165</v>
       </c>
       <c r="J17" s="3" t="s">
@@ -6704,7 +6704,7 @@
       <c r="O17" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="P17" s="5" t="s">
+      <c r="P17" s="4" t="s">
         <v>181</v>
       </c>
       <c r="Q17" s="3"/>
@@ -6713,7 +6713,7 @@
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
-      <c r="W17" s="4"/>
+      <c r="W17" s="5"/>
       <c r="X17" s="3" t="s">
         <v>196</v>
       </c>
@@ -6735,23 +6735,23 @@
     <row r="18" spans="1:38" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
       <c r="E18" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="5" t="s">
+      <c r="I18" s="5"/>
+      <c r="J18" s="4" t="s">
         <v>167</v>
       </c>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
-      <c r="O18" s="4" t="s">
+      <c r="O18" s="5" t="s">
         <v>172</v>
       </c>
       <c r="P18" s="3" t="s">
@@ -6763,8 +6763,8 @@
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
-      <c r="W18" s="4"/>
-      <c r="X18" s="4" t="s">
+      <c r="W18" s="5"/>
+      <c r="X18" s="5" t="s">
         <v>197</v>
       </c>
       <c r="Y18" s="3" t="s">
@@ -6787,8 +6787,8 @@
     <row r="19" spans="1:38" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4" t="s">
+      <c r="C19" s="5"/>
+      <c r="D19" s="5" t="s">
         <v>136</v>
       </c>
       <c r="E19" s="3" t="s">
@@ -6797,16 +6797,16 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="5" t="s">
+      <c r="I19" s="5"/>
+      <c r="J19" s="4" t="s">
         <v>169</v>
       </c>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="5" t="s">
+      <c r="O19" s="5"/>
+      <c r="P19" s="4" t="s">
         <v>174</v>
       </c>
       <c r="Q19" s="3"/>
@@ -6815,8 +6815,8 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-      <c r="W19" s="4"/>
-      <c r="X19" s="4"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
       <c r="Y19" s="3" t="s">
         <v>204</v>
       </c>
@@ -6837,8 +6837,8 @@
     <row r="20" spans="1:38" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
       <c r="E20" s="3" t="s">
         <v>61</v>
       </c>
@@ -6848,15 +6848,15 @@
       <c r="I20" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J20" s="5" t="s">
+      <c r="J20" s="4" t="s">
         <v>168</v>
       </c>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="5" t="s">
+      <c r="O20" s="5"/>
+      <c r="P20" s="4" t="s">
         <v>175</v>
       </c>
       <c r="Q20" s="3"/>
@@ -6891,7 +6891,7 @@
     <row r="21" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="5" t="s">
         <v>137</v>
       </c>
       <c r="D21" s="3" t="s">
@@ -6903,10 +6903,10 @@
         <v>31</v>
       </c>
       <c r="H21" s="3"/>
-      <c r="I21" s="4" t="s">
+      <c r="I21" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="J21" s="5" t="s">
+      <c r="J21" s="4" t="s">
         <v>38</v>
       </c>
       <c r="K21" s="3" t="s">
@@ -6915,7 +6915,7 @@
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
-      <c r="O21" s="4" t="s">
+      <c r="O21" s="5" t="s">
         <v>176</v>
       </c>
       <c r="P21" s="6" t="s">
@@ -6951,7 +6951,7 @@
     <row r="22" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
-      <c r="C22" s="4"/>
+      <c r="C22" s="5"/>
       <c r="D22" s="3" t="s">
         <v>138</v>
       </c>
@@ -6961,7 +6961,7 @@
         <v>31</v>
       </c>
       <c r="H22" s="3"/>
-      <c r="I22" s="4"/>
+      <c r="I22" s="5"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3" t="s">
         <v>161</v>
@@ -6969,7 +6969,7 @@
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
-      <c r="O22" s="4"/>
+      <c r="O22" s="5"/>
       <c r="P22" s="6"/>
       <c r="Q22" s="3" t="s">
         <v>61</v>
@@ -7001,7 +7001,7 @@
     <row r="23" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
-      <c r="C23" s="4"/>
+      <c r="C23" s="5"/>
       <c r="D23" s="3" t="s">
         <v>42</v>
       </c>
@@ -7011,15 +7011,15 @@
         <v>140</v>
       </c>
       <c r="H23" s="3"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="5" t="s">
+      <c r="I23" s="5"/>
+      <c r="J23" s="4" t="s">
         <v>12</v>
       </c>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
-      <c r="O23" s="4"/>
+      <c r="O23" s="5"/>
       <c r="P23" s="6"/>
       <c r="Q23" s="3" t="s">
         <v>56</v>
@@ -7052,7 +7052,7 @@
     <row r="24" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
-      <c r="C24" s="4"/>
+      <c r="C24" s="5"/>
       <c r="D24" s="3" t="s">
         <v>141</v>
       </c>
@@ -7060,15 +7060,15 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="5" t="s">
+      <c r="I24" s="5"/>
+      <c r="J24" s="4" t="s">
         <v>16</v>
       </c>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
-      <c r="O24" s="4"/>
+      <c r="O24" s="5"/>
       <c r="P24" s="6"/>
       <c r="Q24" s="3"/>
       <c r="R24" s="3" t="s">
@@ -7100,7 +7100,7 @@
     <row r="25" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="5" t="s">
         <v>142</v>
       </c>
       <c r="D25" s="3" t="s">
@@ -7110,15 +7110,15 @@
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="5" t="s">
+      <c r="I25" s="5"/>
+      <c r="J25" s="4" t="s">
         <v>19</v>
       </c>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
-      <c r="O25" s="4"/>
+      <c r="O25" s="5"/>
       <c r="P25" s="6"/>
       <c r="Q25" s="3"/>
       <c r="R25" s="3" t="s">
@@ -7150,7 +7150,7 @@
     <row r="26" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
-      <c r="C26" s="4"/>
+      <c r="C26" s="5"/>
       <c r="D26" s="3" t="s">
         <v>144</v>
       </c>
@@ -7158,18 +7158,18 @@
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
-      <c r="I26" s="4" t="s">
+      <c r="I26" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="J26" s="5" t="s">
+      <c r="J26" s="4" t="s">
         <v>8</v>
       </c>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="5" t="s">
+      <c r="O26" s="5"/>
+      <c r="P26" s="4" t="s">
         <v>12</v>
       </c>
       <c r="Q26" s="3"/>
@@ -7200,7 +7200,7 @@
     <row r="27" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
-      <c r="C27" s="4"/>
+      <c r="C27" s="5"/>
       <c r="D27" s="3" t="s">
         <v>145</v>
       </c>
@@ -7208,7 +7208,7 @@
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
-      <c r="I27" s="4"/>
+      <c r="I27" s="5"/>
       <c r="J27" s="6" t="s">
         <v>38</v>
       </c>
@@ -7218,8 +7218,8 @@
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="5" t="s">
+      <c r="O27" s="5"/>
+      <c r="P27" s="4" t="s">
         <v>16</v>
       </c>
       <c r="Q27" s="3"/>
@@ -7252,7 +7252,7 @@
     <row r="28" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
-      <c r="C28" s="4"/>
+      <c r="C28" s="5"/>
       <c r="D28" s="3" t="s">
         <v>86</v>
       </c>
@@ -7260,7 +7260,7 @@
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
-      <c r="I28" s="4"/>
+      <c r="I28" s="5"/>
       <c r="J28" s="6"/>
       <c r="K28" s="3" t="s">
         <v>161</v>
@@ -7268,8 +7268,8 @@
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="5" t="s">
+      <c r="O28" s="5"/>
+      <c r="P28" s="4" t="s">
         <v>19</v>
       </c>
       <c r="Q28" s="3"/>
@@ -7316,7 +7316,7 @@
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
-      <c r="I29" s="4"/>
+      <c r="I29" s="5"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3" t="s">
         <v>12</v>
@@ -7324,10 +7324,10 @@
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
-      <c r="O29" s="4" t="s">
+      <c r="O29" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="P29" s="5" t="s">
+      <c r="P29" s="4" t="s">
         <v>8</v>
       </c>
       <c r="Q29" s="3"/>
@@ -7358,10 +7358,10 @@
     <row r="30" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="5" t="s">
         <v>147</v>
       </c>
       <c r="E30" s="3" t="s">
@@ -7370,7 +7370,7 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
-      <c r="I30" s="4"/>
+      <c r="I30" s="5"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3" t="s">
         <v>16</v>
@@ -7378,7 +7378,7 @@
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
-      <c r="O30" s="4"/>
+      <c r="O30" s="5"/>
       <c r="P30" s="6" t="s">
         <v>38</v>
       </c>
@@ -7412,15 +7412,15 @@
     <row r="31" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
       <c r="E31" s="3" t="s">
         <v>149</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
-      <c r="I31" s="4"/>
+      <c r="I31" s="5"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3" t="s">
         <v>19</v>
@@ -7428,7 +7428,7 @@
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
-      <c r="O31" s="4"/>
+      <c r="O31" s="5"/>
       <c r="P31" s="6"/>
       <c r="Q31" s="3" t="s">
         <v>161</v>
@@ -7458,7 +7458,7 @@
     <row r="32" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
-      <c r="C32" s="4"/>
+      <c r="C32" s="5"/>
       <c r="D32" s="3" t="s">
         <v>153</v>
       </c>
@@ -7474,7 +7474,7 @@
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
-      <c r="O32" s="4"/>
+      <c r="O32" s="5"/>
       <c r="P32" s="3" t="s">
         <v>12</v>
       </c>
@@ -7504,7 +7504,7 @@
     <row r="33" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
-      <c r="C33" s="4"/>
+      <c r="C33" s="5"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3" t="s">
         <v>155</v>
@@ -7518,7 +7518,7 @@
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
-      <c r="O33" s="4"/>
+      <c r="O33" s="5"/>
       <c r="P33" s="3" t="s">
         <v>16</v>
       </c>
@@ -7550,7 +7550,7 @@
     <row r="34" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
-      <c r="C34" s="4"/>
+      <c r="C34" s="5"/>
       <c r="D34" s="3" t="s">
         <v>156</v>
       </c>
@@ -7566,7 +7566,7 @@
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
-      <c r="O34" s="4"/>
+      <c r="O34" s="5"/>
       <c r="P34" s="3" t="s">
         <v>19</v>
       </c>
@@ -7600,7 +7600,7 @@
     <row r="35" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="5" t="s">
         <v>176</v>
       </c>
       <c r="D35" s="3" t="s">
@@ -7648,7 +7648,7 @@
     <row r="36" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
-      <c r="C36" s="4"/>
+      <c r="C36" s="5"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3" t="s">
         <v>61</v>
@@ -7696,7 +7696,7 @@
     <row r="37" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
-      <c r="C37" s="4"/>
+      <c r="C37" s="5"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3" t="s">
         <v>56</v>
@@ -7740,7 +7740,7 @@
     <row r="38" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
-      <c r="C38" s="4"/>
+      <c r="C38" s="5"/>
       <c r="D38" s="3" t="s">
         <v>12</v>
       </c>
@@ -7786,7 +7786,7 @@
     <row r="39" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
-      <c r="C39" s="4"/>
+      <c r="C39" s="5"/>
       <c r="D39" s="3" t="s">
         <v>178</v>
       </c>
@@ -7830,8 +7830,8 @@
     <row r="40" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4" t="s">
+      <c r="C40" s="5"/>
+      <c r="D40" s="5" t="s">
         <v>40</v>
       </c>
       <c r="E40" s="3" t="s">
@@ -7874,8 +7874,8 @@
     <row r="41" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
       <c r="E41" s="3" t="s">
         <v>86</v>
       </c>
@@ -7916,7 +7916,7 @@
     <row r="42" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="5" t="s">
         <v>179</v>
       </c>
       <c r="D42" s="3" t="s">
@@ -7961,8 +7961,8 @@
     <row r="43" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4" t="s">
+      <c r="C43" s="5"/>
+      <c r="D43" s="5" t="s">
         <v>38</v>
       </c>
       <c r="E43" s="3" t="s">
@@ -8009,8 +8009,8 @@
     <row r="44" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
       <c r="E44" s="3" t="s">
         <v>61</v>
       </c>
@@ -8053,8 +8053,8 @@
     <row r="45" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
       <c r="E45" s="3" t="s">
         <v>56</v>
       </c>
@@ -8103,8 +8103,8 @@
     <row r="46" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3" t="s">
         <v>26</v>
@@ -8147,8 +8147,8 @@
     <row r="47" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3" t="s">
         <v>27</v>
@@ -8191,8 +8191,8 @@
     <row r="48" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4" t="s">
+      <c r="C48" s="5"/>
+      <c r="D48" s="5" t="s">
         <v>40</v>
       </c>
       <c r="E48" s="3" t="s">
@@ -8235,8 +8235,8 @@
     <row r="49" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
       <c r="E49" s="3" t="s">
         <v>14</v>
       </c>
@@ -8277,8 +8277,8 @@
     <row r="50" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
       <c r="E50" s="3" t="s">
         <v>133</v>
       </c>
@@ -8319,8 +8319,8 @@
     <row r="51" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
       <c r="E51" s="3" t="s">
         <v>152</v>
       </c>
@@ -10066,17 +10066,13 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="X18:X19"/>
-    <mergeCell ref="X7:X14"/>
-    <mergeCell ref="W7:W19"/>
-    <mergeCell ref="W2:W6"/>
-    <mergeCell ref="O21:O28"/>
-    <mergeCell ref="O29:O34"/>
-    <mergeCell ref="P21:P25"/>
-    <mergeCell ref="P30:P31"/>
-    <mergeCell ref="D48:D51"/>
-    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="C15:C20"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="D19:D20"/>
     <mergeCell ref="C42:C51"/>
     <mergeCell ref="C35:C41"/>
     <mergeCell ref="J27:J28"/>
@@ -10093,14 +10089,18 @@
     <mergeCell ref="I17:I19"/>
     <mergeCell ref="J15:J16"/>
     <mergeCell ref="C2:C14"/>
-    <mergeCell ref="C15:C20"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="O21:O28"/>
+    <mergeCell ref="O29:O34"/>
+    <mergeCell ref="P21:P25"/>
+    <mergeCell ref="P30:P31"/>
+    <mergeCell ref="D48:D51"/>
+    <mergeCell ref="D40:D41"/>
     <mergeCell ref="D30:D31"/>
-    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="X18:X19"/>
+    <mergeCell ref="X7:X14"/>
+    <mergeCell ref="W7:W19"/>
+    <mergeCell ref="W2:W6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/3DGame_3_NamelessGame/NamelessGame_仕様書.xlsx
+++ b/3DGame_3_NamelessGame/NamelessGame_仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347059\Documents\GitHub\制作作品\ProductionWork\3DGame_3_NamelessGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{924E2053-3BF2-4EAC-8D08-522BEA8B1481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{927B0D56-D315-485F-9155-F014047A870D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="6" xr2:uid="{2DDD9D27-F88C-4C7A-90BC-D78AE39EE51E}"/>
+    <workbookView xWindow="3435" yWindow="3375" windowWidth="15450" windowHeight="11295" firstSheet="3" activeTab="7" xr2:uid="{2DDD9D27-F88C-4C7A-90BC-D78AE39EE51E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="321">
   <si>
     <t>就職作品</t>
     <rPh sb="0" eb="4">
@@ -1652,14 +1652,623 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>モーション</t>
-    <phoneticPr fontId="1"/>
+    <t>マップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エフェクト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完了コスト</t>
+    <rPh sb="0" eb="2">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完了</t>
+    <rPh sb="0" eb="2">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>球とカプセルの当たり判定</t>
+    <rPh sb="7" eb="8">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>球同士の当たり判定</t>
+    <rPh sb="1" eb="3">
+      <t>ドウシ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カプセル同士当たり判定</t>
+    <rPh sb="6" eb="7">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>銃攻撃(ハンドガン)</t>
+    <rPh sb="0" eb="3">
+      <t>ジュウコウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>銃攻撃(マシンガン)</t>
+    <rPh sb="0" eb="3">
+      <t>ジュウコウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回避　</t>
+    <rPh sb="0" eb="2">
+      <t>カイヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アニメーション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダッシュ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カメラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回転</t>
+    <rPh sb="0" eb="2">
+      <t>カイテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>追従</t>
+    <rPh sb="0" eb="2">
+      <t>ツイジュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー発見</t>
+    <rPh sb="5" eb="7">
+      <t>ハッケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HP減でポイントへ撤退</t>
+    <rPh sb="2" eb="3">
+      <t>ゲン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>テッタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーへの攻撃</t>
+    <rPh sb="7" eb="9">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>召喚後待機</t>
+    <rPh sb="0" eb="3">
+      <t>ショウカンゴ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カーソル移動</t>
+    <rPh sb="4" eb="6">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面遷移</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>決定処理</t>
+    <rPh sb="0" eb="4">
+      <t>ケッテイショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>再生</t>
+    <rPh sb="0" eb="2">
+      <t>サイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>座標設定</t>
+    <rPh sb="0" eb="2">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サウンド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>音量調整</t>
+    <rPh sb="0" eb="4">
+      <t>オンリョウチョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スコア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スコア計算</t>
+    <rPh sb="3" eb="5">
+      <t>ケイサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ランキング表示(オフライン)</t>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1コスト3時間_1日基本2コスト</t>
+    <rPh sb="5" eb="7">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>途中</t>
+    <rPh sb="0" eb="2">
+      <t>トチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未</t>
+    <rPh sb="0" eb="1">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>総コスト</t>
+    <rPh sb="0" eb="1">
+      <t>ソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>消化コスト</t>
+    <rPh sb="0" eb="2">
+      <t>ショウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現在の日数</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニッスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>理想</t>
+    <rPh sb="0" eb="2">
+      <t>リソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デッドライン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>真実のデッドライン</t>
+    <rPh sb="0" eb="2">
+      <t>シンジツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>15日</t>
+    <rPh sb="2" eb="3">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラス設計</t>
+    <rPh sb="3" eb="5">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ModelBase</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NPC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SoundManager</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SceneManager</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Title</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Select</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Option</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ranking</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Game</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GameOver</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GameClear</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ライブラリ設計</t>
+    <rPh sb="5" eb="7">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Collision</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Input</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LoadCsv</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fade</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マップとの当たり判定</t>
+    <rPh sb="5" eb="6">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ColorManager</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sound,ColorManager</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Collision,Fade</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>罠設置,再装填,召喚</t>
+    <rPh sb="0" eb="3">
+      <t>ワナセッチ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>サイソウテン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ショウカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動AI_歩行</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ホコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動AI_ダッシュ</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>消滅</t>
+    <rPh sb="0" eb="2">
+      <t>ショウメツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未　</t>
+    <rPh sb="0" eb="1">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>配置データの保存</t>
+    <rPh sb="0" eb="2">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>配置データの読み込み</t>
+    <rPh sb="0" eb="2">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マップ実装</t>
+    <rPh sb="3" eb="5">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マップ設計,配置</t>
+    <rPh sb="3" eb="5">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UI(α版仮)</t>
+    <rPh sb="4" eb="5">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>当たり判定の設定</t>
+    <rPh sb="0" eb="1">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>座標合わせ</t>
+    <rPh sb="0" eb="3">
+      <t>ザヒョウア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>残りToDo</t>
+    <rPh sb="0" eb="1">
+      <t>ノコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NPC3体</t>
+    <rPh sb="4" eb="5">
+      <t>タイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マップのポイント移動</t>
+    <rPh sb="8" eb="10">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HPを減らす,敵の攻撃力を参照する</t>
+    <rPh sb="3" eb="4">
+      <t>ヘ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>コウゲキリョク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>被ダメージ時無敵時間</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>ムテキジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテム獲得</t>
+    <rPh sb="4" eb="6">
+      <t>カクトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開始日:9/26</t>
+    <rPh sb="0" eb="3">
+      <t>カイシビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>体の向き</t>
+    <rPh sb="0" eb="1">
+      <t>カラダ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カメラ操作</t>
+    <rPh sb="3" eb="5">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エフェクト実装</t>
+    <rPh sb="5" eb="7">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>停止</t>
+    <rPh sb="0" eb="2">
+      <t>テイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>座標回転と拡大</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>右腕攻撃１</t>
+    <rPh sb="0" eb="4">
+      <t>ミギウデコウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>右腕攻撃２</t>
+    <rPh sb="0" eb="4">
+      <t>ミギウデコウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ローカル座標</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1685,12 +2294,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1707,7 +2334,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1723,6 +2350,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5796,7 +6436,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F1336CB-A938-459E-AE15-F52FB00617F4}">
   <dimension ref="A1:AL93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
@@ -5820,6 +6460,10 @@
     <col min="25" max="25" width="19" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="11" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="21.25" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.4">
@@ -5867,7 +6511,7 @@
       <c r="B2" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="10" t="s">
         <v>131</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -5881,7 +6525,7 @@
       <c r="H2" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="10" t="s">
         <v>131</v>
       </c>
       <c r="J2" s="3" t="s">
@@ -5895,7 +6539,7 @@
       <c r="N2" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="10" t="s">
         <v>131</v>
       </c>
       <c r="P2" s="3" t="s">
@@ -5915,10 +6559,10 @@
       <c r="V2" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="W2" s="5" t="s">
+      <c r="W2" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="X2" s="5" t="s">
+      <c r="X2" s="10" t="s">
         <v>191</v>
       </c>
       <c r="Y2" s="3" t="s">
@@ -5932,11 +6576,15 @@
         <v>223</v>
       </c>
       <c r="AC2" s="3"/>
-      <c r="AD2" s="3"/>
+      <c r="AD2" s="3" t="s">
+        <v>273</v>
+      </c>
       <c r="AE2" s="3"/>
       <c r="AF2" s="3"/>
       <c r="AG2" s="3"/>
-      <c r="AH2" s="3"/>
+      <c r="AH2" s="3" t="s">
+        <v>285</v>
+      </c>
       <c r="AI2" s="3"/>
       <c r="AJ2" s="3"/>
       <c r="AK2" s="3"/>
@@ -5945,8 +6593,8 @@
     <row r="3" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5" t="s">
+      <c r="C3" s="10"/>
+      <c r="D3" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -5957,7 +6605,7 @@
         <v>31</v>
       </c>
       <c r="H3" s="3"/>
-      <c r="I3" s="5"/>
+      <c r="I3" s="10"/>
       <c r="J3" s="3" t="s">
         <v>8</v>
       </c>
@@ -5965,7 +6613,7 @@
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
-      <c r="O3" s="5"/>
+      <c r="O3" s="10"/>
       <c r="P3" s="3" t="s">
         <v>8</v>
       </c>
@@ -5979,8 +6627,8 @@
         <v>31</v>
       </c>
       <c r="V3" s="3"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
       <c r="Y3" s="3" t="s">
         <v>193</v>
       </c>
@@ -5989,11 +6637,14 @@
       <c r="AB3" s="3"/>
       <c r="AC3" s="3"/>
       <c r="AD3" s="3"/>
-      <c r="AE3" s="3"/>
+      <c r="AE3" s="3" t="s">
+        <v>274</v>
+      </c>
       <c r="AF3" s="3"/>
       <c r="AG3" s="3"/>
-      <c r="AH3" s="3"/>
-      <c r="AI3" s="3"/>
+      <c r="AI3" s="3" t="s">
+        <v>286</v>
+      </c>
       <c r="AJ3" s="3"/>
       <c r="AK3" s="3"/>
       <c r="AL3" s="3"/>
@@ -6001,8 +6652,8 @@
     <row r="4" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
       <c r="E4" s="3" t="s">
         <v>61</v>
       </c>
@@ -6011,7 +6662,7 @@
         <v>31</v>
       </c>
       <c r="H4" s="3"/>
-      <c r="I4" s="5"/>
+      <c r="I4" s="10"/>
       <c r="J4" s="3" t="s">
         <v>9</v>
       </c>
@@ -6019,7 +6670,7 @@
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
-      <c r="O4" s="5"/>
+      <c r="O4" s="10"/>
       <c r="P4" s="3" t="s">
         <v>57</v>
       </c>
@@ -6033,7 +6684,7 @@
         <v>31</v>
       </c>
       <c r="V4" s="3"/>
-      <c r="W4" s="5"/>
+      <c r="W4" s="10"/>
       <c r="X4" s="3" t="s">
         <v>195</v>
       </c>
@@ -6044,10 +6695,13 @@
       <c r="AC4" s="3"/>
       <c r="AD4" s="3"/>
       <c r="AE4" s="3"/>
-      <c r="AF4" s="3"/>
+      <c r="AF4" s="3" t="s">
+        <v>228</v>
+      </c>
       <c r="AG4" s="3"/>
-      <c r="AH4" s="3"/>
-      <c r="AI4" s="3"/>
+      <c r="AI4" s="3" t="s">
+        <v>287</v>
+      </c>
       <c r="AJ4" s="3"/>
       <c r="AK4" s="3"/>
       <c r="AL4" s="3"/>
@@ -6055,8 +6709,8 @@
     <row r="5" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
       <c r="E5" s="3" t="s">
         <v>25</v>
       </c>
@@ -6065,7 +6719,7 @@
         <v>31</v>
       </c>
       <c r="H5" s="3"/>
-      <c r="I5" s="5"/>
+      <c r="I5" s="10"/>
       <c r="J5" s="3" t="s">
         <v>107</v>
       </c>
@@ -6073,7 +6727,7 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
-      <c r="O5" s="5"/>
+      <c r="O5" s="10"/>
       <c r="P5" s="3" t="s">
         <v>61</v>
       </c>
@@ -6087,7 +6741,7 @@
         <v>31</v>
       </c>
       <c r="V5" s="3"/>
-      <c r="W5" s="5"/>
+      <c r="W5" s="10"/>
       <c r="X5" s="3" t="s">
         <v>196</v>
       </c>
@@ -6098,10 +6752,14 @@
       <c r="AC5" s="3"/>
       <c r="AD5" s="3"/>
       <c r="AE5" s="3"/>
-      <c r="AF5" s="3"/>
+      <c r="AF5" s="3" t="s">
+        <v>229</v>
+      </c>
       <c r="AG5" s="3"/>
       <c r="AH5" s="3"/>
-      <c r="AI5" s="3"/>
+      <c r="AI5" s="3" t="s">
+        <v>288</v>
+      </c>
       <c r="AJ5" s="3"/>
       <c r="AK5" s="3"/>
       <c r="AL5" s="3"/>
@@ -6109,8 +6767,8 @@
     <row r="6" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
       <c r="E6" s="3" t="s">
         <v>26</v>
       </c>
@@ -6119,7 +6777,7 @@
         <v>31</v>
       </c>
       <c r="H6" s="3"/>
-      <c r="I6" s="5"/>
+      <c r="I6" s="10"/>
       <c r="J6" s="3" t="s">
         <v>160</v>
       </c>
@@ -6127,7 +6785,7 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
-      <c r="O6" s="5"/>
+      <c r="O6" s="10"/>
       <c r="P6" s="3" t="s">
         <v>25</v>
       </c>
@@ -6141,7 +6799,7 @@
         <v>31</v>
       </c>
       <c r="V6" s="3"/>
-      <c r="W6" s="5"/>
+      <c r="W6" s="10"/>
       <c r="X6" s="3" t="s">
         <v>197</v>
       </c>
@@ -6154,10 +6812,14 @@
       <c r="AC6" s="3"/>
       <c r="AD6" s="3"/>
       <c r="AE6" s="3"/>
-      <c r="AF6" s="3"/>
+      <c r="AF6" s="3" t="s">
+        <v>275</v>
+      </c>
       <c r="AG6" s="3"/>
       <c r="AH6" s="3"/>
-      <c r="AI6" s="3"/>
+      <c r="AI6" s="3" t="s">
+        <v>289</v>
+      </c>
       <c r="AJ6" s="3"/>
       <c r="AK6" s="3"/>
       <c r="AL6" s="3"/>
@@ -6165,8 +6827,8 @@
     <row r="7" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
       <c r="E7" s="3" t="s">
         <v>27</v>
       </c>
@@ -6175,7 +6837,7 @@
         <v>31</v>
       </c>
       <c r="H7" s="3"/>
-      <c r="I7" s="5"/>
+      <c r="I7" s="10"/>
       <c r="J7" s="3" t="s">
         <v>161</v>
       </c>
@@ -6183,7 +6845,7 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
-      <c r="O7" s="5"/>
+      <c r="O7" s="10"/>
       <c r="P7" s="3" t="s">
         <v>26</v>
       </c>
@@ -6197,10 +6859,10 @@
         <v>31</v>
       </c>
       <c r="V7" s="3"/>
-      <c r="W7" s="5" t="s">
+      <c r="W7" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="X7" s="5" t="s">
+      <c r="X7" s="10" t="s">
         <v>191</v>
       </c>
       <c r="Y7" s="3" t="s">
@@ -6211,7 +6873,9 @@
       <c r="AB7" s="3"/>
       <c r="AC7" s="3"/>
       <c r="AD7" s="3"/>
-      <c r="AE7" s="3"/>
+      <c r="AE7" s="3" t="s">
+        <v>276</v>
+      </c>
       <c r="AF7" s="3"/>
       <c r="AG7" s="3"/>
       <c r="AH7" s="3"/>
@@ -6223,8 +6887,8 @@
     <row r="8" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5" t="s">
+      <c r="C8" s="10"/>
+      <c r="D8" s="10" t="s">
         <v>40</v>
       </c>
       <c r="E8" s="3" t="s">
@@ -6235,7 +6899,7 @@
         <v>31</v>
       </c>
       <c r="H8" s="3"/>
-      <c r="I8" s="5"/>
+      <c r="I8" s="10"/>
       <c r="J8" s="3" t="s">
         <v>12</v>
       </c>
@@ -6243,7 +6907,7 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
-      <c r="O8" s="5"/>
+      <c r="O8" s="10"/>
       <c r="P8" s="3" t="s">
         <v>27</v>
       </c>
@@ -6257,8 +6921,8 @@
         <v>31</v>
       </c>
       <c r="V8" s="3"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="5"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10"/>
       <c r="Y8" s="3" t="s">
         <v>187</v>
       </c>
@@ -6268,7 +6932,9 @@
       <c r="AC8" s="3"/>
       <c r="AD8" s="3"/>
       <c r="AE8" s="3"/>
-      <c r="AF8" s="3"/>
+      <c r="AF8" s="3" t="s">
+        <v>196</v>
+      </c>
       <c r="AG8" s="3"/>
       <c r="AH8" s="3"/>
       <c r="AI8" s="3"/>
@@ -6279,8 +6945,8 @@
     <row r="9" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
       <c r="E9" s="3" t="s">
         <v>14</v>
       </c>
@@ -6289,7 +6955,7 @@
         <v>31</v>
       </c>
       <c r="H9" s="3"/>
-      <c r="I9" s="5"/>
+      <c r="I9" s="10"/>
       <c r="J9" s="3" t="s">
         <v>16</v>
       </c>
@@ -6297,7 +6963,7 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
-      <c r="O9" s="5"/>
+      <c r="O9" s="10"/>
       <c r="P9" s="3" t="s">
         <v>12</v>
       </c>
@@ -6307,8 +6973,8 @@
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
-      <c r="W9" s="5"/>
-      <c r="X9" s="5"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="10"/>
       <c r="Y9" s="3" t="s">
         <v>199</v>
       </c>
@@ -6318,7 +6984,9 @@
       <c r="AC9" s="3"/>
       <c r="AD9" s="3"/>
       <c r="AE9" s="3"/>
-      <c r="AF9" s="3"/>
+      <c r="AF9" s="3" t="s">
+        <v>197</v>
+      </c>
       <c r="AG9" s="3"/>
       <c r="AH9" s="3"/>
       <c r="AI9" s="3"/>
@@ -6329,8 +6997,8 @@
     <row r="10" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
       <c r="E10" s="3" t="s">
         <v>133</v>
       </c>
@@ -6339,7 +7007,7 @@
         <v>31</v>
       </c>
       <c r="H10" s="3"/>
-      <c r="I10" s="5"/>
+      <c r="I10" s="10"/>
       <c r="J10" s="3" t="s">
         <v>19</v>
       </c>
@@ -6347,7 +7015,7 @@
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
-      <c r="O10" s="5"/>
+      <c r="O10" s="10"/>
       <c r="P10" s="3" t="s">
         <v>19</v>
       </c>
@@ -6357,8 +7025,8 @@
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
-      <c r="W10" s="5"/>
-      <c r="X10" s="5"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
       <c r="Y10" s="3" t="s">
         <v>186</v>
       </c>
@@ -6367,7 +7035,9 @@
       <c r="AB10" s="3"/>
       <c r="AC10" s="3"/>
       <c r="AD10" s="3"/>
-      <c r="AE10" s="3"/>
+      <c r="AE10" s="3" t="s">
+        <v>277</v>
+      </c>
       <c r="AF10" s="3"/>
       <c r="AG10" s="3"/>
       <c r="AH10" s="3"/>
@@ -6379,8 +7049,8 @@
     <row r="11" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
       <c r="E11" s="3" t="s">
         <v>152</v>
       </c>
@@ -6389,7 +7059,7 @@
         <v>31</v>
       </c>
       <c r="H11" s="3"/>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="10" t="s">
         <v>134</v>
       </c>
       <c r="J11" s="3" t="s">
@@ -6399,7 +7069,7 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-      <c r="O11" s="5" t="s">
+      <c r="O11" s="10" t="s">
         <v>134</v>
       </c>
       <c r="P11" s="3" t="s">
@@ -6411,8 +7081,8 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-      <c r="W11" s="5"/>
-      <c r="X11" s="5"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
       <c r="Y11" s="3" t="s">
         <v>200</v>
       </c>
@@ -6422,7 +7092,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-      <c r="AF11" s="3"/>
+      <c r="AF11" s="3" t="s">
+        <v>278</v>
+      </c>
       <c r="AG11" s="3"/>
       <c r="AH11" s="3"/>
       <c r="AI11" s="3"/>
@@ -6433,7 +7105,7 @@
     <row r="12" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
-      <c r="C12" s="5"/>
+      <c r="C12" s="10"/>
       <c r="D12" s="3" t="s">
         <v>12</v>
       </c>
@@ -6441,7 +7113,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="5"/>
+      <c r="I12" s="10"/>
       <c r="J12" s="3" t="s">
         <v>160</v>
       </c>
@@ -6449,7 +7121,7 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
-      <c r="O12" s="5"/>
+      <c r="O12" s="10"/>
       <c r="P12" s="3" t="s">
         <v>90</v>
       </c>
@@ -6461,8 +7133,8 @@
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
-      <c r="W12" s="5"/>
-      <c r="X12" s="5"/>
+      <c r="W12" s="10"/>
+      <c r="X12" s="10"/>
       <c r="Y12" s="3" t="s">
         <v>201</v>
       </c>
@@ -6472,7 +7144,9 @@
       <c r="AC12" s="3"/>
       <c r="AD12" s="3"/>
       <c r="AE12" s="3"/>
-      <c r="AF12" s="3"/>
+      <c r="AF12" s="3" t="s">
+        <v>279</v>
+      </c>
       <c r="AG12" s="3"/>
       <c r="AH12" s="3"/>
       <c r="AI12" s="3"/>
@@ -6483,7 +7157,7 @@
     <row r="13" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="5"/>
+      <c r="C13" s="10"/>
       <c r="D13" s="3" t="s">
         <v>32</v>
       </c>
@@ -6491,7 +7165,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="5"/>
+      <c r="I13" s="10"/>
       <c r="J13" s="3" t="s">
         <v>161</v>
       </c>
@@ -6499,7 +7173,7 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
-      <c r="O13" s="5"/>
+      <c r="O13" s="10"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="3" t="s">
         <v>132</v>
@@ -6509,8 +7183,8 @@
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
-      <c r="W13" s="5"/>
-      <c r="X13" s="5"/>
+      <c r="W13" s="10"/>
+      <c r="X13" s="10"/>
       <c r="Y13" s="3" t="s">
         <v>202</v>
       </c>
@@ -6520,7 +7194,9 @@
       <c r="AC13" s="3"/>
       <c r="AD13" s="3"/>
       <c r="AE13" s="3"/>
-      <c r="AF13" s="3"/>
+      <c r="AF13" s="3" t="s">
+        <v>280</v>
+      </c>
       <c r="AG13" s="3"/>
       <c r="AH13" s="3"/>
       <c r="AI13" s="3"/>
@@ -6531,7 +7207,7 @@
     <row r="14" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
-      <c r="C14" s="5"/>
+      <c r="C14" s="10"/>
       <c r="D14" s="3" t="s">
         <v>19</v>
       </c>
@@ -6539,7 +7215,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="5" t="s">
+      <c r="I14" s="10" t="s">
         <v>162</v>
       </c>
       <c r="J14" s="3" t="s">
@@ -6549,7 +7225,7 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
-      <c r="O14" s="5"/>
+      <c r="O14" s="10"/>
       <c r="P14" s="3"/>
       <c r="Q14" s="3" t="s">
         <v>171</v>
@@ -6559,8 +7235,8 @@
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
-      <c r="W14" s="5"/>
-      <c r="X14" s="5"/>
+      <c r="W14" s="10"/>
+      <c r="X14" s="10"/>
       <c r="Y14" s="3" t="s">
         <v>203</v>
       </c>
@@ -6570,7 +7246,9 @@
       <c r="AC14" s="3"/>
       <c r="AD14" s="3"/>
       <c r="AE14" s="3"/>
-      <c r="AF14" s="3"/>
+      <c r="AF14" s="3" t="s">
+        <v>281</v>
+      </c>
       <c r="AG14" s="3"/>
       <c r="AH14" s="3"/>
       <c r="AI14" s="3"/>
@@ -6581,7 +7259,7 @@
     <row r="15" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="10" t="s">
         <v>134</v>
       </c>
       <c r="D15" s="3" t="s">
@@ -6591,8 +7269,8 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5" t="s">
+      <c r="I15" s="10"/>
+      <c r="J15" s="10" t="s">
         <v>147</v>
       </c>
       <c r="K15" s="3" t="s">
@@ -6601,7 +7279,7 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
-      <c r="O15" s="5"/>
+      <c r="O15" s="10"/>
       <c r="P15" s="3" t="s">
         <v>57</v>
       </c>
@@ -6611,7 +7289,7 @@
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
-      <c r="W15" s="5"/>
+      <c r="W15" s="10"/>
       <c r="X15" s="3" t="s">
         <v>194</v>
       </c>
@@ -6622,7 +7300,9 @@
       <c r="AC15" s="3"/>
       <c r="AD15" s="3"/>
       <c r="AE15" s="3"/>
-      <c r="AF15" s="3"/>
+      <c r="AF15" s="3" t="s">
+        <v>282</v>
+      </c>
       <c r="AG15" s="3"/>
       <c r="AH15" s="3"/>
       <c r="AI15" s="3"/>
@@ -6633,8 +7313,8 @@
     <row r="16" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5" t="s">
+      <c r="C16" s="10"/>
+      <c r="D16" s="10" t="s">
         <v>90</v>
       </c>
       <c r="E16" s="3" t="s">
@@ -6643,15 +7323,15 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
       <c r="K16" s="3" t="s">
         <v>164</v>
       </c>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-      <c r="O16" s="5"/>
+      <c r="O16" s="10"/>
       <c r="P16" s="3" t="s">
         <v>61</v>
       </c>
@@ -6661,7 +7341,7 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-      <c r="W16" s="5"/>
+      <c r="W16" s="10"/>
       <c r="X16" s="3" t="s">
         <v>195</v>
       </c>
@@ -6672,7 +7352,9 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-      <c r="AF16" s="3"/>
+      <c r="AF16" s="3" t="s">
+        <v>283</v>
+      </c>
       <c r="AG16" s="3"/>
       <c r="AH16" s="3"/>
       <c r="AI16" s="3"/>
@@ -6683,15 +7365,15 @@
     <row r="17" spans="1:38" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
       <c r="E17" s="3" t="s">
         <v>26</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="5" t="s">
+      <c r="I17" s="10" t="s">
         <v>165</v>
       </c>
       <c r="J17" s="3" t="s">
@@ -6713,7 +7395,7 @@
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
-      <c r="W17" s="5"/>
+      <c r="W17" s="10"/>
       <c r="X17" s="3" t="s">
         <v>196</v>
       </c>
@@ -6724,7 +7406,9 @@
       <c r="AC17" s="3"/>
       <c r="AD17" s="3"/>
       <c r="AE17" s="3"/>
-      <c r="AF17" s="3"/>
+      <c r="AF17" s="3" t="s">
+        <v>284</v>
+      </c>
       <c r="AG17" s="3"/>
       <c r="AH17" s="3"/>
       <c r="AI17" s="3"/>
@@ -6735,15 +7419,15 @@
     <row r="18" spans="1:38" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
       <c r="E18" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
-      <c r="I18" s="5"/>
+      <c r="I18" s="10"/>
       <c r="J18" s="4" t="s">
         <v>167</v>
       </c>
@@ -6751,7 +7435,7 @@
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
-      <c r="O18" s="5" t="s">
+      <c r="O18" s="10" t="s">
         <v>172</v>
       </c>
       <c r="P18" s="3" t="s">
@@ -6763,8 +7447,8 @@
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
-      <c r="W18" s="5"/>
-      <c r="X18" s="5" t="s">
+      <c r="W18" s="10"/>
+      <c r="X18" s="10" t="s">
         <v>197</v>
       </c>
       <c r="Y18" s="3" t="s">
@@ -6775,7 +7459,9 @@
       <c r="AB18" s="3"/>
       <c r="AC18" s="3"/>
       <c r="AD18" s="3"/>
-      <c r="AE18" s="3"/>
+      <c r="AE18" s="3" t="s">
+        <v>291</v>
+      </c>
       <c r="AF18" s="3"/>
       <c r="AG18" s="3"/>
       <c r="AH18" s="3"/>
@@ -6787,8 +7473,8 @@
     <row r="19" spans="1:38" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5" t="s">
+      <c r="C19" s="10"/>
+      <c r="D19" s="10" t="s">
         <v>136</v>
       </c>
       <c r="E19" s="3" t="s">
@@ -6797,7 +7483,7 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="5"/>
+      <c r="I19" s="10"/>
       <c r="J19" s="4" t="s">
         <v>169</v>
       </c>
@@ -6805,7 +7491,7 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-      <c r="O19" s="5"/>
+      <c r="O19" s="10"/>
       <c r="P19" s="4" t="s">
         <v>174</v>
       </c>
@@ -6815,8 +7501,8 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-      <c r="W19" s="5"/>
-      <c r="X19" s="5"/>
+      <c r="W19" s="10"/>
+      <c r="X19" s="10"/>
       <c r="Y19" s="3" t="s">
         <v>204</v>
       </c>
@@ -6837,8 +7523,8 @@
     <row r="20" spans="1:38" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
       <c r="E20" s="3" t="s">
         <v>61</v>
       </c>
@@ -6855,7 +7541,7 @@
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
-      <c r="O20" s="5"/>
+      <c r="O20" s="10"/>
       <c r="P20" s="4" t="s">
         <v>175</v>
       </c>
@@ -6891,7 +7577,7 @@
     <row r="21" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="10" t="s">
         <v>137</v>
       </c>
       <c r="D21" s="3" t="s">
@@ -6903,7 +7589,7 @@
         <v>31</v>
       </c>
       <c r="H21" s="3"/>
-      <c r="I21" s="5" t="s">
+      <c r="I21" s="10" t="s">
         <v>176</v>
       </c>
       <c r="J21" s="4" t="s">
@@ -6915,10 +7601,10 @@
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
-      <c r="O21" s="5" t="s">
+      <c r="O21" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="P21" s="6" t="s">
+      <c r="P21" s="11" t="s">
         <v>38</v>
       </c>
       <c r="Q21" s="3" t="s">
@@ -6951,7 +7637,7 @@
     <row r="22" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
-      <c r="C22" s="5"/>
+      <c r="C22" s="10"/>
       <c r="D22" s="3" t="s">
         <v>138</v>
       </c>
@@ -6961,7 +7647,7 @@
         <v>31</v>
       </c>
       <c r="H22" s="3"/>
-      <c r="I22" s="5"/>
+      <c r="I22" s="10"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3" t="s">
         <v>161</v>
@@ -6969,8 +7655,8 @@
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="6"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="11"/>
       <c r="Q22" s="3" t="s">
         <v>61</v>
       </c>
@@ -7001,7 +7687,7 @@
     <row r="23" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
-      <c r="C23" s="5"/>
+      <c r="C23" s="10"/>
       <c r="D23" s="3" t="s">
         <v>42</v>
       </c>
@@ -7011,7 +7697,7 @@
         <v>140</v>
       </c>
       <c r="H23" s="3"/>
-      <c r="I23" s="5"/>
+      <c r="I23" s="10"/>
       <c r="J23" s="4" t="s">
         <v>12</v>
       </c>
@@ -7019,8 +7705,8 @@
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="6"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="11"/>
       <c r="Q23" s="3" t="s">
         <v>56</v>
       </c>
@@ -7052,7 +7738,7 @@
     <row r="24" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
-      <c r="C24" s="5"/>
+      <c r="C24" s="10"/>
       <c r="D24" s="3" t="s">
         <v>141</v>
       </c>
@@ -7060,7 +7746,7 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
-      <c r="I24" s="5"/>
+      <c r="I24" s="10"/>
       <c r="J24" s="4" t="s">
         <v>16</v>
       </c>
@@ -7068,8 +7754,8 @@
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="6"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="11"/>
       <c r="Q24" s="3"/>
       <c r="R24" s="3" t="s">
         <v>26</v>
@@ -7100,7 +7786,7 @@
     <row r="25" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="10" t="s">
         <v>142</v>
       </c>
       <c r="D25" s="3" t="s">
@@ -7110,7 +7796,7 @@
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
-      <c r="I25" s="5"/>
+      <c r="I25" s="10"/>
       <c r="J25" s="4" t="s">
         <v>19</v>
       </c>
@@ -7118,8 +7804,8 @@
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="6"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="11"/>
       <c r="Q25" s="3"/>
       <c r="R25" s="3" t="s">
         <v>27</v>
@@ -7150,7 +7836,7 @@
     <row r="26" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
-      <c r="C26" s="5"/>
+      <c r="C26" s="10"/>
       <c r="D26" s="3" t="s">
         <v>144</v>
       </c>
@@ -7158,7 +7844,7 @@
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
-      <c r="I26" s="5" t="s">
+      <c r="I26" s="10" t="s">
         <v>179</v>
       </c>
       <c r="J26" s="4" t="s">
@@ -7168,7 +7854,7 @@
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
-      <c r="O26" s="5"/>
+      <c r="O26" s="10"/>
       <c r="P26" s="4" t="s">
         <v>12</v>
       </c>
@@ -7200,7 +7886,7 @@
     <row r="27" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
-      <c r="C27" s="5"/>
+      <c r="C27" s="10"/>
       <c r="D27" s="3" t="s">
         <v>145</v>
       </c>
@@ -7208,8 +7894,8 @@
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="6" t="s">
+      <c r="I27" s="10"/>
+      <c r="J27" s="11" t="s">
         <v>38</v>
       </c>
       <c r="K27" s="3" t="s">
@@ -7218,7 +7904,7 @@
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
-      <c r="O27" s="5"/>
+      <c r="O27" s="10"/>
       <c r="P27" s="4" t="s">
         <v>16</v>
       </c>
@@ -7252,7 +7938,7 @@
     <row r="28" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
-      <c r="C28" s="5"/>
+      <c r="C28" s="10"/>
       <c r="D28" s="3" t="s">
         <v>86</v>
       </c>
@@ -7260,15 +7946,15 @@
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="6"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="11"/>
       <c r="K28" s="3" t="s">
         <v>161</v>
       </c>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
-      <c r="O28" s="5"/>
+      <c r="O28" s="10"/>
       <c r="P28" s="4" t="s">
         <v>19</v>
       </c>
@@ -7316,7 +8002,7 @@
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
-      <c r="I29" s="5"/>
+      <c r="I29" s="10"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3" t="s">
         <v>12</v>
@@ -7324,7 +8010,7 @@
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
-      <c r="O29" s="5" t="s">
+      <c r="O29" s="10" t="s">
         <v>179</v>
       </c>
       <c r="P29" s="4" t="s">
@@ -7358,10 +8044,10 @@
     <row r="30" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="10" t="s">
         <v>147</v>
       </c>
       <c r="E30" s="3" t="s">
@@ -7370,7 +8056,7 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
-      <c r="I30" s="5"/>
+      <c r="I30" s="10"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3" t="s">
         <v>16</v>
@@ -7378,8 +8064,8 @@
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
-      <c r="O30" s="5"/>
-      <c r="P30" s="6" t="s">
+      <c r="O30" s="10"/>
+      <c r="P30" s="11" t="s">
         <v>38</v>
       </c>
       <c r="Q30" s="3" t="s">
@@ -7412,15 +8098,15 @@
     <row r="31" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
       <c r="E31" s="3" t="s">
         <v>149</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
-      <c r="I31" s="5"/>
+      <c r="I31" s="10"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3" t="s">
         <v>19</v>
@@ -7428,8 +8114,8 @@
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
-      <c r="O31" s="5"/>
-      <c r="P31" s="6"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="11"/>
       <c r="Q31" s="3" t="s">
         <v>161</v>
       </c>
@@ -7458,7 +8144,7 @@
     <row r="32" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
-      <c r="C32" s="5"/>
+      <c r="C32" s="10"/>
       <c r="D32" s="3" t="s">
         <v>153</v>
       </c>
@@ -7474,7 +8160,7 @@
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
-      <c r="O32" s="5"/>
+      <c r="O32" s="10"/>
       <c r="P32" s="3" t="s">
         <v>12</v>
       </c>
@@ -7504,7 +8190,7 @@
     <row r="33" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
-      <c r="C33" s="5"/>
+      <c r="C33" s="10"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3" t="s">
         <v>155</v>
@@ -7518,7 +8204,7 @@
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
-      <c r="O33" s="5"/>
+      <c r="O33" s="10"/>
       <c r="P33" s="3" t="s">
         <v>16</v>
       </c>
@@ -7550,7 +8236,7 @@
     <row r="34" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
-      <c r="C34" s="5"/>
+      <c r="C34" s="10"/>
       <c r="D34" s="3" t="s">
         <v>156</v>
       </c>
@@ -7566,7 +8252,7 @@
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
-      <c r="O34" s="5"/>
+      <c r="O34" s="10"/>
       <c r="P34" s="3" t="s">
         <v>19</v>
       </c>
@@ -7600,7 +8286,7 @@
     <row r="35" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="10" t="s">
         <v>176</v>
       </c>
       <c r="D35" s="3" t="s">
@@ -7648,7 +8334,7 @@
     <row r="36" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
-      <c r="C36" s="5"/>
+      <c r="C36" s="10"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3" t="s">
         <v>61</v>
@@ -7696,7 +8382,7 @@
     <row r="37" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
-      <c r="C37" s="5"/>
+      <c r="C37" s="10"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3" t="s">
         <v>56</v>
@@ -7740,7 +8426,7 @@
     <row r="38" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
-      <c r="C38" s="5"/>
+      <c r="C38" s="10"/>
       <c r="D38" s="3" t="s">
         <v>12</v>
       </c>
@@ -7786,7 +8472,7 @@
     <row r="39" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
-      <c r="C39" s="5"/>
+      <c r="C39" s="10"/>
       <c r="D39" s="3" t="s">
         <v>178</v>
       </c>
@@ -7830,8 +8516,8 @@
     <row r="40" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5" t="s">
+      <c r="C40" s="10"/>
+      <c r="D40" s="10" t="s">
         <v>40</v>
       </c>
       <c r="E40" s="3" t="s">
@@ -7874,8 +8560,8 @@
     <row r="41" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
       <c r="E41" s="3" t="s">
         <v>86</v>
       </c>
@@ -7916,7 +8602,7 @@
     <row r="42" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="10" t="s">
         <v>179</v>
       </c>
       <c r="D42" s="3" t="s">
@@ -7961,8 +8647,8 @@
     <row r="43" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5" t="s">
+      <c r="C43" s="10"/>
+      <c r="D43" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E43" s="3" t="s">
@@ -8009,8 +8695,8 @@
     <row r="44" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
       <c r="E44" s="3" t="s">
         <v>61</v>
       </c>
@@ -8053,8 +8739,8 @@
     <row r="45" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
       <c r="E45" s="3" t="s">
         <v>56</v>
       </c>
@@ -8103,8 +8789,8 @@
     <row r="46" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3" t="s">
         <v>26</v>
@@ -8147,8 +8833,8 @@
     <row r="47" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3" t="s">
         <v>27</v>
@@ -8191,8 +8877,8 @@
     <row r="48" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5" t="s">
+      <c r="C48" s="10"/>
+      <c r="D48" s="10" t="s">
         <v>40</v>
       </c>
       <c r="E48" s="3" t="s">
@@ -8235,8 +8921,8 @@
     <row r="49" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
       <c r="E49" s="3" t="s">
         <v>14</v>
       </c>
@@ -8277,8 +8963,8 @@
     <row r="50" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
       <c r="E50" s="3" t="s">
         <v>133</v>
       </c>
@@ -8319,8 +9005,8 @@
     <row r="51" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
       <c r="E51" s="3" t="s">
         <v>152</v>
       </c>
@@ -10066,13 +10752,18 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="C15:C20"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="X18:X19"/>
+    <mergeCell ref="X7:X14"/>
+    <mergeCell ref="W7:W19"/>
+    <mergeCell ref="W2:W6"/>
+    <mergeCell ref="O21:O28"/>
+    <mergeCell ref="O29:O34"/>
+    <mergeCell ref="P21:P25"/>
+    <mergeCell ref="P30:P31"/>
+    <mergeCell ref="D48:D51"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="D30:D31"/>
     <mergeCell ref="C42:C51"/>
     <mergeCell ref="C35:C41"/>
     <mergeCell ref="J27:J28"/>
@@ -10089,18 +10780,13 @@
     <mergeCell ref="I17:I19"/>
     <mergeCell ref="J15:J16"/>
     <mergeCell ref="C2:C14"/>
-    <mergeCell ref="O21:O28"/>
-    <mergeCell ref="O29:O34"/>
-    <mergeCell ref="P21:P25"/>
-    <mergeCell ref="P30:P31"/>
-    <mergeCell ref="D48:D51"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="X18:X19"/>
-    <mergeCell ref="X7:X14"/>
-    <mergeCell ref="W7:W19"/>
-    <mergeCell ref="W2:W6"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="C15:C20"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="D19:D20"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10110,92 +10796,1368 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3774251-9EDA-4815-A3FD-716DC8D7D2A2}">
-  <dimension ref="B2:F20"/>
+  <dimension ref="A1:J94"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="5"/>
+    <col min="6" max="6" width="24" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="19.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B2" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B1" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A2" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B2" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C2" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="F2" t="s">
+      <c r="D2" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B3" t="s">
+      <c r="F2" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="I2" s="5">
+        <f>SUM(C3:C94)</f>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A3" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7">
+        <v>4</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="I3" s="5">
+        <f>SUM(D7:D94)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A4" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7">
+        <v>5</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="C5" s="7">
+        <v>4</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="H5" s="8"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A6" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B7" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C7" s="7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="I7" s="9">
+        <f>DATE(2024,12,20)</f>
+        <v>45646</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B8" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="C8" s="6">
+        <v>1</v>
+      </c>
+      <c r="D8" s="6">
+        <v>1</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="H8" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="I8" s="9">
+        <f>DATE(2025,1,17)</f>
+        <v>45674</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B9" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="I9" s="9">
+        <f>DATE(2025,2,3)</f>
+        <v>45691</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B10" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B11" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B12" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A13" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B14" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="C14" s="6">
+        <v>1</v>
+      </c>
+      <c r="D14" s="6">
+        <v>1</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B15" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C15" s="6">
+        <v>1</v>
+      </c>
+      <c r="D15" s="6">
+        <v>1</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B16" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="C16" s="6">
+        <v>1</v>
+      </c>
+      <c r="D16" s="6">
+        <v>1</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B17" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="C17" s="5">
+        <v>2</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A18" s="5" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="C6" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B19" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="C19" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D19" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B20" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C20" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D20" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B21" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="C21" s="6">
+        <v>1</v>
+      </c>
+      <c r="D21" s="6">
+        <v>1</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B22" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="6">
+        <v>2</v>
+      </c>
+      <c r="D22" s="6">
+        <v>2</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B23" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="C23" s="7">
+        <v>2</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B24" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="C24" s="7">
+        <v>2</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B25" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25" s="7">
+        <v>3</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B26" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B27" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="C27" s="6">
+        <v>2</v>
+      </c>
+      <c r="D27" s="6">
+        <v>2</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="F27" s="6"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B28" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="6">
+        <v>2</v>
+      </c>
+      <c r="D28" s="6">
+        <v>2</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="F28" s="6"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B29" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="7">
+        <v>3</v>
+      </c>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B30" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="7">
+        <v>2</v>
+      </c>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B31" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="C31" s="7">
+        <v>2</v>
+      </c>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B32" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B33" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C33" s="5">
+        <v>1</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B34" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="C34" s="5">
+        <v>2</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A35" s="5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B36" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="C36" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D36" s="6">
+        <v>1</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="F36" s="6"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B37" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C37" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D37" s="6">
+        <v>1</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="F37" s="6"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B38" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="C38" s="7">
+        <v>5</v>
+      </c>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B39" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="C39" s="7">
+        <v>2</v>
+      </c>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F39" s="7"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B40" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C40" s="5">
+        <v>1</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B41" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B42" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="C42" s="7">
+        <v>1</v>
+      </c>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F42" s="7"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B43" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="C43" s="7">
+        <v>1</v>
+      </c>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B44" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C44" s="7">
+        <v>1</v>
+      </c>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F44" s="7"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B45" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C45" s="7">
+        <v>1</v>
+      </c>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B46" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="5">
+        <v>1</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B47" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" s="5">
+        <v>2</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B48" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B49" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="C49" s="5">
+        <v>2</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B50" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C50" s="5">
+        <v>1</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B51" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="C51" s="5">
+        <v>5</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B52" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="C52" s="5">
+        <v>5</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A53" s="5" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="C7" t="s">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B54" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="C54" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B55" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="C55" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B56" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="C56" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B57" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="C57" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A58" s="5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B59" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="C59" s="6">
+        <v>1</v>
+      </c>
+      <c r="D59" s="6">
+        <v>1</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="F59" s="6"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B60" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="C60" s="6">
+        <v>2</v>
+      </c>
+      <c r="D60" s="6">
+        <v>2</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="F60" s="6"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B61" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C61" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F61" s="7"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A62" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B63" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="C63" s="5">
+        <v>2</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B64" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="C64" s="5">
+        <v>1</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A65" s="5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B66" s="5" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="C8" t="s">
+      <c r="C66" s="5">
+        <v>1</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B67" s="5" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="C9" t="s">
+      <c r="C67" s="5">
+        <v>1</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B68" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C68" s="5">
+        <v>1</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A69" s="5" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B10" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B12" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B14" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B16" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B18" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B20" t="s">
-        <v>134</v>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B70" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C70" s="5">
+        <v>1</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B71" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C71" s="5">
+        <v>1</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B72" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C72" s="5">
+        <v>1</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B73" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C73" s="5">
+        <v>2</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B74" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C74" s="5">
+        <v>2</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B75" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C75" s="5">
+        <v>1</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B76" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C76" s="5">
+        <v>1</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A77" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B78" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="C78" s="6">
+        <v>2</v>
+      </c>
+      <c r="D78" s="6">
+        <v>2</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="F78" s="6"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B79" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="C79" s="5">
+        <v>2</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B80" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="C80" s="5">
+        <v>1</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B81" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C81" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B82" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="C82" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A84" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B85" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="C85" s="5">
+        <v>1</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B86" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="C86" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B87" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="C87" s="5">
+        <v>2</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B88" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="C88" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B89" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C89" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A90" s="5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B91" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="C91" s="5">
+        <v>2</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A93" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B94" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="C94" s="5">
+        <v>2</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>265</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100534661B278935E44B366872DF9464E45" ma:contentTypeVersion="15" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="87be336555b78707b8880fee16249c2c">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="56f67181-167d-4f85-a438-a55f61d398e9" xmlns:ns3="c2562f78-638f-4b8f-b708-acdd87129c74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b22ecc2f48af7f73de819eeebf1146e0" ns2:_="" ns3:_="">
+    <xsd:import namespace="56f67181-167d-4f85-a438-a55f61d398e9"/>
+    <xsd:import namespace="c2562f78-638f-4b8f-b708-acdd87129c74"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="56f67181-167d-4f85-a438-a55f61d398e9" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="11" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="画像タグ" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="c7b788f1-635f-435b-a825-11a9aec0b64e" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="16" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="17" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="18" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="21" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="22" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="c2562f78-638f-4b8f-b708-acdd87129c74" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="12" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{1fa207a8-dc4c-48c7-9959-f59fd9d8478d}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="c2562f78-638f-4b8f-b708-acdd87129c74">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithUsers" ma:index="19" nillable="true" ma:displayName="共有相手" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="20" nillable="true" ma:displayName="共有相手の詳細情報" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="コンテンツ タイプ"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="タイトル"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC531D2F-8FC5-4536-8BD5-F2D0DF84503E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31B87372-780A-47A6-AADC-973D325AD293}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="56f67181-167d-4f85-a438-a55f61d398e9"/>
+    <ds:schemaRef ds:uri="c2562f78-638f-4b8f-b708-acdd87129c74"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/3DGame_3_NamelessGame/NamelessGame_仕様書.xlsx
+++ b/3DGame_3_NamelessGame/NamelessGame_仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347059\Documents\GitHub\制作作品\ProductionWork\3DGame_3_NamelessGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{927B0D56-D315-485F-9155-F014047A870D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA4BC7A-5EFE-4842-9353-F06201B1200E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3435" yWindow="3375" windowWidth="15450" windowHeight="11295" firstSheet="3" activeTab="7" xr2:uid="{2DDD9D27-F88C-4C7A-90BC-D78AE39EE51E}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" firstSheet="3" activeTab="7" xr2:uid="{2DDD9D27-F88C-4C7A-90BC-D78AE39EE51E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="322">
   <si>
     <t>就職作品</t>
     <rPh sb="0" eb="4">
@@ -1929,13 +1929,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>15日</t>
-    <rPh sb="2" eb="3">
-      <t>ニチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>クラス設計</t>
     <rPh sb="3" eb="5">
       <t>セッケイ</t>
@@ -2024,14 +2017,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Sound,ColorManager</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Collision,Fade</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>罠設置,再装填,召喚</t>
     <rPh sb="0" eb="3">
       <t>ワナセッチ</t>
@@ -2260,6 +2245,34 @@
   </si>
   <si>
     <t>ローカル座標</t>
+  </si>
+  <si>
+    <t>Collision(マップ)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20日</t>
+    <rPh sb="2" eb="3">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10/28時点:20日</t>
+    <rPh sb="5" eb="7">
+      <t>ジテン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>残りコスト</t>
+    <rPh sb="0" eb="1">
+      <t>ノコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -2294,7 +2307,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2319,6 +2332,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2334,7 +2353,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2363,11 +2382,17 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6080,7 +6105,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{518EA069-E43A-4A23-BFE4-3A9E9AB91ED3}">
   <dimension ref="B2:R34"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
@@ -6436,7 +6461,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F1336CB-A938-459E-AE15-F52FB00617F4}">
   <dimension ref="A1:AL93"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="O4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
@@ -6511,7 +6536,7 @@
       <c r="B2" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>131</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -6525,7 +6550,7 @@
       <c r="H2" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="11" t="s">
         <v>131</v>
       </c>
       <c r="J2" s="3" t="s">
@@ -6539,7 +6564,7 @@
       <c r="N2" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="O2" s="11" t="s">
         <v>131</v>
       </c>
       <c r="P2" s="3" t="s">
@@ -6559,10 +6584,10 @@
       <c r="V2" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="W2" s="10" t="s">
+      <c r="W2" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="X2" s="10" t="s">
+      <c r="X2" s="11" t="s">
         <v>191</v>
       </c>
       <c r="Y2" s="3" t="s">
@@ -6577,13 +6602,13 @@
       </c>
       <c r="AC2" s="3"/>
       <c r="AD2" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AE2" s="3"/>
       <c r="AF2" s="3"/>
       <c r="AG2" s="3"/>
       <c r="AH2" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AI2" s="3"/>
       <c r="AJ2" s="3"/>
@@ -6593,8 +6618,8 @@
     <row r="3" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10" t="s">
+      <c r="C3" s="11"/>
+      <c r="D3" s="11" t="s">
         <v>38</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -6605,7 +6630,7 @@
         <v>31</v>
       </c>
       <c r="H3" s="3"/>
-      <c r="I3" s="10"/>
+      <c r="I3" s="11"/>
       <c r="J3" s="3" t="s">
         <v>8</v>
       </c>
@@ -6613,7 +6638,7 @@
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
-      <c r="O3" s="10"/>
+      <c r="O3" s="11"/>
       <c r="P3" s="3" t="s">
         <v>8</v>
       </c>
@@ -6627,8 +6652,8 @@
         <v>31</v>
       </c>
       <c r="V3" s="3"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
       <c r="Y3" s="3" t="s">
         <v>193</v>
       </c>
@@ -6638,12 +6663,12 @@
       <c r="AC3" s="3"/>
       <c r="AD3" s="3"/>
       <c r="AE3" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AF3" s="3"/>
       <c r="AG3" s="3"/>
       <c r="AI3" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AJ3" s="3"/>
       <c r="AK3" s="3"/>
@@ -6652,8 +6677,8 @@
     <row r="4" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
       <c r="E4" s="3" t="s">
         <v>61</v>
       </c>
@@ -6662,7 +6687,7 @@
         <v>31</v>
       </c>
       <c r="H4" s="3"/>
-      <c r="I4" s="10"/>
+      <c r="I4" s="11"/>
       <c r="J4" s="3" t="s">
         <v>9</v>
       </c>
@@ -6670,7 +6695,7 @@
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
-      <c r="O4" s="10"/>
+      <c r="O4" s="11"/>
       <c r="P4" s="3" t="s">
         <v>57</v>
       </c>
@@ -6684,7 +6709,7 @@
         <v>31</v>
       </c>
       <c r="V4" s="3"/>
-      <c r="W4" s="10"/>
+      <c r="W4" s="11"/>
       <c r="X4" s="3" t="s">
         <v>195</v>
       </c>
@@ -6700,7 +6725,7 @@
       </c>
       <c r="AG4" s="3"/>
       <c r="AI4" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AJ4" s="3"/>
       <c r="AK4" s="3"/>
@@ -6709,8 +6734,8 @@
     <row r="5" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
       <c r="E5" s="3" t="s">
         <v>25</v>
       </c>
@@ -6719,7 +6744,7 @@
         <v>31</v>
       </c>
       <c r="H5" s="3"/>
-      <c r="I5" s="10"/>
+      <c r="I5" s="11"/>
       <c r="J5" s="3" t="s">
         <v>107</v>
       </c>
@@ -6727,7 +6752,7 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
-      <c r="O5" s="10"/>
+      <c r="O5" s="11"/>
       <c r="P5" s="3" t="s">
         <v>61</v>
       </c>
@@ -6741,7 +6766,7 @@
         <v>31</v>
       </c>
       <c r="V5" s="3"/>
-      <c r="W5" s="10"/>
+      <c r="W5" s="11"/>
       <c r="X5" s="3" t="s">
         <v>196</v>
       </c>
@@ -6758,7 +6783,7 @@
       <c r="AG5" s="3"/>
       <c r="AH5" s="3"/>
       <c r="AI5" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AJ5" s="3"/>
       <c r="AK5" s="3"/>
@@ -6767,8 +6792,8 @@
     <row r="6" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
       <c r="E6" s="3" t="s">
         <v>26</v>
       </c>
@@ -6777,7 +6802,7 @@
         <v>31</v>
       </c>
       <c r="H6" s="3"/>
-      <c r="I6" s="10"/>
+      <c r="I6" s="11"/>
       <c r="J6" s="3" t="s">
         <v>160</v>
       </c>
@@ -6785,7 +6810,7 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
-      <c r="O6" s="10"/>
+      <c r="O6" s="11"/>
       <c r="P6" s="3" t="s">
         <v>25</v>
       </c>
@@ -6799,7 +6824,7 @@
         <v>31</v>
       </c>
       <c r="V6" s="3"/>
-      <c r="W6" s="10"/>
+      <c r="W6" s="11"/>
       <c r="X6" s="3" t="s">
         <v>197</v>
       </c>
@@ -6813,12 +6838,12 @@
       <c r="AD6" s="3"/>
       <c r="AE6" s="3"/>
       <c r="AF6" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG6" s="3"/>
       <c r="AH6" s="3"/>
       <c r="AI6" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AJ6" s="3"/>
       <c r="AK6" s="3"/>
@@ -6827,8 +6852,8 @@
     <row r="7" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
       <c r="E7" s="3" t="s">
         <v>27</v>
       </c>
@@ -6837,7 +6862,7 @@
         <v>31</v>
       </c>
       <c r="H7" s="3"/>
-      <c r="I7" s="10"/>
+      <c r="I7" s="11"/>
       <c r="J7" s="3" t="s">
         <v>161</v>
       </c>
@@ -6845,7 +6870,7 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
-      <c r="O7" s="10"/>
+      <c r="O7" s="11"/>
       <c r="P7" s="3" t="s">
         <v>26</v>
       </c>
@@ -6859,10 +6884,10 @@
         <v>31</v>
       </c>
       <c r="V7" s="3"/>
-      <c r="W7" s="10" t="s">
+      <c r="W7" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="X7" s="10" t="s">
+      <c r="X7" s="11" t="s">
         <v>191</v>
       </c>
       <c r="Y7" s="3" t="s">
@@ -6874,7 +6899,7 @@
       <c r="AC7" s="3"/>
       <c r="AD7" s="3"/>
       <c r="AE7" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AF7" s="3"/>
       <c r="AG7" s="3"/>
@@ -6887,8 +6912,8 @@
     <row r="8" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10" t="s">
+      <c r="C8" s="11"/>
+      <c r="D8" s="11" t="s">
         <v>40</v>
       </c>
       <c r="E8" s="3" t="s">
@@ -6899,7 +6924,7 @@
         <v>31</v>
       </c>
       <c r="H8" s="3"/>
-      <c r="I8" s="10"/>
+      <c r="I8" s="11"/>
       <c r="J8" s="3" t="s">
         <v>12</v>
       </c>
@@ -6907,7 +6932,7 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
-      <c r="O8" s="10"/>
+      <c r="O8" s="11"/>
       <c r="P8" s="3" t="s">
         <v>27</v>
       </c>
@@ -6921,8 +6946,8 @@
         <v>31</v>
       </c>
       <c r="V8" s="3"/>
-      <c r="W8" s="10"/>
-      <c r="X8" s="10"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
       <c r="Y8" s="3" t="s">
         <v>187</v>
       </c>
@@ -6945,8 +6970,8 @@
     <row r="9" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
       <c r="E9" s="3" t="s">
         <v>14</v>
       </c>
@@ -6955,7 +6980,7 @@
         <v>31</v>
       </c>
       <c r="H9" s="3"/>
-      <c r="I9" s="10"/>
+      <c r="I9" s="11"/>
       <c r="J9" s="3" t="s">
         <v>16</v>
       </c>
@@ -6963,7 +6988,7 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
-      <c r="O9" s="10"/>
+      <c r="O9" s="11"/>
       <c r="P9" s="3" t="s">
         <v>12</v>
       </c>
@@ -6973,8 +6998,8 @@
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
-      <c r="W9" s="10"/>
-      <c r="X9" s="10"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
       <c r="Y9" s="3" t="s">
         <v>199</v>
       </c>
@@ -6997,8 +7022,8 @@
     <row r="10" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
       <c r="E10" s="3" t="s">
         <v>133</v>
       </c>
@@ -7007,7 +7032,7 @@
         <v>31</v>
       </c>
       <c r="H10" s="3"/>
-      <c r="I10" s="10"/>
+      <c r="I10" s="11"/>
       <c r="J10" s="3" t="s">
         <v>19</v>
       </c>
@@ -7015,7 +7040,7 @@
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
-      <c r="O10" s="10"/>
+      <c r="O10" s="11"/>
       <c r="P10" s="3" t="s">
         <v>19</v>
       </c>
@@ -7025,8 +7050,8 @@
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
-      <c r="W10" s="10"/>
-      <c r="X10" s="10"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
       <c r="Y10" s="3" t="s">
         <v>186</v>
       </c>
@@ -7036,7 +7061,7 @@
       <c r="AC10" s="3"/>
       <c r="AD10" s="3"/>
       <c r="AE10" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AF10" s="3"/>
       <c r="AG10" s="3"/>
@@ -7049,8 +7074,8 @@
     <row r="11" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
       <c r="E11" s="3" t="s">
         <v>152</v>
       </c>
@@ -7059,7 +7084,7 @@
         <v>31</v>
       </c>
       <c r="H11" s="3"/>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="11" t="s">
         <v>134</v>
       </c>
       <c r="J11" s="3" t="s">
@@ -7069,7 +7094,7 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-      <c r="O11" s="10" t="s">
+      <c r="O11" s="11" t="s">
         <v>134</v>
       </c>
       <c r="P11" s="3" t="s">
@@ -7081,8 +7106,8 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-      <c r="W11" s="10"/>
-      <c r="X11" s="10"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
       <c r="Y11" s="3" t="s">
         <v>200</v>
       </c>
@@ -7093,7 +7118,7 @@
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
       <c r="AF11" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AG11" s="3"/>
       <c r="AH11" s="3"/>
@@ -7105,7 +7130,7 @@
     <row r="12" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
-      <c r="C12" s="10"/>
+      <c r="C12" s="11"/>
       <c r="D12" s="3" t="s">
         <v>12</v>
       </c>
@@ -7113,7 +7138,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="10"/>
+      <c r="I12" s="11"/>
       <c r="J12" s="3" t="s">
         <v>160</v>
       </c>
@@ -7121,7 +7146,7 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
-      <c r="O12" s="10"/>
+      <c r="O12" s="11"/>
       <c r="P12" s="3" t="s">
         <v>90</v>
       </c>
@@ -7133,8 +7158,8 @@
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
-      <c r="W12" s="10"/>
-      <c r="X12" s="10"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="11"/>
       <c r="Y12" s="3" t="s">
         <v>201</v>
       </c>
@@ -7145,7 +7170,7 @@
       <c r="AD12" s="3"/>
       <c r="AE12" s="3"/>
       <c r="AF12" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AG12" s="3"/>
       <c r="AH12" s="3"/>
@@ -7157,7 +7182,7 @@
     <row r="13" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="10"/>
+      <c r="C13" s="11"/>
       <c r="D13" s="3" t="s">
         <v>32</v>
       </c>
@@ -7165,7 +7190,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="10"/>
+      <c r="I13" s="11"/>
       <c r="J13" s="3" t="s">
         <v>161</v>
       </c>
@@ -7173,7 +7198,7 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
-      <c r="O13" s="10"/>
+      <c r="O13" s="11"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="3" t="s">
         <v>132</v>
@@ -7183,8 +7208,8 @@
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
-      <c r="W13" s="10"/>
-      <c r="X13" s="10"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="11"/>
       <c r="Y13" s="3" t="s">
         <v>202</v>
       </c>
@@ -7195,7 +7220,7 @@
       <c r="AD13" s="3"/>
       <c r="AE13" s="3"/>
       <c r="AF13" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AG13" s="3"/>
       <c r="AH13" s="3"/>
@@ -7207,7 +7232,7 @@
     <row r="14" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
-      <c r="C14" s="10"/>
+      <c r="C14" s="11"/>
       <c r="D14" s="3" t="s">
         <v>19</v>
       </c>
@@ -7215,7 +7240,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="10" t="s">
+      <c r="I14" s="11" t="s">
         <v>162</v>
       </c>
       <c r="J14" s="3" t="s">
@@ -7225,7 +7250,7 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
-      <c r="O14" s="10"/>
+      <c r="O14" s="11"/>
       <c r="P14" s="3"/>
       <c r="Q14" s="3" t="s">
         <v>171</v>
@@ -7235,8 +7260,8 @@
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
-      <c r="W14" s="10"/>
-      <c r="X14" s="10"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="11"/>
       <c r="Y14" s="3" t="s">
         <v>203</v>
       </c>
@@ -7247,7 +7272,7 @@
       <c r="AD14" s="3"/>
       <c r="AE14" s="3"/>
       <c r="AF14" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AG14" s="3"/>
       <c r="AH14" s="3"/>
@@ -7259,7 +7284,7 @@
     <row r="15" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="11" t="s">
         <v>134</v>
       </c>
       <c r="D15" s="3" t="s">
@@ -7269,8 +7294,8 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10" t="s">
+      <c r="I15" s="11"/>
+      <c r="J15" s="11" t="s">
         <v>147</v>
       </c>
       <c r="K15" s="3" t="s">
@@ -7279,7 +7304,7 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
-      <c r="O15" s="10"/>
+      <c r="O15" s="11"/>
       <c r="P15" s="3" t="s">
         <v>57</v>
       </c>
@@ -7289,7 +7314,7 @@
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
-      <c r="W15" s="10"/>
+      <c r="W15" s="11"/>
       <c r="X15" s="3" t="s">
         <v>194</v>
       </c>
@@ -7301,7 +7326,7 @@
       <c r="AD15" s="3"/>
       <c r="AE15" s="3"/>
       <c r="AF15" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AG15" s="3"/>
       <c r="AH15" s="3"/>
@@ -7313,8 +7338,8 @@
     <row r="16" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10" t="s">
+      <c r="C16" s="11"/>
+      <c r="D16" s="11" t="s">
         <v>90</v>
       </c>
       <c r="E16" s="3" t="s">
@@ -7323,15 +7348,15 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
       <c r="K16" s="3" t="s">
         <v>164</v>
       </c>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-      <c r="O16" s="10"/>
+      <c r="O16" s="11"/>
       <c r="P16" s="3" t="s">
         <v>61</v>
       </c>
@@ -7341,7 +7366,7 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-      <c r="W16" s="10"/>
+      <c r="W16" s="11"/>
       <c r="X16" s="3" t="s">
         <v>195</v>
       </c>
@@ -7353,7 +7378,7 @@
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
       <c r="AF16" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AG16" s="3"/>
       <c r="AH16" s="3"/>
@@ -7365,15 +7390,15 @@
     <row r="17" spans="1:38" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
       <c r="E17" s="3" t="s">
         <v>26</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="10" t="s">
+      <c r="I17" s="11" t="s">
         <v>165</v>
       </c>
       <c r="J17" s="3" t="s">
@@ -7395,7 +7420,7 @@
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
-      <c r="W17" s="10"/>
+      <c r="W17" s="11"/>
       <c r="X17" s="3" t="s">
         <v>196</v>
       </c>
@@ -7407,7 +7432,7 @@
       <c r="AD17" s="3"/>
       <c r="AE17" s="3"/>
       <c r="AF17" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG17" s="3"/>
       <c r="AH17" s="3"/>
@@ -7419,15 +7444,15 @@
     <row r="18" spans="1:38" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
       <c r="E18" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
-      <c r="I18" s="10"/>
+      <c r="I18" s="11"/>
       <c r="J18" s="4" t="s">
         <v>167</v>
       </c>
@@ -7435,7 +7460,7 @@
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
-      <c r="O18" s="10" t="s">
+      <c r="O18" s="11" t="s">
         <v>172</v>
       </c>
       <c r="P18" s="3" t="s">
@@ -7447,8 +7472,8 @@
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
-      <c r="W18" s="10"/>
-      <c r="X18" s="10" t="s">
+      <c r="W18" s="11"/>
+      <c r="X18" s="11" t="s">
         <v>197</v>
       </c>
       <c r="Y18" s="3" t="s">
@@ -7460,7 +7485,7 @@
       <c r="AC18" s="3"/>
       <c r="AD18" s="3"/>
       <c r="AE18" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AF18" s="3"/>
       <c r="AG18" s="3"/>
@@ -7473,8 +7498,8 @@
     <row r="19" spans="1:38" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10" t="s">
+      <c r="C19" s="11"/>
+      <c r="D19" s="11" t="s">
         <v>136</v>
       </c>
       <c r="E19" s="3" t="s">
@@ -7483,7 +7508,7 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="10"/>
+      <c r="I19" s="11"/>
       <c r="J19" s="4" t="s">
         <v>169</v>
       </c>
@@ -7491,7 +7516,7 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-      <c r="O19" s="10"/>
+      <c r="O19" s="11"/>
       <c r="P19" s="4" t="s">
         <v>174</v>
       </c>
@@ -7501,8 +7526,8 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-      <c r="W19" s="10"/>
-      <c r="X19" s="10"/>
+      <c r="W19" s="11"/>
+      <c r="X19" s="11"/>
       <c r="Y19" s="3" t="s">
         <v>204</v>
       </c>
@@ -7523,8 +7548,8 @@
     <row r="20" spans="1:38" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
       <c r="E20" s="3" t="s">
         <v>61</v>
       </c>
@@ -7541,7 +7566,7 @@
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
-      <c r="O20" s="10"/>
+      <c r="O20" s="11"/>
       <c r="P20" s="4" t="s">
         <v>175</v>
       </c>
@@ -7577,7 +7602,7 @@
     <row r="21" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="11" t="s">
         <v>137</v>
       </c>
       <c r="D21" s="3" t="s">
@@ -7589,7 +7614,7 @@
         <v>31</v>
       </c>
       <c r="H21" s="3"/>
-      <c r="I21" s="10" t="s">
+      <c r="I21" s="11" t="s">
         <v>176</v>
       </c>
       <c r="J21" s="4" t="s">
@@ -7601,10 +7626,10 @@
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
-      <c r="O21" s="10" t="s">
+      <c r="O21" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="P21" s="11" t="s">
+      <c r="P21" s="12" t="s">
         <v>38</v>
       </c>
       <c r="Q21" s="3" t="s">
@@ -7637,7 +7662,7 @@
     <row r="22" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
-      <c r="C22" s="10"/>
+      <c r="C22" s="11"/>
       <c r="D22" s="3" t="s">
         <v>138</v>
       </c>
@@ -7647,7 +7672,7 @@
         <v>31</v>
       </c>
       <c r="H22" s="3"/>
-      <c r="I22" s="10"/>
+      <c r="I22" s="11"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3" t="s">
         <v>161</v>
@@ -7655,8 +7680,8 @@
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="12"/>
       <c r="Q22" s="3" t="s">
         <v>61</v>
       </c>
@@ -7687,7 +7712,7 @@
     <row r="23" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
-      <c r="C23" s="10"/>
+      <c r="C23" s="11"/>
       <c r="D23" s="3" t="s">
         <v>42</v>
       </c>
@@ -7697,7 +7722,7 @@
         <v>140</v>
       </c>
       <c r="H23" s="3"/>
-      <c r="I23" s="10"/>
+      <c r="I23" s="11"/>
       <c r="J23" s="4" t="s">
         <v>12</v>
       </c>
@@ -7705,8 +7730,8 @@
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="12"/>
       <c r="Q23" s="3" t="s">
         <v>56</v>
       </c>
@@ -7738,7 +7763,7 @@
     <row r="24" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
-      <c r="C24" s="10"/>
+      <c r="C24" s="11"/>
       <c r="D24" s="3" t="s">
         <v>141</v>
       </c>
@@ -7746,7 +7771,7 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
-      <c r="I24" s="10"/>
+      <c r="I24" s="11"/>
       <c r="J24" s="4" t="s">
         <v>16</v>
       </c>
@@ -7754,8 +7779,8 @@
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="12"/>
       <c r="Q24" s="3"/>
       <c r="R24" s="3" t="s">
         <v>26</v>
@@ -7786,7 +7811,7 @@
     <row r="25" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="11" t="s">
         <v>142</v>
       </c>
       <c r="D25" s="3" t="s">
@@ -7796,7 +7821,7 @@
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
-      <c r="I25" s="10"/>
+      <c r="I25" s="11"/>
       <c r="J25" s="4" t="s">
         <v>19</v>
       </c>
@@ -7804,8 +7829,8 @@
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="12"/>
       <c r="Q25" s="3"/>
       <c r="R25" s="3" t="s">
         <v>27</v>
@@ -7836,7 +7861,7 @@
     <row r="26" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
-      <c r="C26" s="10"/>
+      <c r="C26" s="11"/>
       <c r="D26" s="3" t="s">
         <v>144</v>
       </c>
@@ -7844,7 +7869,7 @@
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
-      <c r="I26" s="10" t="s">
+      <c r="I26" s="11" t="s">
         <v>179</v>
       </c>
       <c r="J26" s="4" t="s">
@@ -7854,7 +7879,7 @@
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
-      <c r="O26" s="10"/>
+      <c r="O26" s="11"/>
       <c r="P26" s="4" t="s">
         <v>12</v>
       </c>
@@ -7886,7 +7911,7 @@
     <row r="27" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
-      <c r="C27" s="10"/>
+      <c r="C27" s="11"/>
       <c r="D27" s="3" t="s">
         <v>145</v>
       </c>
@@ -7894,8 +7919,8 @@
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="11" t="s">
+      <c r="I27" s="11"/>
+      <c r="J27" s="12" t="s">
         <v>38</v>
       </c>
       <c r="K27" s="3" t="s">
@@ -7904,7 +7929,7 @@
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
-      <c r="O27" s="10"/>
+      <c r="O27" s="11"/>
       <c r="P27" s="4" t="s">
         <v>16</v>
       </c>
@@ -7938,7 +7963,7 @@
     <row r="28" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
-      <c r="C28" s="10"/>
+      <c r="C28" s="11"/>
       <c r="D28" s="3" t="s">
         <v>86</v>
       </c>
@@ -7946,15 +7971,15 @@
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="12"/>
       <c r="K28" s="3" t="s">
         <v>161</v>
       </c>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
-      <c r="O28" s="10"/>
+      <c r="O28" s="11"/>
       <c r="P28" s="4" t="s">
         <v>19</v>
       </c>
@@ -8002,7 +8027,7 @@
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
-      <c r="I29" s="10"/>
+      <c r="I29" s="11"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3" t="s">
         <v>12</v>
@@ -8010,7 +8035,7 @@
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
-      <c r="O29" s="10" t="s">
+      <c r="O29" s="11" t="s">
         <v>179</v>
       </c>
       <c r="P29" s="4" t="s">
@@ -8044,10 +8069,10 @@
     <row r="30" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="11" t="s">
         <v>147</v>
       </c>
       <c r="E30" s="3" t="s">
@@ -8056,7 +8081,7 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
-      <c r="I30" s="10"/>
+      <c r="I30" s="11"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3" t="s">
         <v>16</v>
@@ -8064,8 +8089,8 @@
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
-      <c r="O30" s="10"/>
-      <c r="P30" s="11" t="s">
+      <c r="O30" s="11"/>
+      <c r="P30" s="12" t="s">
         <v>38</v>
       </c>
       <c r="Q30" s="3" t="s">
@@ -8098,15 +8123,15 @@
     <row r="31" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
       <c r="E31" s="3" t="s">
         <v>149</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
-      <c r="I31" s="10"/>
+      <c r="I31" s="11"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3" t="s">
         <v>19</v>
@@ -8114,8 +8139,8 @@
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
-      <c r="O31" s="10"/>
-      <c r="P31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="12"/>
       <c r="Q31" s="3" t="s">
         <v>161</v>
       </c>
@@ -8144,7 +8169,7 @@
     <row r="32" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
-      <c r="C32" s="10"/>
+      <c r="C32" s="11"/>
       <c r="D32" s="3" t="s">
         <v>153</v>
       </c>
@@ -8160,7 +8185,7 @@
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
-      <c r="O32" s="10"/>
+      <c r="O32" s="11"/>
       <c r="P32" s="3" t="s">
         <v>12</v>
       </c>
@@ -8190,7 +8215,7 @@
     <row r="33" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
-      <c r="C33" s="10"/>
+      <c r="C33" s="11"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3" t="s">
         <v>155</v>
@@ -8204,7 +8229,7 @@
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
-      <c r="O33" s="10"/>
+      <c r="O33" s="11"/>
       <c r="P33" s="3" t="s">
         <v>16</v>
       </c>
@@ -8236,7 +8261,7 @@
     <row r="34" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
-      <c r="C34" s="10"/>
+      <c r="C34" s="11"/>
       <c r="D34" s="3" t="s">
         <v>156</v>
       </c>
@@ -8252,7 +8277,7 @@
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
-      <c r="O34" s="10"/>
+      <c r="O34" s="11"/>
       <c r="P34" s="3" t="s">
         <v>19</v>
       </c>
@@ -8286,7 +8311,7 @@
     <row r="35" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="11" t="s">
         <v>176</v>
       </c>
       <c r="D35" s="3" t="s">
@@ -8334,7 +8359,7 @@
     <row r="36" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
-      <c r="C36" s="10"/>
+      <c r="C36" s="11"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3" t="s">
         <v>61</v>
@@ -8382,7 +8407,7 @@
     <row r="37" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
-      <c r="C37" s="10"/>
+      <c r="C37" s="11"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3" t="s">
         <v>56</v>
@@ -8426,7 +8451,7 @@
     <row r="38" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
-      <c r="C38" s="10"/>
+      <c r="C38" s="11"/>
       <c r="D38" s="3" t="s">
         <v>12</v>
       </c>
@@ -8472,7 +8497,7 @@
     <row r="39" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
-      <c r="C39" s="10"/>
+      <c r="C39" s="11"/>
       <c r="D39" s="3" t="s">
         <v>178</v>
       </c>
@@ -8516,8 +8541,8 @@
     <row r="40" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10" t="s">
+      <c r="C40" s="11"/>
+      <c r="D40" s="11" t="s">
         <v>40</v>
       </c>
       <c r="E40" s="3" t="s">
@@ -8560,8 +8585,8 @@
     <row r="41" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
       <c r="E41" s="3" t="s">
         <v>86</v>
       </c>
@@ -8602,7 +8627,7 @@
     <row r="42" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
-      <c r="C42" s="10" t="s">
+      <c r="C42" s="11" t="s">
         <v>179</v>
       </c>
       <c r="D42" s="3" t="s">
@@ -8647,8 +8672,8 @@
     <row r="43" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10" t="s">
+      <c r="C43" s="11"/>
+      <c r="D43" s="11" t="s">
         <v>38</v>
       </c>
       <c r="E43" s="3" t="s">
@@ -8695,8 +8720,8 @@
     <row r="44" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
       <c r="E44" s="3" t="s">
         <v>61</v>
       </c>
@@ -8739,8 +8764,8 @@
     <row r="45" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
       <c r="E45" s="3" t="s">
         <v>56</v>
       </c>
@@ -8789,8 +8814,8 @@
     <row r="46" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3" t="s">
         <v>26</v>
@@ -8833,8 +8858,8 @@
     <row r="47" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3" t="s">
         <v>27</v>
@@ -8877,8 +8902,8 @@
     <row r="48" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10" t="s">
+      <c r="C48" s="11"/>
+      <c r="D48" s="11" t="s">
         <v>40</v>
       </c>
       <c r="E48" s="3" t="s">
@@ -8921,8 +8946,8 @@
     <row r="49" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
       <c r="E49" s="3" t="s">
         <v>14</v>
       </c>
@@ -8963,8 +8988,8 @@
     <row r="50" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
       <c r="E50" s="3" t="s">
         <v>133</v>
       </c>
@@ -9005,8 +9030,8 @@
     <row r="51" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
       <c r="E51" s="3" t="s">
         <v>152</v>
       </c>
@@ -10796,10 +10821,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3774251-9EDA-4815-A3FD-716DC8D7D2A2}">
-  <dimension ref="A1:J94"/>
+  <dimension ref="A1:K94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -10812,15 +10837,17 @@
     <col min="6" max="6" width="24" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="19.25" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.25" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="5"/>
+    <col min="10" max="10" width="11.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B1" s="5" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>224</v>
       </c>
@@ -10837,7 +10864,7 @@
         <v>226</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>266</v>
@@ -10847,32 +10874,32 @@
         <v>148</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A3" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A3" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10">
         <v>4</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>292</v>
-      </c>
+      <c r="D3" s="10">
+        <v>4</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="F3" s="10"/>
       <c r="H3" s="8" t="s">
         <v>267</v>
       </c>
       <c r="I3" s="5">
         <f>SUM(D7:D94)</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7">
@@ -10883,37 +10910,46 @@
         <v>264</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
       <c r="H4" s="8" t="s">
         <v>268</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>272</v>
+        <v>319</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="K4" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="C5" s="7">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="C5" s="13">
         <v>4</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="H5" s="8"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="H5" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="I5" s="5">
+        <f>SUM(I2,-I3)</f>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B7" s="7" t="s">
         <v>231</v>
       </c>
@@ -10927,68 +10963,68 @@
         <v>264</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="H7" s="8" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B8" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="C8" s="6">
+        <v>1</v>
+      </c>
+      <c r="D8" s="6">
+        <v>1</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="H8" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I8" s="9">
         <f>DATE(2024,12,20)</f>
         <v>45646</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B8" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="C8" s="6">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B9" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C9" s="5">
         <v>1</v>
       </c>
-      <c r="D8" s="6">
-        <v>1</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="F8" s="6"/>
-      <c r="H8" s="8" t="s">
+      <c r="E9" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="H9" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I9" s="9">
         <f>DATE(2025,1,17)</f>
         <v>45674</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B9" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="C9" s="5">
-        <v>1</v>
-      </c>
-      <c r="E9" s="5" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B10" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H10" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I10" s="9">
         <f>DATE(2025,2,3)</f>
         <v>45691</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B10" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="C10" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B11" s="5" t="s">
         <v>196</v>
       </c>
@@ -10999,7 +11035,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B12" s="5" t="s">
         <v>197</v>
       </c>
@@ -11010,12 +11046,12 @@
         <v>265</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" s="5" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B14" s="6" t="s">
         <v>237</v>
       </c>
@@ -11030,7 +11066,7 @@
       </c>
       <c r="F14" s="6"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B15" s="6" t="s">
         <v>236</v>
       </c>
@@ -11045,7 +11081,7 @@
       </c>
       <c r="F15" s="6"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B16" s="6" t="s">
         <v>238</v>
       </c>
@@ -11062,7 +11098,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B17" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C17" s="5">
         <v>2</v>
@@ -11148,7 +11184,7 @@
         <v>264</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.4">
@@ -11163,7 +11199,7 @@
         <v>264</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.4">
@@ -11178,7 +11214,7 @@
         <v>264</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.4">
@@ -11193,12 +11229,12 @@
         <v>264</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B27" s="6" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C27" s="6">
         <v>2</v>
@@ -11238,7 +11274,7 @@
         <v>264</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.4">
@@ -11253,7 +11289,7 @@
         <v>264</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.4">
@@ -11268,7 +11304,7 @@
         <v>264</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.4">
@@ -11295,7 +11331,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B34" s="5" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C34" s="5">
         <v>2</v>
@@ -11341,7 +11377,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B38" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C38" s="7">
         <v>5</v>
@@ -11351,12 +11387,12 @@
         <v>264</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B39" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C39" s="7">
         <v>2</v>
@@ -11388,7 +11424,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B42" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C42" s="7">
         <v>1</v>
@@ -11401,7 +11437,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B43" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C43" s="7">
         <v>1</v>
@@ -11518,7 +11554,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B54" s="5" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C54" s="5">
         <v>12</v>
@@ -11526,7 +11562,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B55" s="5" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C55" s="5">
         <v>2</v>
@@ -11534,7 +11570,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B56" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C56" s="5">
         <v>1</v>
@@ -11542,7 +11578,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B57" s="5" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C57" s="5">
         <v>4</v>
@@ -11614,7 +11650,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B64" s="5" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C64" s="5">
         <v>1</v>
@@ -11651,14 +11687,17 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B68" s="5" t="s">
+      <c r="B68" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="C68" s="5">
+      <c r="C68" s="10">
         <v>1</v>
       </c>
-      <c r="E68" s="5" t="s">
-        <v>265</v>
+      <c r="D68" s="10">
+        <v>1</v>
+      </c>
+      <c r="E68" s="10" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.4">
@@ -11667,14 +11706,17 @@
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B70" s="5" t="s">
+      <c r="B70" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="C70" s="5">
+      <c r="C70" s="10">
         <v>1</v>
       </c>
-      <c r="E70" s="5" t="s">
-        <v>265</v>
+      <c r="D70" s="10">
+        <v>1</v>
+      </c>
+      <c r="E70" s="10" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.4">
@@ -11771,7 +11813,7 @@
         <v>2</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.4">
@@ -11795,7 +11837,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B82" s="5" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C82" s="5">
         <v>2</v>
@@ -11819,7 +11861,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B86" s="5" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C86" s="5">
         <v>1</v>
@@ -11838,7 +11880,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B88" s="5" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C88" s="5">
         <v>3</v>
@@ -11846,7 +11888,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B89" s="5" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C89" s="5">
         <v>4</v>

--- a/3DGame_3_NamelessGame/NamelessGame_仕様書.xlsx
+++ b/3DGame_3_NamelessGame/NamelessGame_仕様書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347059\Documents\GitHub\制作作品\ProductionWork\3DGame_3_NamelessGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA4BC7A-5EFE-4842-9353-F06201B1200E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4CC0A48-DA93-4C35-B08B-8A6A78FA2ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" firstSheet="3" activeTab="7" xr2:uid="{2DDD9D27-F88C-4C7A-90BC-D78AE39EE51E}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="324">
   <si>
     <t>就職作品</t>
     <rPh sb="0" eb="4">
@@ -2251,13 +2251,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>20日</t>
-    <rPh sb="2" eb="3">
-      <t>ニチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>10/28時点:20日</t>
     <rPh sb="5" eb="7">
       <t>ジテン</t>
@@ -2271,6 +2264,42 @@
     <t>残りコスト</t>
     <rPh sb="0" eb="1">
       <t>ノコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>残り日数</t>
+    <rPh sb="0" eb="1">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニッスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現段階の一日当たりの消費コスト</t>
+    <rPh sb="0" eb="3">
+      <t>ゲンダンカイ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>イチニチア</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ショウヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>残り日数当たりの消費コスト</t>
+    <rPh sb="0" eb="1">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ニッスウア</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ショウヒ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2385,14 +2414,14 @@
     <xf numFmtId="176" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6536,7 +6565,7 @@
       <c r="B2" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="12" t="s">
         <v>131</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -6550,7 +6579,7 @@
       <c r="H2" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="12" t="s">
         <v>131</v>
       </c>
       <c r="J2" s="3" t="s">
@@ -6564,7 +6593,7 @@
       <c r="N2" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="O2" s="12" t="s">
         <v>131</v>
       </c>
       <c r="P2" s="3" t="s">
@@ -6584,10 +6613,10 @@
       <c r="V2" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="W2" s="11" t="s">
+      <c r="W2" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="X2" s="11" t="s">
+      <c r="X2" s="12" t="s">
         <v>191</v>
       </c>
       <c r="Y2" s="3" t="s">
@@ -6618,8 +6647,8 @@
     <row r="3" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11" t="s">
+      <c r="C3" s="12"/>
+      <c r="D3" s="12" t="s">
         <v>38</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -6630,7 +6659,7 @@
         <v>31</v>
       </c>
       <c r="H3" s="3"/>
-      <c r="I3" s="11"/>
+      <c r="I3" s="12"/>
       <c r="J3" s="3" t="s">
         <v>8</v>
       </c>
@@ -6638,7 +6667,7 @@
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
-      <c r="O3" s="11"/>
+      <c r="O3" s="12"/>
       <c r="P3" s="3" t="s">
         <v>8</v>
       </c>
@@ -6652,8 +6681,8 @@
         <v>31</v>
       </c>
       <c r="V3" s="3"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
       <c r="Y3" s="3" t="s">
         <v>193</v>
       </c>
@@ -6677,8 +6706,8 @@
     <row r="4" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
       <c r="E4" s="3" t="s">
         <v>61</v>
       </c>
@@ -6687,7 +6716,7 @@
         <v>31</v>
       </c>
       <c r="H4" s="3"/>
-      <c r="I4" s="11"/>
+      <c r="I4" s="12"/>
       <c r="J4" s="3" t="s">
         <v>9</v>
       </c>
@@ -6695,7 +6724,7 @@
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
-      <c r="O4" s="11"/>
+      <c r="O4" s="12"/>
       <c r="P4" s="3" t="s">
         <v>57</v>
       </c>
@@ -6709,7 +6738,7 @@
         <v>31</v>
       </c>
       <c r="V4" s="3"/>
-      <c r="W4" s="11"/>
+      <c r="W4" s="12"/>
       <c r="X4" s="3" t="s">
         <v>195</v>
       </c>
@@ -6734,8 +6763,8 @@
     <row r="5" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
       <c r="E5" s="3" t="s">
         <v>25</v>
       </c>
@@ -6744,7 +6773,7 @@
         <v>31</v>
       </c>
       <c r="H5" s="3"/>
-      <c r="I5" s="11"/>
+      <c r="I5" s="12"/>
       <c r="J5" s="3" t="s">
         <v>107</v>
       </c>
@@ -6752,7 +6781,7 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
-      <c r="O5" s="11"/>
+      <c r="O5" s="12"/>
       <c r="P5" s="3" t="s">
         <v>61</v>
       </c>
@@ -6766,7 +6795,7 @@
         <v>31</v>
       </c>
       <c r="V5" s="3"/>
-      <c r="W5" s="11"/>
+      <c r="W5" s="12"/>
       <c r="X5" s="3" t="s">
         <v>196</v>
       </c>
@@ -6792,8 +6821,8 @@
     <row r="6" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
       <c r="E6" s="3" t="s">
         <v>26</v>
       </c>
@@ -6802,7 +6831,7 @@
         <v>31</v>
       </c>
       <c r="H6" s="3"/>
-      <c r="I6" s="11"/>
+      <c r="I6" s="12"/>
       <c r="J6" s="3" t="s">
         <v>160</v>
       </c>
@@ -6810,7 +6839,7 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
-      <c r="O6" s="11"/>
+      <c r="O6" s="12"/>
       <c r="P6" s="3" t="s">
         <v>25</v>
       </c>
@@ -6824,7 +6853,7 @@
         <v>31</v>
       </c>
       <c r="V6" s="3"/>
-      <c r="W6" s="11"/>
+      <c r="W6" s="12"/>
       <c r="X6" s="3" t="s">
         <v>197</v>
       </c>
@@ -6852,8 +6881,8 @@
     <row r="7" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
       <c r="E7" s="3" t="s">
         <v>27</v>
       </c>
@@ -6862,7 +6891,7 @@
         <v>31</v>
       </c>
       <c r="H7" s="3"/>
-      <c r="I7" s="11"/>
+      <c r="I7" s="12"/>
       <c r="J7" s="3" t="s">
         <v>161</v>
       </c>
@@ -6870,7 +6899,7 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
-      <c r="O7" s="11"/>
+      <c r="O7" s="12"/>
       <c r="P7" s="3" t="s">
         <v>26</v>
       </c>
@@ -6884,10 +6913,10 @@
         <v>31</v>
       </c>
       <c r="V7" s="3"/>
-      <c r="W7" s="11" t="s">
+      <c r="W7" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="X7" s="11" t="s">
+      <c r="X7" s="12" t="s">
         <v>191</v>
       </c>
       <c r="Y7" s="3" t="s">
@@ -6912,8 +6941,8 @@
     <row r="8" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11" t="s">
+      <c r="C8" s="12"/>
+      <c r="D8" s="12" t="s">
         <v>40</v>
       </c>
       <c r="E8" s="3" t="s">
@@ -6924,7 +6953,7 @@
         <v>31</v>
       </c>
       <c r="H8" s="3"/>
-      <c r="I8" s="11"/>
+      <c r="I8" s="12"/>
       <c r="J8" s="3" t="s">
         <v>12</v>
       </c>
@@ -6932,7 +6961,7 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
-      <c r="O8" s="11"/>
+      <c r="O8" s="12"/>
       <c r="P8" s="3" t="s">
         <v>27</v>
       </c>
@@ -6946,8 +6975,8 @@
         <v>31</v>
       </c>
       <c r="V8" s="3"/>
-      <c r="W8" s="11"/>
-      <c r="X8" s="11"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="12"/>
       <c r="Y8" s="3" t="s">
         <v>187</v>
       </c>
@@ -6970,8 +6999,8 @@
     <row r="9" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
       <c r="E9" s="3" t="s">
         <v>14</v>
       </c>
@@ -6980,7 +7009,7 @@
         <v>31</v>
       </c>
       <c r="H9" s="3"/>
-      <c r="I9" s="11"/>
+      <c r="I9" s="12"/>
       <c r="J9" s="3" t="s">
         <v>16</v>
       </c>
@@ -6988,7 +7017,7 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
-      <c r="O9" s="11"/>
+      <c r="O9" s="12"/>
       <c r="P9" s="3" t="s">
         <v>12</v>
       </c>
@@ -6998,8 +7027,8 @@
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
-      <c r="W9" s="11"/>
-      <c r="X9" s="11"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="12"/>
       <c r="Y9" s="3" t="s">
         <v>199</v>
       </c>
@@ -7022,8 +7051,8 @@
     <row r="10" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
       <c r="E10" s="3" t="s">
         <v>133</v>
       </c>
@@ -7032,7 +7061,7 @@
         <v>31</v>
       </c>
       <c r="H10" s="3"/>
-      <c r="I10" s="11"/>
+      <c r="I10" s="12"/>
       <c r="J10" s="3" t="s">
         <v>19</v>
       </c>
@@ -7040,7 +7069,7 @@
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
-      <c r="O10" s="11"/>
+      <c r="O10" s="12"/>
       <c r="P10" s="3" t="s">
         <v>19</v>
       </c>
@@ -7050,8 +7079,8 @@
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
-      <c r="W10" s="11"/>
-      <c r="X10" s="11"/>
+      <c r="W10" s="12"/>
+      <c r="X10" s="12"/>
       <c r="Y10" s="3" t="s">
         <v>186</v>
       </c>
@@ -7074,8 +7103,8 @@
     <row r="11" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
       <c r="E11" s="3" t="s">
         <v>152</v>
       </c>
@@ -7084,7 +7113,7 @@
         <v>31</v>
       </c>
       <c r="H11" s="3"/>
-      <c r="I11" s="11" t="s">
+      <c r="I11" s="12" t="s">
         <v>134</v>
       </c>
       <c r="J11" s="3" t="s">
@@ -7094,7 +7123,7 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-      <c r="O11" s="11" t="s">
+      <c r="O11" s="12" t="s">
         <v>134</v>
       </c>
       <c r="P11" s="3" t="s">
@@ -7106,8 +7135,8 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-      <c r="W11" s="11"/>
-      <c r="X11" s="11"/>
+      <c r="W11" s="12"/>
+      <c r="X11" s="12"/>
       <c r="Y11" s="3" t="s">
         <v>200</v>
       </c>
@@ -7130,7 +7159,7 @@
     <row r="12" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
-      <c r="C12" s="11"/>
+      <c r="C12" s="12"/>
       <c r="D12" s="3" t="s">
         <v>12</v>
       </c>
@@ -7138,7 +7167,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="11"/>
+      <c r="I12" s="12"/>
       <c r="J12" s="3" t="s">
         <v>160</v>
       </c>
@@ -7146,7 +7175,7 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
-      <c r="O12" s="11"/>
+      <c r="O12" s="12"/>
       <c r="P12" s="3" t="s">
         <v>90</v>
       </c>
@@ -7158,8 +7187,8 @@
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
-      <c r="W12" s="11"/>
-      <c r="X12" s="11"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
       <c r="Y12" s="3" t="s">
         <v>201</v>
       </c>
@@ -7182,7 +7211,7 @@
     <row r="13" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="11"/>
+      <c r="C13" s="12"/>
       <c r="D13" s="3" t="s">
         <v>32</v>
       </c>
@@ -7190,7 +7219,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="11"/>
+      <c r="I13" s="12"/>
       <c r="J13" s="3" t="s">
         <v>161</v>
       </c>
@@ -7198,7 +7227,7 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
-      <c r="O13" s="11"/>
+      <c r="O13" s="12"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="3" t="s">
         <v>132</v>
@@ -7208,8 +7237,8 @@
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
-      <c r="W13" s="11"/>
-      <c r="X13" s="11"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="12"/>
       <c r="Y13" s="3" t="s">
         <v>202</v>
       </c>
@@ -7232,7 +7261,7 @@
     <row r="14" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
-      <c r="C14" s="11"/>
+      <c r="C14" s="12"/>
       <c r="D14" s="3" t="s">
         <v>19</v>
       </c>
@@ -7240,7 +7269,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="11" t="s">
+      <c r="I14" s="12" t="s">
         <v>162</v>
       </c>
       <c r="J14" s="3" t="s">
@@ -7250,7 +7279,7 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
-      <c r="O14" s="11"/>
+      <c r="O14" s="12"/>
       <c r="P14" s="3"/>
       <c r="Q14" s="3" t="s">
         <v>171</v>
@@ -7260,8 +7289,8 @@
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
-      <c r="W14" s="11"/>
-      <c r="X14" s="11"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="12"/>
       <c r="Y14" s="3" t="s">
         <v>203</v>
       </c>
@@ -7284,7 +7313,7 @@
     <row r="15" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="12" t="s">
         <v>134</v>
       </c>
       <c r="D15" s="3" t="s">
@@ -7294,8 +7323,8 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11" t="s">
+      <c r="I15" s="12"/>
+      <c r="J15" s="12" t="s">
         <v>147</v>
       </c>
       <c r="K15" s="3" t="s">
@@ -7304,7 +7333,7 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
-      <c r="O15" s="11"/>
+      <c r="O15" s="12"/>
       <c r="P15" s="3" t="s">
         <v>57</v>
       </c>
@@ -7314,7 +7343,7 @@
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
-      <c r="W15" s="11"/>
+      <c r="W15" s="12"/>
       <c r="X15" s="3" t="s">
         <v>194</v>
       </c>
@@ -7338,8 +7367,8 @@
     <row r="16" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11" t="s">
+      <c r="C16" s="12"/>
+      <c r="D16" s="12" t="s">
         <v>90</v>
       </c>
       <c r="E16" s="3" t="s">
@@ -7348,15 +7377,15 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
       <c r="K16" s="3" t="s">
         <v>164</v>
       </c>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-      <c r="O16" s="11"/>
+      <c r="O16" s="12"/>
       <c r="P16" s="3" t="s">
         <v>61</v>
       </c>
@@ -7366,7 +7395,7 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-      <c r="W16" s="11"/>
+      <c r="W16" s="12"/>
       <c r="X16" s="3" t="s">
         <v>195</v>
       </c>
@@ -7390,15 +7419,15 @@
     <row r="17" spans="1:38" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
       <c r="E17" s="3" t="s">
         <v>26</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="11" t="s">
+      <c r="I17" s="12" t="s">
         <v>165</v>
       </c>
       <c r="J17" s="3" t="s">
@@ -7420,7 +7449,7 @@
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
-      <c r="W17" s="11"/>
+      <c r="W17" s="12"/>
       <c r="X17" s="3" t="s">
         <v>196</v>
       </c>
@@ -7444,15 +7473,15 @@
     <row r="18" spans="1:38" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
       <c r="E18" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
-      <c r="I18" s="11"/>
+      <c r="I18" s="12"/>
       <c r="J18" s="4" t="s">
         <v>167</v>
       </c>
@@ -7460,7 +7489,7 @@
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
-      <c r="O18" s="11" t="s">
+      <c r="O18" s="12" t="s">
         <v>172</v>
       </c>
       <c r="P18" s="3" t="s">
@@ -7472,8 +7501,8 @@
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
-      <c r="W18" s="11"/>
-      <c r="X18" s="11" t="s">
+      <c r="W18" s="12"/>
+      <c r="X18" s="12" t="s">
         <v>197</v>
       </c>
       <c r="Y18" s="3" t="s">
@@ -7498,8 +7527,8 @@
     <row r="19" spans="1:38" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11" t="s">
+      <c r="C19" s="12"/>
+      <c r="D19" s="12" t="s">
         <v>136</v>
       </c>
       <c r="E19" s="3" t="s">
@@ -7508,7 +7537,7 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="11"/>
+      <c r="I19" s="12"/>
       <c r="J19" s="4" t="s">
         <v>169</v>
       </c>
@@ -7516,7 +7545,7 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-      <c r="O19" s="11"/>
+      <c r="O19" s="12"/>
       <c r="P19" s="4" t="s">
         <v>174</v>
       </c>
@@ -7526,8 +7555,8 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-      <c r="W19" s="11"/>
-      <c r="X19" s="11"/>
+      <c r="W19" s="12"/>
+      <c r="X19" s="12"/>
       <c r="Y19" s="3" t="s">
         <v>204</v>
       </c>
@@ -7548,8 +7577,8 @@
     <row r="20" spans="1:38" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
       <c r="E20" s="3" t="s">
         <v>61</v>
       </c>
@@ -7566,7 +7595,7 @@
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
-      <c r="O20" s="11"/>
+      <c r="O20" s="12"/>
       <c r="P20" s="4" t="s">
         <v>175</v>
       </c>
@@ -7602,7 +7631,7 @@
     <row r="21" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="12" t="s">
         <v>137</v>
       </c>
       <c r="D21" s="3" t="s">
@@ -7614,7 +7643,7 @@
         <v>31</v>
       </c>
       <c r="H21" s="3"/>
-      <c r="I21" s="11" t="s">
+      <c r="I21" s="12" t="s">
         <v>176</v>
       </c>
       <c r="J21" s="4" t="s">
@@ -7626,10 +7655,10 @@
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
-      <c r="O21" s="11" t="s">
+      <c r="O21" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="P21" s="12" t="s">
+      <c r="P21" s="13" t="s">
         <v>38</v>
       </c>
       <c r="Q21" s="3" t="s">
@@ -7662,7 +7691,7 @@
     <row r="22" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
-      <c r="C22" s="11"/>
+      <c r="C22" s="12"/>
       <c r="D22" s="3" t="s">
         <v>138</v>
       </c>
@@ -7672,7 +7701,7 @@
         <v>31</v>
       </c>
       <c r="H22" s="3"/>
-      <c r="I22" s="11"/>
+      <c r="I22" s="12"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3" t="s">
         <v>161</v>
@@ -7680,8 +7709,8 @@
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="13"/>
       <c r="Q22" s="3" t="s">
         <v>61</v>
       </c>
@@ -7712,7 +7741,7 @@
     <row r="23" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
-      <c r="C23" s="11"/>
+      <c r="C23" s="12"/>
       <c r="D23" s="3" t="s">
         <v>42</v>
       </c>
@@ -7722,7 +7751,7 @@
         <v>140</v>
       </c>
       <c r="H23" s="3"/>
-      <c r="I23" s="11"/>
+      <c r="I23" s="12"/>
       <c r="J23" s="4" t="s">
         <v>12</v>
       </c>
@@ -7730,8 +7759,8 @@
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="13"/>
       <c r="Q23" s="3" t="s">
         <v>56</v>
       </c>
@@ -7763,7 +7792,7 @@
     <row r="24" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
-      <c r="C24" s="11"/>
+      <c r="C24" s="12"/>
       <c r="D24" s="3" t="s">
         <v>141</v>
       </c>
@@ -7771,7 +7800,7 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
-      <c r="I24" s="11"/>
+      <c r="I24" s="12"/>
       <c r="J24" s="4" t="s">
         <v>16</v>
       </c>
@@ -7779,8 +7808,8 @@
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="13"/>
       <c r="Q24" s="3"/>
       <c r="R24" s="3" t="s">
         <v>26</v>
@@ -7811,7 +7840,7 @@
     <row r="25" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="12" t="s">
         <v>142</v>
       </c>
       <c r="D25" s="3" t="s">
@@ -7821,7 +7850,7 @@
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
-      <c r="I25" s="11"/>
+      <c r="I25" s="12"/>
       <c r="J25" s="4" t="s">
         <v>19</v>
       </c>
@@ -7829,8 +7858,8 @@
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="13"/>
       <c r="Q25" s="3"/>
       <c r="R25" s="3" t="s">
         <v>27</v>
@@ -7861,7 +7890,7 @@
     <row r="26" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
-      <c r="C26" s="11"/>
+      <c r="C26" s="12"/>
       <c r="D26" s="3" t="s">
         <v>144</v>
       </c>
@@ -7869,7 +7898,7 @@
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
-      <c r="I26" s="11" t="s">
+      <c r="I26" s="12" t="s">
         <v>179</v>
       </c>
       <c r="J26" s="4" t="s">
@@ -7879,7 +7908,7 @@
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
-      <c r="O26" s="11"/>
+      <c r="O26" s="12"/>
       <c r="P26" s="4" t="s">
         <v>12</v>
       </c>
@@ -7911,7 +7940,7 @@
     <row r="27" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
-      <c r="C27" s="11"/>
+      <c r="C27" s="12"/>
       <c r="D27" s="3" t="s">
         <v>145</v>
       </c>
@@ -7919,8 +7948,8 @@
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="12" t="s">
+      <c r="I27" s="12"/>
+      <c r="J27" s="13" t="s">
         <v>38</v>
       </c>
       <c r="K27" s="3" t="s">
@@ -7929,7 +7958,7 @@
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
-      <c r="O27" s="11"/>
+      <c r="O27" s="12"/>
       <c r="P27" s="4" t="s">
         <v>16</v>
       </c>
@@ -7963,7 +7992,7 @@
     <row r="28" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
-      <c r="C28" s="11"/>
+      <c r="C28" s="12"/>
       <c r="D28" s="3" t="s">
         <v>86</v>
       </c>
@@ -7971,15 +8000,15 @@
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="13"/>
       <c r="K28" s="3" t="s">
         <v>161</v>
       </c>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
-      <c r="O28" s="11"/>
+      <c r="O28" s="12"/>
       <c r="P28" s="4" t="s">
         <v>19</v>
       </c>
@@ -8027,7 +8056,7 @@
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
-      <c r="I29" s="11"/>
+      <c r="I29" s="12"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3" t="s">
         <v>12</v>
@@ -8035,7 +8064,7 @@
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
-      <c r="O29" s="11" t="s">
+      <c r="O29" s="12" t="s">
         <v>179</v>
       </c>
       <c r="P29" s="4" t="s">
@@ -8069,10 +8098,10 @@
     <row r="30" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="12" t="s">
         <v>147</v>
       </c>
       <c r="E30" s="3" t="s">
@@ -8081,7 +8110,7 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
-      <c r="I30" s="11"/>
+      <c r="I30" s="12"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3" t="s">
         <v>16</v>
@@ -8089,8 +8118,8 @@
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
-      <c r="O30" s="11"/>
-      <c r="P30" s="12" t="s">
+      <c r="O30" s="12"/>
+      <c r="P30" s="13" t="s">
         <v>38</v>
       </c>
       <c r="Q30" s="3" t="s">
@@ -8123,15 +8152,15 @@
     <row r="31" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
       <c r="E31" s="3" t="s">
         <v>149</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
-      <c r="I31" s="11"/>
+      <c r="I31" s="12"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3" t="s">
         <v>19</v>
@@ -8139,8 +8168,8 @@
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
-      <c r="O31" s="11"/>
-      <c r="P31" s="12"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="13"/>
       <c r="Q31" s="3" t="s">
         <v>161</v>
       </c>
@@ -8169,7 +8198,7 @@
     <row r="32" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
-      <c r="C32" s="11"/>
+      <c r="C32" s="12"/>
       <c r="D32" s="3" t="s">
         <v>153</v>
       </c>
@@ -8185,7 +8214,7 @@
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
-      <c r="O32" s="11"/>
+      <c r="O32" s="12"/>
       <c r="P32" s="3" t="s">
         <v>12</v>
       </c>
@@ -8215,7 +8244,7 @@
     <row r="33" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
-      <c r="C33" s="11"/>
+      <c r="C33" s="12"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3" t="s">
         <v>155</v>
@@ -8229,7 +8258,7 @@
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
-      <c r="O33" s="11"/>
+      <c r="O33" s="12"/>
       <c r="P33" s="3" t="s">
         <v>16</v>
       </c>
@@ -8261,7 +8290,7 @@
     <row r="34" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
-      <c r="C34" s="11"/>
+      <c r="C34" s="12"/>
       <c r="D34" s="3" t="s">
         <v>156</v>
       </c>
@@ -8277,7 +8306,7 @@
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
-      <c r="O34" s="11"/>
+      <c r="O34" s="12"/>
       <c r="P34" s="3" t="s">
         <v>19</v>
       </c>
@@ -8311,7 +8340,7 @@
     <row r="35" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="12" t="s">
         <v>176</v>
       </c>
       <c r="D35" s="3" t="s">
@@ -8359,7 +8388,7 @@
     <row r="36" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
-      <c r="C36" s="11"/>
+      <c r="C36" s="12"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3" t="s">
         <v>61</v>
@@ -8407,7 +8436,7 @@
     <row r="37" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
-      <c r="C37" s="11"/>
+      <c r="C37" s="12"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3" t="s">
         <v>56</v>
@@ -8451,7 +8480,7 @@
     <row r="38" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
-      <c r="C38" s="11"/>
+      <c r="C38" s="12"/>
       <c r="D38" s="3" t="s">
         <v>12</v>
       </c>
@@ -8497,7 +8526,7 @@
     <row r="39" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
-      <c r="C39" s="11"/>
+      <c r="C39" s="12"/>
       <c r="D39" s="3" t="s">
         <v>178</v>
       </c>
@@ -8541,8 +8570,8 @@
     <row r="40" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11" t="s">
+      <c r="C40" s="12"/>
+      <c r="D40" s="12" t="s">
         <v>40</v>
       </c>
       <c r="E40" s="3" t="s">
@@ -8585,8 +8614,8 @@
     <row r="41" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
       <c r="E41" s="3" t="s">
         <v>86</v>
       </c>
@@ -8627,7 +8656,7 @@
     <row r="42" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
-      <c r="C42" s="11" t="s">
+      <c r="C42" s="12" t="s">
         <v>179</v>
       </c>
       <c r="D42" s="3" t="s">
@@ -8672,8 +8701,8 @@
     <row r="43" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11" t="s">
+      <c r="C43" s="12"/>
+      <c r="D43" s="12" t="s">
         <v>38</v>
       </c>
       <c r="E43" s="3" t="s">
@@ -8720,8 +8749,8 @@
     <row r="44" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
       <c r="E44" s="3" t="s">
         <v>61</v>
       </c>
@@ -8764,8 +8793,8 @@
     <row r="45" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
       <c r="E45" s="3" t="s">
         <v>56</v>
       </c>
@@ -8814,8 +8843,8 @@
     <row r="46" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3" t="s">
         <v>26</v>
@@ -8858,8 +8887,8 @@
     <row r="47" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3" t="s">
         <v>27</v>
@@ -8902,8 +8931,8 @@
     <row r="48" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11" t="s">
+      <c r="C48" s="12"/>
+      <c r="D48" s="12" t="s">
         <v>40</v>
       </c>
       <c r="E48" s="3" t="s">
@@ -8946,8 +8975,8 @@
     <row r="49" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
       <c r="E49" s="3" t="s">
         <v>14</v>
       </c>
@@ -8988,8 +9017,8 @@
     <row r="50" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
       <c r="E50" s="3" t="s">
         <v>133</v>
       </c>
@@ -9030,8 +9059,8 @@
     <row r="51" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
       <c r="E51" s="3" t="s">
         <v>152</v>
       </c>
@@ -10777,18 +10806,13 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="X18:X19"/>
-    <mergeCell ref="X7:X14"/>
-    <mergeCell ref="W7:W19"/>
-    <mergeCell ref="W2:W6"/>
-    <mergeCell ref="O21:O28"/>
-    <mergeCell ref="O29:O34"/>
-    <mergeCell ref="P21:P25"/>
-    <mergeCell ref="P30:P31"/>
-    <mergeCell ref="D48:D51"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="C15:C20"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="D19:D20"/>
     <mergeCell ref="C42:C51"/>
     <mergeCell ref="C35:C41"/>
     <mergeCell ref="J27:J28"/>
@@ -10805,13 +10829,18 @@
     <mergeCell ref="I17:I19"/>
     <mergeCell ref="J15:J16"/>
     <mergeCell ref="C2:C14"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="C15:C20"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="O21:O28"/>
+    <mergeCell ref="O29:O34"/>
+    <mergeCell ref="P21:P25"/>
+    <mergeCell ref="P30:P31"/>
+    <mergeCell ref="D48:D51"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="X18:X19"/>
+    <mergeCell ref="X7:X14"/>
+    <mergeCell ref="W7:W19"/>
+    <mergeCell ref="W2:W6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10823,8 +10852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3774251-9EDA-4815-A3FD-716DC8D7D2A2}">
   <dimension ref="A1:K94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -10835,10 +10864,11 @@
     <col min="4" max="4" width="13.125" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="5"/>
     <col min="6" max="6" width="24" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="19.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.75" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.25" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.625" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.625" style="5" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
@@ -10846,6 +10876,18 @@
       <c r="B1" s="5" t="s">
         <v>263</v>
       </c>
+      <c r="G1" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
@@ -10915,29 +10957,23 @@
       <c r="H4" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="I4" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="K4" s="5" t="s">
+      <c r="I4" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="C5" s="11">
+        <v>4</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="H5" s="8" t="s">
         <v>320</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13" t="s">
-        <v>317</v>
-      </c>
-      <c r="C5" s="13">
-        <v>4</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="H5" s="8" t="s">
-        <v>321</v>
       </c>
       <c r="I5" s="5">
         <f>SUM(I2,-I3)</f>
@@ -10948,6 +10984,13 @@
       <c r="A6" s="5" t="s">
         <v>227</v>
       </c>
+      <c r="H6" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="I6" s="5">
+        <f>I4/I3</f>
+        <v>0.90909090909090906</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B7" s="7" t="s">
@@ -10987,6 +11030,14 @@
         <f>DATE(2024,12,20)</f>
         <v>45646</v>
       </c>
+      <c r="J8" s="5">
+        <f>NETWORKDAYS("2024/10/28",I8)</f>
+        <v>40</v>
+      </c>
+      <c r="K8" s="5">
+        <f>I5/J8</f>
+        <v>3.15</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B9" s="5" t="s">
@@ -11005,6 +11056,14 @@
         <f>DATE(2025,1,17)</f>
         <v>45674</v>
       </c>
+      <c r="J9" s="5">
+        <f>NETWORKDAYS("2024/10/28",I9)</f>
+        <v>60</v>
+      </c>
+      <c r="K9" s="5">
+        <f>I5/J9</f>
+        <v>2.1</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B10" s="5" t="s">
@@ -11022,6 +11081,14 @@
       <c r="I10" s="9">
         <f>DATE(2025,2,3)</f>
         <v>45691</v>
+      </c>
+      <c r="J10" s="5">
+        <f>NETWORKDAYS("2024/10/28",I10)</f>
+        <v>71</v>
+      </c>
+      <c r="K10" s="5">
+        <f>I5/J10</f>
+        <v>1.7746478873239437</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
@@ -11934,15 +12001,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100534661B278935E44B366872DF9464E45" ma:contentTypeVersion="15" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="87be336555b78707b8880fee16249c2c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="56f67181-167d-4f85-a438-a55f61d398e9" xmlns:ns3="c2562f78-638f-4b8f-b708-acdd87129c74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b22ecc2f48af7f73de819eeebf1146e0" ns2:_="" ns3:_="">
     <xsd:import namespace="56f67181-167d-4f85-a438-a55f61d398e9"/>
@@ -12177,15 +12235,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC531D2F-8FC5-4536-8BD5-F2D0DF84503E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31B87372-780A-47A6-AADC-973D325AD293}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12202,4 +12261,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC531D2F-8FC5-4536-8BD5-F2D0DF84503E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/3DGame_3_NamelessGame/NamelessGame_仕様書.xlsx
+++ b/3DGame_3_NamelessGame/NamelessGame_仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347059\Documents\GitHub\制作作品\ProductionWork\3DGame_3_NamelessGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4CC0A48-DA93-4C35-B08B-8A6A78FA2ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF7C9E43-40FD-4AB7-8F63-18B2E912A7E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" firstSheet="3" activeTab="7" xr2:uid="{2DDD9D27-F88C-4C7A-90BC-D78AE39EE51E}"/>
+    <workbookView xWindow="3870" yWindow="3150" windowWidth="21600" windowHeight="11295" firstSheet="1" activeTab="1" xr2:uid="{2DDD9D27-F88C-4C7A-90BC-D78AE39EE51E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5717,7 +5717,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{632EE460-EFA2-4742-B802-EBE7EC6DB6B7}">
   <dimension ref="B3:F41"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -6134,7 +6134,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{518EA069-E43A-4A23-BFE4-3A9E9AB91ED3}">
   <dimension ref="B2:R34"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
@@ -10806,13 +10806,18 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="C15:C20"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="X18:X19"/>
+    <mergeCell ref="X7:X14"/>
+    <mergeCell ref="W7:W19"/>
+    <mergeCell ref="W2:W6"/>
+    <mergeCell ref="O21:O28"/>
+    <mergeCell ref="O29:O34"/>
+    <mergeCell ref="P21:P25"/>
+    <mergeCell ref="P30:P31"/>
+    <mergeCell ref="D48:D51"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="D30:D31"/>
     <mergeCell ref="C42:C51"/>
     <mergeCell ref="C35:C41"/>
     <mergeCell ref="J27:J28"/>
@@ -10829,18 +10834,13 @@
     <mergeCell ref="I17:I19"/>
     <mergeCell ref="J15:J16"/>
     <mergeCell ref="C2:C14"/>
-    <mergeCell ref="O21:O28"/>
-    <mergeCell ref="O29:O34"/>
-    <mergeCell ref="P21:P25"/>
-    <mergeCell ref="P30:P31"/>
-    <mergeCell ref="D48:D51"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="X18:X19"/>
-    <mergeCell ref="X7:X14"/>
-    <mergeCell ref="W7:W19"/>
-    <mergeCell ref="W2:W6"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="C15:C20"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="D19:D20"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10852,7 +10852,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3774251-9EDA-4815-A3FD-716DC8D7D2A2}">
   <dimension ref="A1:K94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
@@ -12001,6 +12001,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100534661B278935E44B366872DF9464E45" ma:contentTypeVersion="15" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="87be336555b78707b8880fee16249c2c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="56f67181-167d-4f85-a438-a55f61d398e9" xmlns:ns3="c2562f78-638f-4b8f-b708-acdd87129c74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b22ecc2f48af7f73de819eeebf1146e0" ns2:_="" ns3:_="">
     <xsd:import namespace="56f67181-167d-4f85-a438-a55f61d398e9"/>
@@ -12235,16 +12244,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC531D2F-8FC5-4536-8BD5-F2D0DF84503E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31B87372-780A-47A6-AADC-973D325AD293}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12261,12 +12269,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC531D2F-8FC5-4536-8BD5-F2D0DF84503E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/3DGame_3_NamelessGame/NamelessGame_仕様書.xlsx
+++ b/3DGame_3_NamelessGame/NamelessGame_仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347059\Documents\GitHub\制作作品\ProductionWork\3DGame_3_NamelessGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF7C9E43-40FD-4AB7-8F63-18B2E912A7E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03803CC9-2B91-4785-8D96-86F37D86A3A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3870" yWindow="3150" windowWidth="21600" windowHeight="11295" firstSheet="1" activeTab="1" xr2:uid="{2DDD9D27-F88C-4C7A-90BC-D78AE39EE51E}"/>
+    <workbookView xWindow="-5700" yWindow="-16320" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="4" xr2:uid="{2DDD9D27-F88C-4C7A-90BC-D78AE39EE51E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5717,7 +5717,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{632EE460-EFA2-4742-B802-EBE7EC6DB6B7}">
   <dimension ref="B3:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -6134,7 +6134,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{518EA069-E43A-4A23-BFE4-3A9E9AB91ED3}">
   <dimension ref="B2:R34"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
@@ -10806,18 +10806,13 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="X18:X19"/>
-    <mergeCell ref="X7:X14"/>
-    <mergeCell ref="W7:W19"/>
-    <mergeCell ref="W2:W6"/>
-    <mergeCell ref="O21:O28"/>
-    <mergeCell ref="O29:O34"/>
-    <mergeCell ref="P21:P25"/>
-    <mergeCell ref="P30:P31"/>
-    <mergeCell ref="D48:D51"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="C15:C20"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="D19:D20"/>
     <mergeCell ref="C42:C51"/>
     <mergeCell ref="C35:C41"/>
     <mergeCell ref="J27:J28"/>
@@ -10834,13 +10829,18 @@
     <mergeCell ref="I17:I19"/>
     <mergeCell ref="J15:J16"/>
     <mergeCell ref="C2:C14"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="C15:C20"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="O21:O28"/>
+    <mergeCell ref="O29:O34"/>
+    <mergeCell ref="P21:P25"/>
+    <mergeCell ref="P30:P31"/>
+    <mergeCell ref="D48:D51"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="X18:X19"/>
+    <mergeCell ref="X7:X14"/>
+    <mergeCell ref="W7:W19"/>
+    <mergeCell ref="W2:W6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12001,15 +12001,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100534661B278935E44B366872DF9464E45" ma:contentTypeVersion="15" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="87be336555b78707b8880fee16249c2c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="56f67181-167d-4f85-a438-a55f61d398e9" xmlns:ns3="c2562f78-638f-4b8f-b708-acdd87129c74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b22ecc2f48af7f73de819eeebf1146e0" ns2:_="" ns3:_="">
     <xsd:import namespace="56f67181-167d-4f85-a438-a55f61d398e9"/>
@@ -12244,15 +12235,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC531D2F-8FC5-4536-8BD5-F2D0DF84503E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31B87372-780A-47A6-AADC-973D325AD293}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12269,4 +12261,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC531D2F-8FC5-4536-8BD5-F2D0DF84503E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/3DGame_3_NamelessGame/NamelessGame_仕様書.xlsx
+++ b/3DGame_3_NamelessGame/NamelessGame_仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347059\Documents\GitHub\制作作品\ProductionWork\3DGame_3_NamelessGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03803CC9-2B91-4785-8D96-86F37D86A3A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E5611C-370E-41D7-8AF7-1B67565E6C84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5700" yWindow="-16320" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="4" xr2:uid="{2DDD9D27-F88C-4C7A-90BC-D78AE39EE51E}"/>
+    <workbookView xWindow="1995" yWindow="2805" windowWidth="21600" windowHeight="11295" firstSheet="1" activeTab="7" xr2:uid="{2DDD9D27-F88C-4C7A-90BC-D78AE39EE51E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="323">
   <si>
     <t>就職作品</t>
     <rPh sb="0" eb="4">
@@ -2148,22 +2148,6 @@
     <t>マップのポイント移動</t>
     <rPh sb="8" eb="10">
       <t>イドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>HPを減らす,敵の攻撃力を参照する</t>
-    <rPh sb="3" eb="4">
-      <t>ヘ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>コウゲキリョク</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>サンショウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -6134,7 +6118,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{518EA069-E43A-4A23-BFE4-3A9E9AB91ED3}">
   <dimension ref="B2:R34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
@@ -10806,13 +10790,18 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="C15:C20"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="X18:X19"/>
+    <mergeCell ref="X7:X14"/>
+    <mergeCell ref="W7:W19"/>
+    <mergeCell ref="W2:W6"/>
+    <mergeCell ref="O21:O28"/>
+    <mergeCell ref="O29:O34"/>
+    <mergeCell ref="P21:P25"/>
+    <mergeCell ref="P30:P31"/>
+    <mergeCell ref="D48:D51"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="D30:D31"/>
     <mergeCell ref="C42:C51"/>
     <mergeCell ref="C35:C41"/>
     <mergeCell ref="J27:J28"/>
@@ -10829,18 +10818,13 @@
     <mergeCell ref="I17:I19"/>
     <mergeCell ref="J15:J16"/>
     <mergeCell ref="C2:C14"/>
-    <mergeCell ref="O21:O28"/>
-    <mergeCell ref="O29:O34"/>
-    <mergeCell ref="P21:P25"/>
-    <mergeCell ref="P30:P31"/>
-    <mergeCell ref="D48:D51"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="X18:X19"/>
-    <mergeCell ref="X7:X14"/>
-    <mergeCell ref="W7:W19"/>
-    <mergeCell ref="W2:W6"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="C15:C20"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="D19:D20"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10852,8 +10836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3774251-9EDA-4815-A3FD-716DC8D7D2A2}">
   <dimension ref="A1:K94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -10877,16 +10861,16 @@
         <v>263</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
@@ -10936,7 +10920,7 @@
       </c>
       <c r="I3" s="5">
         <f>SUM(D7:D94)</f>
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
@@ -10952,7 +10936,7 @@
         <v>264</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H4" s="8" t="s">
         <v>268</v>
@@ -10964,7 +10948,7 @@
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" s="11"/>
       <c r="B5" s="11" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C5" s="11">
         <v>4</v>
@@ -10973,11 +10957,11 @@
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
       <c r="H5" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I5" s="5">
         <f>SUM(I2,-I3)</f>
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
@@ -10985,11 +10969,11 @@
         <v>227</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I6" s="5">
         <f>I4/I3</f>
-        <v>0.90909090909090906</v>
+        <v>0.68965517241379315</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
@@ -11031,12 +11015,12 @@
         <v>45646</v>
       </c>
       <c r="J8" s="5">
-        <f>NETWORKDAYS("2024/10/28",I8)</f>
-        <v>40</v>
+        <f>NETWORKDAYS("2024/11/13",I8)</f>
+        <v>28</v>
       </c>
       <c r="K8" s="5">
         <f>I5/J8</f>
-        <v>3.15</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
@@ -11062,7 +11046,7 @@
       </c>
       <c r="K9" s="5">
         <f>I5/J9</f>
-        <v>2.1</v>
+        <v>1.9833333333333334</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
@@ -11088,7 +11072,7 @@
       </c>
       <c r="K10" s="5">
         <f>I5/J10</f>
-        <v>1.7746478873239437</v>
+        <v>1.676056338028169</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
@@ -11270,19 +11254,19 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="10">
         <v>3</v>
       </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>301</v>
-      </c>
+      <c r="D25" s="10">
+        <v>3</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="F25" s="10"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B26" s="7" t="s">
@@ -11296,12 +11280,12 @@
         <v>264</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B27" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C27" s="6">
         <v>2</v>
@@ -11345,19 +11329,17 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="10">
         <v>2</v>
       </c>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7" t="s">
+      <c r="D30" s="10"/>
+      <c r="E30" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="F30" s="7" t="s">
-        <v>306</v>
-      </c>
+      <c r="F30" s="10"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B31" s="7" t="s">
@@ -11375,14 +11357,17 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="10">
         <v>0.5</v>
       </c>
-      <c r="E32" s="5" t="s">
-        <v>265</v>
+      <c r="D32" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.4">
@@ -11398,7 +11383,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B34" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C34" s="5">
         <v>2</v>
@@ -11491,7 +11476,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B42" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C42" s="7">
         <v>1</v>
@@ -11504,7 +11489,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B43" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C43" s="7">
         <v>1</v>
@@ -11560,14 +11545,17 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C48" s="5">
+      <c r="C48" s="10">
         <v>0.5</v>
       </c>
-      <c r="E48" s="5" t="s">
-        <v>265</v>
+      <c r="D48" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.4">
@@ -11787,14 +11775,17 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B71" s="5" t="s">
+      <c r="B71" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="C71" s="5">
+      <c r="C71" s="10">
         <v>1</v>
       </c>
-      <c r="E71" s="5" t="s">
-        <v>265</v>
+      <c r="D71" s="10">
+        <v>1</v>
+      </c>
+      <c r="E71" s="10" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.4">
@@ -11809,14 +11800,17 @@
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B73" s="5" t="s">
+      <c r="B73" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="C73" s="5">
+      <c r="C73" s="10">
         <v>2</v>
       </c>
-      <c r="E73" s="5" t="s">
-        <v>265</v>
+      <c r="D73" s="10">
+        <v>2</v>
+      </c>
+      <c r="E73" s="10" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.4">
@@ -11904,7 +11898,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B82" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C82" s="5">
         <v>2</v>
@@ -11928,7 +11922,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B86" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C86" s="5">
         <v>1</v>
@@ -11947,7 +11941,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B88" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C88" s="5">
         <v>3</v>
@@ -11955,7 +11949,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B89" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C89" s="5">
         <v>4</v>
@@ -12001,6 +11995,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100534661B278935E44B366872DF9464E45" ma:contentTypeVersion="15" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="87be336555b78707b8880fee16249c2c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="56f67181-167d-4f85-a438-a55f61d398e9" xmlns:ns3="c2562f78-638f-4b8f-b708-acdd87129c74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b22ecc2f48af7f73de819eeebf1146e0" ns2:_="" ns3:_="">
     <xsd:import namespace="56f67181-167d-4f85-a438-a55f61d398e9"/>
@@ -12235,16 +12238,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC531D2F-8FC5-4536-8BD5-F2D0DF84503E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31B87372-780A-47A6-AADC-973D325AD293}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12261,12 +12263,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC531D2F-8FC5-4536-8BD5-F2D0DF84503E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/3DGame_3_NamelessGame/NamelessGame_仕様書.xlsx
+++ b/3DGame_3_NamelessGame/NamelessGame_仕様書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347059\Documents\GitHub\制作作品\ProductionWork\3DGame_3_NamelessGame\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347059\Documents\GitHub\ProductionWork\3DGame_3_NamelessGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E5611C-370E-41D7-8AF7-1B67565E6C84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C2CB915-3C79-4D14-8E76-33349525A1E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1995" yWindow="2805" windowWidth="21600" windowHeight="11295" firstSheet="1" activeTab="7" xr2:uid="{2DDD9D27-F88C-4C7A-90BC-D78AE39EE51E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="7" xr2:uid="{2DDD9D27-F88C-4C7A-90BC-D78AE39EE51E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2235,16 +2235,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>10/28時点:20日</t>
-    <rPh sb="5" eb="7">
-      <t>ジテン</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ニチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>残りコスト</t>
     <rPh sb="0" eb="1">
       <t>ノコ</t>
@@ -2284,6 +2274,16 @@
     </rPh>
     <rPh sb="8" eb="10">
       <t>ショウヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11/25時点:36日</t>
+    <rPh sb="5" eb="7">
+      <t>ジテン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ニチ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -10790,18 +10790,13 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="X18:X19"/>
-    <mergeCell ref="X7:X14"/>
-    <mergeCell ref="W7:W19"/>
-    <mergeCell ref="W2:W6"/>
-    <mergeCell ref="O21:O28"/>
-    <mergeCell ref="O29:O34"/>
-    <mergeCell ref="P21:P25"/>
-    <mergeCell ref="P30:P31"/>
-    <mergeCell ref="D48:D51"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="C15:C20"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="D19:D20"/>
     <mergeCell ref="C42:C51"/>
     <mergeCell ref="C35:C41"/>
     <mergeCell ref="J27:J28"/>
@@ -10818,13 +10813,18 @@
     <mergeCell ref="I17:I19"/>
     <mergeCell ref="J15:J16"/>
     <mergeCell ref="C2:C14"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="C15:C20"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="O21:O28"/>
+    <mergeCell ref="O29:O34"/>
+    <mergeCell ref="P21:P25"/>
+    <mergeCell ref="P30:P31"/>
+    <mergeCell ref="D48:D51"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="X18:X19"/>
+    <mergeCell ref="X7:X14"/>
+    <mergeCell ref="W7:W19"/>
+    <mergeCell ref="W2:W6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10836,8 +10836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3774251-9EDA-4815-A3FD-716DC8D7D2A2}">
   <dimension ref="A1:K94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -10864,13 +10864,13 @@
         <v>308</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
@@ -10942,7 +10942,7 @@
         <v>268</v>
       </c>
       <c r="I4" s="5">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
@@ -10957,7 +10957,7 @@
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
       <c r="H5" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I5" s="5">
         <f>SUM(I2,-I3)</f>
@@ -10969,11 +10969,11 @@
         <v>227</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I6" s="5">
         <f>I4/I3</f>
-        <v>0.68965517241379315</v>
+        <v>1.2413793103448276</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
@@ -11015,12 +11015,12 @@
         <v>45646</v>
       </c>
       <c r="J8" s="5">
-        <f>NETWORKDAYS("2024/11/13",I8)</f>
-        <v>28</v>
+        <f>NETWORKDAYS("2024/11/25",I8)</f>
+        <v>20</v>
       </c>
       <c r="K8" s="5">
         <f>I5/J8</f>
-        <v>4.25</v>
+        <v>5.95</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
@@ -11041,12 +11041,12 @@
         <v>45674</v>
       </c>
       <c r="J9" s="5">
-        <f>NETWORKDAYS("2024/10/28",I9)</f>
-        <v>60</v>
+        <f>NETWORKDAYS("2024/11/25",I9)</f>
+        <v>40</v>
       </c>
       <c r="K9" s="5">
         <f>I5/J9</f>
-        <v>1.9833333333333334</v>
+        <v>2.9750000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
@@ -11067,12 +11067,12 @@
         <v>45691</v>
       </c>
       <c r="J10" s="5">
-        <f>NETWORKDAYS("2024/10/28",I10)</f>
-        <v>71</v>
+        <f>NETWORKDAYS("2024/11/25",I10)</f>
+        <v>51</v>
       </c>
       <c r="K10" s="5">
         <f>I5/J10</f>
-        <v>1.676056338028169</v>
+        <v>2.3333333333333335</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
@@ -11995,15 +11995,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100534661B278935E44B366872DF9464E45" ma:contentTypeVersion="15" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="87be336555b78707b8880fee16249c2c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="56f67181-167d-4f85-a438-a55f61d398e9" xmlns:ns3="c2562f78-638f-4b8f-b708-acdd87129c74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b22ecc2f48af7f73de819eeebf1146e0" ns2:_="" ns3:_="">
     <xsd:import namespace="56f67181-167d-4f85-a438-a55f61d398e9"/>
@@ -12238,15 +12229,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC531D2F-8FC5-4536-8BD5-F2D0DF84503E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31B87372-780A-47A6-AADC-973D325AD293}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12263,4 +12255,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC531D2F-8FC5-4536-8BD5-F2D0DF84503E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/3DGame_3_NamelessGame/NamelessGame_仕様書.xlsx
+++ b/3DGame_3_NamelessGame/NamelessGame_仕様書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347059\Documents\GitHub\ProductionWork\3DGame_3_NamelessGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C2CB915-3C79-4D14-8E76-33349525A1E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E91A610A-9323-4F9A-AF6D-236CC7F8D66E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="7" xr2:uid="{2DDD9D27-F88C-4C7A-90BC-D78AE39EE51E}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="324">
   <si>
     <t>就職作品</t>
     <rPh sb="0" eb="4">
@@ -2284,6 +2284,13 @@
     </rPh>
     <rPh sb="10" eb="11">
       <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今日</t>
+    <rPh sb="0" eb="2">
+      <t>キョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2366,7 +2373,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2406,6 +2413,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -10790,13 +10800,18 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="C15:C20"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="X18:X19"/>
+    <mergeCell ref="X7:X14"/>
+    <mergeCell ref="W7:W19"/>
+    <mergeCell ref="W2:W6"/>
+    <mergeCell ref="O21:O28"/>
+    <mergeCell ref="O29:O34"/>
+    <mergeCell ref="P21:P25"/>
+    <mergeCell ref="P30:P31"/>
+    <mergeCell ref="D48:D51"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="D30:D31"/>
     <mergeCell ref="C42:C51"/>
     <mergeCell ref="C35:C41"/>
     <mergeCell ref="J27:J28"/>
@@ -10813,18 +10828,13 @@
     <mergeCell ref="I17:I19"/>
     <mergeCell ref="J15:J16"/>
     <mergeCell ref="C2:C14"/>
-    <mergeCell ref="O21:O28"/>
-    <mergeCell ref="O29:O34"/>
-    <mergeCell ref="P21:P25"/>
-    <mergeCell ref="P30:P31"/>
-    <mergeCell ref="D48:D51"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="X18:X19"/>
-    <mergeCell ref="X7:X14"/>
-    <mergeCell ref="W7:W19"/>
-    <mergeCell ref="W2:W6"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="C15:C20"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="D19:D20"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10834,10 +10844,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3774251-9EDA-4815-A3FD-716DC8D7D2A2}">
-  <dimension ref="A1:K94"/>
+  <dimension ref="A1:K95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -10896,7 +10906,7 @@
         <v>266</v>
       </c>
       <c r="I2" s="5">
-        <f>SUM(C3:C94)</f>
+        <f>SUM(C3:C95)</f>
         <v>148</v>
       </c>
     </row>
@@ -10915,12 +10925,15 @@
         <v>235</v>
       </c>
       <c r="F3" s="10"/>
+      <c r="G3" s="5" t="s">
+        <v>323</v>
+      </c>
       <c r="H3" s="8" t="s">
         <v>267</v>
       </c>
       <c r="I3" s="5">
-        <f>SUM(D7:D94)</f>
-        <v>29</v>
+        <f>SUM(D7:D95)</f>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
@@ -10937,6 +10950,10 @@
       </c>
       <c r="F4" s="7" t="s">
         <v>317</v>
+      </c>
+      <c r="G4" s="14">
+        <f ca="1">TODAY()</f>
+        <v>45642</v>
       </c>
       <c r="H4" s="8" t="s">
         <v>268</v>
@@ -10961,7 +10978,7 @@
       </c>
       <c r="I5" s="5">
         <f>SUM(I2,-I3)</f>
-        <v>119</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
@@ -10973,7 +10990,7 @@
       </c>
       <c r="I6" s="5">
         <f>I4/I3</f>
-        <v>1.2413793103448276</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
@@ -11011,16 +11028,16 @@
         <v>269</v>
       </c>
       <c r="I8" s="9">
-        <f>DATE(2024,12,20)</f>
-        <v>45646</v>
+        <f>DATE(2024,12,30)</f>
+        <v>45656</v>
       </c>
       <c r="J8" s="5">
-        <f>NETWORKDAYS("2024/11/25",I8)</f>
-        <v>20</v>
+        <f ca="1">NETWORKDAYS(G4,I8)</f>
+        <v>11</v>
       </c>
       <c r="K8" s="5">
-        <f>I5/J8</f>
-        <v>5.95</v>
+        <f ca="1">I5/J8</f>
+        <v>8.9090909090909083</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
@@ -11041,12 +11058,12 @@
         <v>45674</v>
       </c>
       <c r="J9" s="5">
-        <f>NETWORKDAYS("2024/11/25",I9)</f>
-        <v>40</v>
+        <f ca="1">NETWORKDAYS(G4,I9)</f>
+        <v>25</v>
       </c>
       <c r="K9" s="5">
-        <f>I5/J9</f>
-        <v>2.9750000000000001</v>
+        <f ca="1">I5/J9</f>
+        <v>3.92</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
@@ -11067,12 +11084,12 @@
         <v>45691</v>
       </c>
       <c r="J10" s="5">
-        <f>NETWORKDAYS("2024/11/25",I10)</f>
-        <v>51</v>
+        <f ca="1">NETWORKDAYS(G4,I10)</f>
+        <v>36</v>
       </c>
       <c r="K10" s="5">
-        <f>I5/J10</f>
-        <v>2.3333333333333335</v>
+        <f ca="1">I5/J10</f>
+        <v>2.7222222222222223</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
@@ -11085,6 +11102,9 @@
       <c r="E11" s="5" t="s">
         <v>265</v>
       </c>
+      <c r="G11" s="5" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B12" s="5" t="s">
@@ -11096,6 +11116,9 @@
       <c r="E12" s="5" t="s">
         <v>265</v>
       </c>
+      <c r="G12" s="5" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" s="5" t="s">
@@ -11370,7 +11393,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B33" s="5" t="s">
         <v>219</v>
       </c>
@@ -11380,8 +11403,11 @@
       <c r="E33" s="5" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G33" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B34" s="5" t="s">
         <v>306</v>
       </c>
@@ -11391,13 +11417,16 @@
       <c r="E34" s="5" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G34" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35" s="5" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B36" s="6" t="s">
         <v>239</v>
       </c>
@@ -11412,7 +11441,7 @@
       </c>
       <c r="F36" s="6"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B37" s="6" t="s">
         <v>159</v>
       </c>
@@ -11427,7 +11456,7 @@
       </c>
       <c r="F37" s="6"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B38" s="7" t="s">
         <v>292</v>
       </c>
@@ -11442,7 +11471,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B39" s="7" t="s">
         <v>293</v>
       </c>
@@ -11455,7 +11484,7 @@
       </c>
       <c r="F39" s="7"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B40" s="5" t="s">
         <v>107</v>
       </c>
@@ -11466,7 +11495,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B41" s="5" t="s">
         <v>38</v>
       </c>
@@ -11474,20 +11503,22 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B42" s="7" t="s">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B42" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="C42" s="7">
+      <c r="C42" s="10">
         <v>1</v>
       </c>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="F42" s="7"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D42" s="10">
+        <v>1</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="F42" s="10"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B43" s="7" t="s">
         <v>315</v>
       </c>
@@ -11498,7 +11529,7 @@
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B44" s="7" t="s">
         <v>161</v>
       </c>
@@ -11511,7 +11542,7 @@
       </c>
       <c r="F44" s="7"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B45" s="7" t="s">
         <v>161</v>
       </c>
@@ -11522,18 +11553,20 @@
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B46" s="5" t="s">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B46" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C46" s="5">
+      <c r="C46" s="11">
         <v>1</v>
       </c>
-      <c r="E46" s="5" t="s">
+      <c r="D46" s="11"/>
+      <c r="E46" s="11" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F46" s="11"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B47" s="5" t="s">
         <v>16</v>
       </c>
@@ -11544,7 +11577,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B48" s="10" t="s">
         <v>19</v>
       </c>
@@ -11557,17 +11590,22 @@
       <c r="E48" s="10" t="s">
         <v>235</v>
       </c>
+      <c r="F48" s="10"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="C49" s="5">
+      <c r="C49" s="10">
         <v>2</v>
       </c>
-      <c r="E49" s="5" t="s">
-        <v>265</v>
-      </c>
+      <c r="D49" s="10">
+        <v>2</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="F49" s="10"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B50" s="5" t="s">
@@ -11608,66 +11646,90 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="10" t="s">
         <v>299</v>
       </c>
-      <c r="C54" s="5">
-        <v>12</v>
-      </c>
+      <c r="C54" s="10">
+        <v>10</v>
+      </c>
+      <c r="D54" s="10">
+        <v>10</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="F54" s="10"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="C55" s="5">
+      <c r="C55" s="10">
         <v>2</v>
       </c>
+      <c r="D55" s="10">
+        <v>2</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="F55" s="10"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="C56" s="5">
+      <c r="C56" s="10">
         <v>1</v>
       </c>
+      <c r="D56" s="10">
+        <v>1</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="F56" s="10"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="C57" s="5">
+      <c r="C57" s="10">
         <v>4</v>
       </c>
+      <c r="D57" s="10">
+        <v>4</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="F57" s="10"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A58" s="5" t="s">
+      <c r="B58" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C58" s="5">
+        <v>2</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A59" s="5" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B59" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="C59" s="6">
-        <v>1</v>
-      </c>
-      <c r="D59" s="6">
-        <v>1</v>
-      </c>
-      <c r="E59" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="F59" s="6"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B60" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C60" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D60" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E60" s="6" t="s">
         <v>235</v>
@@ -11675,64 +11737,68 @@
       <c r="F60" s="6"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="C61" s="6">
+        <v>2</v>
+      </c>
+      <c r="D61" s="6">
+        <v>2</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="F61" s="6"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B62" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C61" s="7">
+      <c r="C62" s="7">
         <v>1.5</v>
       </c>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7" t="s">
+      <c r="D62" s="7"/>
+      <c r="E62" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="F61" s="7"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A62" s="5" t="s">
+      <c r="F62" s="7"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A63" s="5" t="s">
         <v>230</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B63" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="C63" s="5">
-        <v>2</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B64" s="5" t="s">
-        <v>294</v>
+        <v>251</v>
       </c>
       <c r="C64" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A65" s="5" t="s">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B65" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="C65" s="5">
+        <v>1</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A66" s="5" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B66" s="5" t="s">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B67" s="5" t="s">
         <v>196</v>
-      </c>
-      <c r="C66" s="5">
-        <v>1</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B67" s="5" t="s">
-        <v>197</v>
       </c>
       <c r="C67" s="5">
         <v>1</v>
@@ -11740,43 +11806,47 @@
       <c r="E67" s="5" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B68" s="10" t="s">
+      <c r="G67" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B68" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C68" s="5">
+        <v>1</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B69" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="C68" s="10">
+      <c r="C69" s="10">
         <v>1</v>
       </c>
-      <c r="D68" s="10">
+      <c r="D69" s="10">
         <v>1</v>
       </c>
-      <c r="E68" s="10" t="s">
+      <c r="E69" s="10" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A69" s="5" t="s">
+      <c r="F69" s="10"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A70" s="5" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B70" s="10" t="s">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B71" s="10" t="s">
         <v>96</v>
-      </c>
-      <c r="C70" s="10">
-        <v>1</v>
-      </c>
-      <c r="D70" s="10">
-        <v>1</v>
-      </c>
-      <c r="E70" s="10" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B71" s="10" t="s">
-        <v>97</v>
       </c>
       <c r="C71" s="10">
         <v>1</v>
@@ -11787,203 +11857,230 @@
       <c r="E71" s="10" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B72" s="5" t="s">
+      <c r="F71" s="10"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B72" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72" s="10">
+        <v>1</v>
+      </c>
+      <c r="D72" s="10">
+        <v>1</v>
+      </c>
+      <c r="E72" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="F72" s="10"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B73" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C72" s="5">
+      <c r="C73" s="5">
         <v>1</v>
       </c>
-      <c r="E72" s="5" t="s">
+      <c r="E73" s="5" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B73" s="10" t="s">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B74" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="C73" s="10">
+      <c r="C74" s="10">
         <v>2</v>
       </c>
-      <c r="D73" s="10">
+      <c r="D74" s="10">
         <v>2</v>
       </c>
-      <c r="E73" s="10" t="s">
+      <c r="E74" s="10" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B74" s="5" t="s">
+      <c r="F74" s="10"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B75" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C74" s="5">
+      <c r="C75" s="5">
         <v>2</v>
-      </c>
-      <c r="E74" s="5" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B75" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="C75" s="5">
-        <v>1</v>
       </c>
       <c r="E75" s="5" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B76" s="5" t="s">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B76" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C76" s="10">
+        <v>1</v>
+      </c>
+      <c r="D76" s="10">
+        <v>1</v>
+      </c>
+      <c r="E76" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="F76" s="10"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B77" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C76" s="5">
+      <c r="C77" s="5">
         <v>1</v>
       </c>
-      <c r="E76" s="5" t="s">
+      <c r="E77" s="5" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A77" s="5" t="s">
+      <c r="G77" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A78" s="5" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B78" s="6" t="s">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B79" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="C78" s="6">
+      <c r="C79" s="6">
         <v>2</v>
       </c>
-      <c r="D78" s="6">
+      <c r="D79" s="6">
         <v>2</v>
       </c>
-      <c r="E78" s="6" t="s">
+      <c r="E79" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="F78" s="6"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B79" s="5" t="s">
+      <c r="F79" s="6"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B80" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="C79" s="5">
+      <c r="C80" s="5">
         <v>2</v>
       </c>
-      <c r="E79" s="5" t="s">
+      <c r="E80" s="5" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B80" s="5" t="s">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B81" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="C80" s="5">
+      <c r="C81" s="5">
         <v>1</v>
       </c>
-      <c r="E80" s="5" t="s">
+      <c r="E81" s="5" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B81" s="5" t="s">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B82" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="C81" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B82" s="5" t="s">
-        <v>310</v>
       </c>
       <c r="C82" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A84" s="5" t="s">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B83" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="C83" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A85" s="5" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B85" s="5" t="s">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B86" s="5" t="s">
         <v>256</v>
-      </c>
-      <c r="C85" s="5">
-        <v>1</v>
-      </c>
-      <c r="E85" s="5" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B86" s="5" t="s">
-        <v>312</v>
       </c>
       <c r="C86" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E86" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B87" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="C87" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B88" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="C87" s="5">
+      <c r="C88" s="5">
         <v>2</v>
       </c>
-      <c r="E87" s="5" t="s">
+      <c r="E88" s="5" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B88" s="5" t="s">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B89" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="C88" s="5">
+      <c r="C89" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B89" s="5" t="s">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B90" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="C89" s="5">
+      <c r="C90" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A90" s="5" t="s">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A91" s="5" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B91" s="5" t="s">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B92" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="C91" s="5">
+      <c r="C92" s="5">
         <v>2</v>
       </c>
-      <c r="E91" s="5" t="s">
+      <c r="E92" s="5" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A93" s="5" t="s">
+      <c r="G92" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A94" s="5" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B94" s="5" t="s">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B95" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="C94" s="5">
+      <c r="C95" s="5">
         <v>2</v>
       </c>
-      <c r="E94" s="5" t="s">
+      <c r="E95" s="5" t="s">
         <v>265</v>
       </c>
     </row>
@@ -11995,6 +12092,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100534661B278935E44B366872DF9464E45" ma:contentTypeVersion="15" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="87be336555b78707b8880fee16249c2c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="56f67181-167d-4f85-a438-a55f61d398e9" xmlns:ns3="c2562f78-638f-4b8f-b708-acdd87129c74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b22ecc2f48af7f73de819eeebf1146e0" ns2:_="" ns3:_="">
     <xsd:import namespace="56f67181-167d-4f85-a438-a55f61d398e9"/>
@@ -12229,16 +12335,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC531D2F-8FC5-4536-8BD5-F2D0DF84503E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31B87372-780A-47A6-AADC-973D325AD293}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12255,12 +12360,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC531D2F-8FC5-4536-8BD5-F2D0DF84503E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>